--- a/Bench-in-loop/Structured_Grid/Structured Grid comparison.xlsx
+++ b/Bench-in-loop/Structured_Grid/Structured Grid comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikerlan-my.sharepoint.com/personal/mrodriguez_ikerlan_es/Documents/Documentos/GitHub/MARS-data/Bench-in-loop/Structured_Grid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="8_{8E775A4F-0340-4AC3-98F9-9A140DC03C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D28EE1DD-292C-4887-ADE0-6A7113E84B78}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="8_{8E775A4F-0340-4AC3-98F9-9A140DC03C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE9078A8-4840-4D0C-BFC7-BA9A27434AE5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" firstSheet="1" activeTab="10" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" firstSheet="1" activeTab="10" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
   </bookViews>
   <sheets>
     <sheet name="particlefilter_naive" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
   </externalReferences>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -413,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -500,6 +500,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -530,22 +533,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29791,57 +29783,43 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="particlefilter_naive"/>
-      <sheetName val="particlefilter_float"/>
-      <sheetName val="Hotspot64"/>
-      <sheetName val="Hotspot512"/>
-      <sheetName val="Hotspot1024"/>
-      <sheetName val="Hotspot3D"/>
-      <sheetName val="heartwall"/>
-      <sheetName val="srad_v1"/>
-      <sheetName val="srad_v2"/>
-      <sheetName val="leukocyte"/>
-      <sheetName val="myocyte"/>
+      <sheetName val="gaussian3"/>
+      <sheetName val="gaussian1024"/>
+      <sheetName val="LUD64"/>
+      <sheetName val="LUD2048"/>
+      <sheetName val="Kmeans100"/>
+      <sheetName val="Kmeans819200"/>
+      <sheetName val="Streamcluster"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>cudaMalloc</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="7">
+          <cell r="F7">
+            <v>0.49685522645290497</v>
           </cell>
         </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>ScatterAlloc</v>
+        <row r="17">
+          <cell r="F17">
+            <v>0.52853861533333302</v>
           </cell>
         </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Zero-Copy</v>
+        <row r="27">
+          <cell r="F27">
+            <v>0.59037115000000007</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Unified Memory</v>
+        <row r="37">
+          <cell r="F37">
+            <v>0.55035044</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9">
-        <row r="4">
-          <cell r="D4" t="str">
-            <v xml:space="preserve">cudaLaunchKernel </v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -34169,32 +34147,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="45" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="30" t="s">
         <v>3</v>
       </c>
@@ -34390,7 +34368,7 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:BM48"/>
+  <dimension ref="A1:BL48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:B12"/>
@@ -34414,11 +34392,11 @@
     <col min="17" max="17" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:64" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="11"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -34427,9 +34405,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:65" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="50"/>
+    <row r="2" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="11"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -34438,32 +34416,32 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:65" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="44" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47" t="s">
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -34513,7 +34491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -34565,30 +34543,29 @@
       <c r="Q5" s="4">
         <v>991.35114859999999</v>
       </c>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="53"/>
-      <c r="BK5" s="53"/>
-      <c r="BL5" s="53"/>
-      <c r="BM5" s="52"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="51"/>
+      <c r="AT5" s="51"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="51"/>
     </row>
-    <row r="6" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -34640,30 +34617,8 @@
       <c r="Q6" s="7">
         <v>33.968495749542797</v>
       </c>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="52"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="52"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="52"/>
-      <c r="BI6" s="52"/>
-      <c r="BJ6" s="52"/>
-      <c r="BK6" s="52"/>
-      <c r="BL6" s="52"/>
-      <c r="BM6" s="52"/>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -34731,30 +34686,29 @@
         <f>Q5</f>
         <v>991.35114859999999</v>
       </c>
-      <c r="AR7" s="54"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54"/>
-      <c r="AV7" s="54"/>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54"/>
-      <c r="AY7" s="54"/>
-      <c r="AZ7" s="54"/>
-      <c r="BA7" s="54"/>
-      <c r="BB7" s="54"/>
-      <c r="BC7" s="54"/>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="54"/>
-      <c r="BH7" s="54"/>
-      <c r="BI7" s="54"/>
-      <c r="BJ7" s="54"/>
-      <c r="BK7" s="54"/>
-      <c r="BL7" s="54"/>
-      <c r="BM7" s="52"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="35"/>
+      <c r="BC7" s="35"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="35"/>
+      <c r="BF7" s="35"/>
+      <c r="BG7" s="35"/>
+      <c r="BH7" s="35"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="35"/>
+      <c r="BL7" s="35"/>
     </row>
-    <row r="8" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -34822,35 +34776,34 @@
         <f>Q6</f>
         <v>33.968495749542797</v>
       </c>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
-      <c r="AY8" s="54"/>
-      <c r="AZ8" s="54"/>
-      <c r="BA8" s="54"/>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="54"/>
-      <c r="BD8" s="54"/>
-      <c r="BE8" s="54"/>
-      <c r="BF8" s="54"/>
-      <c r="BG8" s="54"/>
-      <c r="BH8" s="54"/>
-      <c r="BI8" s="54"/>
-      <c r="BJ8" s="54"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="54"/>
-      <c r="BM8" s="52"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="35"/>
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="35"/>
+      <c r="BH8" s="35"/>
+      <c r="BI8" s="35"/>
+      <c r="BJ8" s="35"/>
+      <c r="BK8" s="35"/>
+      <c r="BL8" s="35"/>
     </row>
-    <row r="10" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:65" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+    <row r="10" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:64" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="11"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -34859,9 +34812,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:65" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
+    <row r="12" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="11"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -34870,32 +34823,32 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:65" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="44" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="47" t="s">
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
@@ -34945,7 +34898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -34990,7 +34943,7 @@
         <v>1517.14883578947</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -35175,10 +35128,10 @@
     </row>
     <row r="20" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:50" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="11"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -35188,8 +35141,8 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:50" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="11"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -35200,27 +35153,27 @@
     </row>
     <row r="23" spans="1:50" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="44" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L23" s="45"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="44" t="s">
+      <c r="L23" s="46"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="45"/>
-      <c r="P23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="47"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -35520,10 +35473,10 @@
     </row>
     <row r="30" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:50" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="11"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -35533,8 +35486,8 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:50" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="11"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -35545,27 +35498,27 @@
     </row>
     <row r="33" spans="1:17" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="44" t="s">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L33" s="45"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="44" t="s">
+      <c r="L33" s="46"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="45"/>
-      <c r="P33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="47"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -35844,10 +35797,10 @@
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="41"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="11"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -35857,8 +35810,8 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="11"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -35869,27 +35822,27 @@
     </row>
     <row r="43" spans="1:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="44" t="s">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L43" s="45"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="44" t="s">
+      <c r="L43" s="46"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="45"/>
-      <c r="P43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="47"/>
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -36168,11 +36121,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="AS5:AV5"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="BA5:BD5"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:P33"/>
     <mergeCell ref="BE5:BH5"/>
     <mergeCell ref="BI5:BL5"/>
     <mergeCell ref="A21:B22"/>
@@ -36183,16 +36141,11 @@
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="AW5:AZ5"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="BA5:BD5"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="AS5:AV5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36245,77 +36198,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
     </row>
     <row r="3" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="44" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="34" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="52"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
     </row>
     <row r="4" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
@@ -36342,27 +36257,10 @@
       <c r="I4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AR4" s="56"/>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
     </row>
     <row r="5" spans="1:64" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -36392,27 +36290,27 @@
       <c r="I5" s="4">
         <v>6006.5351454918</v>
       </c>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="56"/>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="56"/>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="56"/>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="56"/>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="56"/>
-      <c r="BB5" s="56"/>
-      <c r="BC5" s="56"/>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="56"/>
-      <c r="BF5" s="56"/>
-      <c r="BG5" s="56"/>
-      <c r="BH5" s="56"/>
-      <c r="BI5" s="56"/>
-      <c r="BJ5" s="56"/>
-      <c r="BK5" s="56"/>
-      <c r="BL5" s="56"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
     </row>
     <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -36442,27 +36340,6 @@
       <c r="I6" s="7">
         <v>4759.9297547155402</v>
       </c>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="52"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="52"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="52"/>
-      <c r="BI6" s="52"/>
-      <c r="BJ6" s="52"/>
-      <c r="BK6" s="52"/>
-      <c r="BL6" s="52"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -36500,27 +36377,27 @@
         <f>I5</f>
         <v>6006.5351454918</v>
       </c>
-      <c r="AR7" s="54"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54"/>
-      <c r="AV7" s="54"/>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54"/>
-      <c r="AY7" s="54"/>
-      <c r="AZ7" s="54"/>
-      <c r="BA7" s="54"/>
-      <c r="BB7" s="54"/>
-      <c r="BC7" s="54"/>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="54"/>
-      <c r="BH7" s="54"/>
-      <c r="BI7" s="54"/>
-      <c r="BJ7" s="54"/>
-      <c r="BK7" s="54"/>
-      <c r="BL7" s="54"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="35"/>
+      <c r="BC7" s="35"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="35"/>
+      <c r="BF7" s="35"/>
+      <c r="BG7" s="35"/>
+      <c r="BH7" s="35"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="35"/>
+      <c r="BL7" s="35"/>
     </row>
     <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -36558,176 +36435,91 @@
         <f>I6</f>
         <v>4759.9297547155402</v>
       </c>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
-      <c r="AY8" s="54"/>
-      <c r="AZ8" s="54"/>
-      <c r="BA8" s="54"/>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="54"/>
-      <c r="BD8" s="54"/>
-      <c r="BE8" s="54"/>
-      <c r="BF8" s="54"/>
-      <c r="BG8" s="54"/>
-      <c r="BH8" s="54"/>
-      <c r="BI8" s="54"/>
-      <c r="BJ8" s="54"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="54"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="35"/>
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="35"/>
+      <c r="BH8" s="35"/>
+      <c r="BI8" s="35"/>
+      <c r="BJ8" s="35"/>
+      <c r="BK8" s="35"/>
+      <c r="BL8" s="35"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="54"/>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="54"/>
-      <c r="BF9" s="54"/>
-      <c r="BG9" s="54"/>
-      <c r="BH9" s="54"/>
-      <c r="BI9" s="54"/>
-      <c r="BJ9" s="54"/>
-      <c r="BK9" s="54"/>
-      <c r="BL9" s="54"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35"/>
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35"/>
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35"/>
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
     </row>
-    <row r="10" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AR10" s="52"/>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="52"/>
-      <c r="AU10" s="52"/>
-      <c r="AV10" s="52"/>
-      <c r="AW10" s="52"/>
-      <c r="AX10" s="52"/>
-      <c r="AY10" s="52"/>
-      <c r="AZ10" s="52"/>
-      <c r="BA10" s="52"/>
-      <c r="BB10" s="52"/>
-      <c r="BC10" s="52"/>
-      <c r="BD10" s="52"/>
-      <c r="BE10" s="52"/>
-      <c r="BF10" s="52"/>
-      <c r="BG10" s="52"/>
-      <c r="BH10" s="52"/>
-      <c r="BI10" s="52"/>
-      <c r="BJ10" s="52"/>
-      <c r="BK10" s="52"/>
-      <c r="BL10" s="52"/>
-    </row>
+    <row r="10" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:64" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="52"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="52"/>
-      <c r="BL11" s="52"/>
     </row>
     <row r="12" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="52"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="52"/>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
     </row>
     <row r="13" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="44" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="46"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="34" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="52"/>
-      <c r="AT13" s="52"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="52"/>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52"/>
-      <c r="AZ13" s="52"/>
-      <c r="BA13" s="52"/>
-      <c r="BB13" s="52"/>
-      <c r="BC13" s="52"/>
-      <c r="BD13" s="52"/>
-      <c r="BE13" s="52"/>
-      <c r="BF13" s="52"/>
-      <c r="BG13" s="52"/>
-      <c r="BH13" s="52"/>
-      <c r="BI13" s="52"/>
-      <c r="BJ13" s="52"/>
-      <c r="BK13" s="52"/>
-      <c r="BL13" s="52"/>
     </row>
     <row r="14" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
@@ -36754,27 +36546,6 @@
       <c r="I14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AR14" s="52"/>
-      <c r="AS14" s="52"/>
-      <c r="AT14" s="52"/>
-      <c r="AU14" s="52"/>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
-      <c r="BB14" s="52"/>
-      <c r="BC14" s="52"/>
-      <c r="BD14" s="52"/>
-      <c r="BE14" s="52"/>
-      <c r="BF14" s="52"/>
-      <c r="BG14" s="52"/>
-      <c r="BH14" s="52"/>
-      <c r="BI14" s="52"/>
-      <c r="BJ14" s="52"/>
-      <c r="BK14" s="52"/>
-      <c r="BL14" s="52"/>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -36802,27 +36573,6 @@
       <c r="I15" s="4">
         <v>2283.8637466</v>
       </c>
-      <c r="AR15" s="52"/>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="52"/>
-      <c r="AU15" s="52"/>
-      <c r="AV15" s="52"/>
-      <c r="AW15" s="52"/>
-      <c r="AX15" s="52"/>
-      <c r="AY15" s="52"/>
-      <c r="AZ15" s="52"/>
-      <c r="BA15" s="52"/>
-      <c r="BB15" s="52"/>
-      <c r="BC15" s="52"/>
-      <c r="BD15" s="52"/>
-      <c r="BE15" s="52"/>
-      <c r="BF15" s="52"/>
-      <c r="BG15" s="52"/>
-      <c r="BH15" s="52"/>
-      <c r="BI15" s="52"/>
-      <c r="BJ15" s="52"/>
-      <c r="BK15" s="52"/>
-      <c r="BL15" s="52"/>
     </row>
     <row r="16" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -36860,7 +36610,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:H17" si="1">C15/1000000</f>
+        <f t="shared" ref="C17:E17" si="1">C15/1000000</f>
         <v>2.4682817599999997E-2</v>
       </c>
       <c r="D17" s="3">
@@ -36876,7 +36626,7 @@
         <v>1.4452454000000001E-3</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" ref="G17:I17" si="2">G15/1000000</f>
+        <f t="shared" ref="G17:H17" si="2">G15/1000000</f>
         <v>2.2099337999999997E-3</v>
       </c>
       <c r="H17" s="28">
@@ -36897,7 +36647,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" ref="C18:H18" si="3">C16/1000000</f>
+        <f t="shared" ref="C18:E18" si="3">C16/1000000</f>
         <v>4.43635594217388E-3</v>
       </c>
       <c r="D18" s="6">
@@ -36913,7 +36663,7 @@
         <v>1.19854125091474E-4</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" ref="G18:I18" si="4">G16/1000000</f>
+        <f t="shared" ref="G18:H18" si="4">G16/1000000</f>
         <v>1.8459629818652401E-4</v>
       </c>
       <c r="H18" s="29">
@@ -36926,43 +36676,43 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="44" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="34" t="s">
         <v>3</v>
       </c>
@@ -37096,31 +36846,31 @@
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="44" t="s">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="46"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="34" t="s">
         <v>3</v>
       </c>
@@ -37274,31 +37024,31 @@
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="41"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="44" t="s">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="46"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="34" t="s">
         <v>3</v>
       </c>
@@ -37452,12 +37202,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:G43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -37467,6 +37211,12 @@
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37501,41 +37251,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="44" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -37831,7 +37581,7 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BL48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
@@ -37849,38 +37599,38 @@
     <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:64" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:68" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+    <row r="2" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:68" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="44" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="30" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:68" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -37905,34 +37655,8 @@
       <c r="I4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="52"/>
-      <c r="BN4" s="52"/>
-      <c r="BO4" s="52"/>
-      <c r="BP4" s="52"/>
     </row>
-    <row r="5" spans="1:68" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -37960,34 +37684,29 @@
       <c r="I5" s="28">
         <v>233824430.10821599</v>
       </c>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="53"/>
-      <c r="BK5" s="53"/>
-      <c r="BL5" s="53"/>
-      <c r="BM5" s="52"/>
-      <c r="BN5" s="52"/>
-      <c r="BO5" s="52"/>
-      <c r="BP5" s="52"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="51"/>
+      <c r="AT5" s="51"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="51"/>
     </row>
-    <row r="6" spans="1:68" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -38015,34 +37734,8 @@
       <c r="I6" s="29">
         <v>14822899.775505001</v>
       </c>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="52"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="52"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="52"/>
-      <c r="BI6" s="52"/>
-      <c r="BJ6" s="52"/>
-      <c r="BK6" s="52"/>
-      <c r="BL6" s="52"/>
-      <c r="BM6" s="52"/>
-      <c r="BN6" s="52"/>
-      <c r="BO6" s="52"/>
-      <c r="BP6" s="52"/>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -38078,34 +37771,29 @@
         <f>I5/1000000</f>
         <v>233.82443010821598</v>
       </c>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="54"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54"/>
-      <c r="AV7" s="54"/>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54"/>
-      <c r="AY7" s="54"/>
-      <c r="AZ7" s="54"/>
-      <c r="BA7" s="54"/>
-      <c r="BB7" s="54"/>
-      <c r="BC7" s="54"/>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="54"/>
-      <c r="BH7" s="54"/>
-      <c r="BI7" s="54"/>
-      <c r="BJ7" s="54"/>
-      <c r="BK7" s="54"/>
-      <c r="BL7" s="54"/>
-      <c r="BM7" s="52"/>
-      <c r="BN7" s="52"/>
-      <c r="BO7" s="52"/>
-      <c r="BP7" s="52"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="35"/>
+      <c r="BC7" s="35"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="35"/>
+      <c r="BF7" s="35"/>
+      <c r="BG7" s="35"/>
+      <c r="BH7" s="35"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="35"/>
+      <c r="BL7" s="35"/>
     </row>
-    <row r="8" spans="1:68" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -38141,34 +37829,29 @@
         <f>I6/1000000</f>
         <v>14.822899775505</v>
       </c>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
-      <c r="AY8" s="54"/>
-      <c r="AZ8" s="54"/>
-      <c r="BA8" s="54"/>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="54"/>
-      <c r="BD8" s="54"/>
-      <c r="BE8" s="54"/>
-      <c r="BF8" s="54"/>
-      <c r="BG8" s="54"/>
-      <c r="BH8" s="54"/>
-      <c r="BI8" s="54"/>
-      <c r="BJ8" s="54"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="54"/>
-      <c r="BM8" s="52"/>
-      <c r="BN8" s="52"/>
-      <c r="BO8" s="52"/>
-      <c r="BP8" s="52"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="35"/>
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="35"/>
+      <c r="BH8" s="35"/>
+      <c r="BI8" s="35"/>
+      <c r="BJ8" s="35"/>
+      <c r="BK8" s="35"/>
+      <c r="BL8" s="35"/>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -38178,34 +37861,29 @@
       <c r="G9" s="35"/>
       <c r="H9" s="39"/>
       <c r="I9" s="35"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="54"/>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="54"/>
-      <c r="BF9" s="54"/>
-      <c r="BG9" s="54"/>
-      <c r="BH9" s="54"/>
-      <c r="BI9" s="54"/>
-      <c r="BJ9" s="54"/>
-      <c r="BK9" s="54"/>
-      <c r="BL9" s="54"/>
-      <c r="BM9" s="52"/>
-      <c r="BN9" s="52"/>
-      <c r="BO9" s="52"/>
-      <c r="BP9" s="52"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35"/>
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35"/>
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35"/>
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
     </row>
-    <row r="10" spans="1:68" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -38215,91 +37893,60 @@
       <c r="G10" s="35"/>
       <c r="H10" s="39"/>
       <c r="I10" s="35"/>
-      <c r="AQ10" s="52"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="54"/>
-      <c r="AW10" s="54"/>
-      <c r="AX10" s="54"/>
-      <c r="AY10" s="54"/>
-      <c r="AZ10" s="54"/>
-      <c r="BA10" s="54"/>
-      <c r="BB10" s="54"/>
-      <c r="BC10" s="54"/>
-      <c r="BD10" s="54"/>
-      <c r="BE10" s="54"/>
-      <c r="BF10" s="54"/>
-      <c r="BG10" s="54"/>
-      <c r="BH10" s="54"/>
-      <c r="BI10" s="54"/>
-      <c r="BJ10" s="54"/>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="54"/>
-      <c r="BM10" s="52"/>
-      <c r="BN10" s="52"/>
-      <c r="BO10" s="52"/>
-      <c r="BP10" s="52"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="35"/>
+      <c r="AT10" s="35"/>
+      <c r="AU10" s="35"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="35"/>
+      <c r="AX10" s="35"/>
+      <c r="AY10" s="35"/>
+      <c r="AZ10" s="35"/>
+      <c r="BA10" s="35"/>
+      <c r="BB10" s="35"/>
+      <c r="BC10" s="35"/>
+      <c r="BD10" s="35"/>
+      <c r="BE10" s="35"/>
+      <c r="BF10" s="35"/>
+      <c r="BG10" s="35"/>
+      <c r="BH10" s="35"/>
+      <c r="BI10" s="35"/>
+      <c r="BJ10" s="35"/>
+      <c r="BK10" s="35"/>
+      <c r="BL10" s="35"/>
     </row>
-    <row r="11" spans="1:68" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:64" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="52"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="52"/>
-      <c r="BL11" s="52"/>
-      <c r="BM11" s="52"/>
-      <c r="BN11" s="52"/>
-      <c r="BO11" s="52"/>
-      <c r="BP11" s="52"/>
     </row>
-    <row r="12" spans="1:68" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
+    <row r="12" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:68" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="44" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="46"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="30" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:68" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
@@ -38325,7 +37972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -38345,14 +37992,14 @@
       <c r="G15" s="4">
         <v>5664.384</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="40">
         <v>63088.127999999997</v>
       </c>
       <c r="I15" s="28">
         <v>243343903.42399999</v>
       </c>
     </row>
-    <row r="16" spans="1:68" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -38455,31 +38102,31 @@
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="47" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="30" t="s">
         <v>3</v>
       </c>
@@ -38645,31 +38292,31 @@
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="44" t="s">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="46"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="30" t="s">
         <v>3</v>
       </c>
@@ -38823,31 +38470,31 @@
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="41"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="44" t="s">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="46"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="30" t="s">
         <v>3</v>
       </c>
@@ -39001,12 +38648,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="AS5:AV5"/>
+    <mergeCell ref="AW5:AZ5"/>
+    <mergeCell ref="BA5:BD5"/>
+    <mergeCell ref="BE5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -39016,11 +38662,12 @@
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="AS5:AV5"/>
-    <mergeCell ref="AW5:AZ5"/>
-    <mergeCell ref="BA5:BD5"/>
-    <mergeCell ref="BE5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39033,7 +38680,7 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:BY48"/>
+  <dimension ref="A1:BL48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -39051,73 +38698,38 @@
     <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:64" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:77" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+    <row r="2" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:77" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="44" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="30" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52"/>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="52"/>
-      <c r="BU3" s="52"/>
-      <c r="BV3" s="52"/>
-      <c r="BW3" s="52"/>
-      <c r="BX3" s="52"/>
-      <c r="BY3" s="52"/>
     </row>
-    <row r="4" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -39142,43 +38754,8 @@
       <c r="I4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="52"/>
-      <c r="BN4" s="52"/>
-      <c r="BO4" s="52"/>
-      <c r="BP4" s="52"/>
-      <c r="BQ4" s="52"/>
-      <c r="BR4" s="52"/>
-      <c r="BS4" s="52"/>
-      <c r="BT4" s="52"/>
-      <c r="BU4" s="52"/>
-      <c r="BV4" s="52"/>
-      <c r="BW4" s="52"/>
-      <c r="BX4" s="52"/>
-      <c r="BY4" s="52"/>
     </row>
-    <row r="5" spans="1:77" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -39206,43 +38783,29 @@
       <c r="I5" s="28">
         <v>569.86037561600006</v>
       </c>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="53"/>
-      <c r="BK5" s="53"/>
-      <c r="BL5" s="53"/>
-      <c r="BM5" s="52"/>
-      <c r="BN5" s="52"/>
-      <c r="BO5" s="52"/>
-      <c r="BP5" s="52"/>
-      <c r="BQ5" s="52"/>
-      <c r="BR5" s="52"/>
-      <c r="BS5" s="52"/>
-      <c r="BT5" s="52"/>
-      <c r="BU5" s="52"/>
-      <c r="BV5" s="52"/>
-      <c r="BW5" s="52"/>
-      <c r="BX5" s="52"/>
-      <c r="BY5" s="52"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="51"/>
+      <c r="AT5" s="51"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="51"/>
     </row>
-    <row r="6" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -39270,43 +38833,8 @@
       <c r="I6" s="29">
         <v>13.7727480854</v>
       </c>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="52"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="52"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="52"/>
-      <c r="BI6" s="52"/>
-      <c r="BJ6" s="52"/>
-      <c r="BK6" s="52"/>
-      <c r="BL6" s="52"/>
-      <c r="BM6" s="52"/>
-      <c r="BN6" s="52"/>
-      <c r="BO6" s="52"/>
-      <c r="BP6" s="52"/>
-      <c r="BQ6" s="52"/>
-      <c r="BR6" s="52"/>
-      <c r="BS6" s="52"/>
-      <c r="BT6" s="52"/>
-      <c r="BU6" s="52"/>
-      <c r="BV6" s="52"/>
-      <c r="BW6" s="52"/>
-      <c r="BX6" s="52"/>
-      <c r="BY6" s="52"/>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -39342,43 +38870,29 @@
         <f>I5</f>
         <v>569.86037561600006</v>
       </c>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="54"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54"/>
-      <c r="AV7" s="54"/>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54"/>
-      <c r="AY7" s="54"/>
-      <c r="AZ7" s="54"/>
-      <c r="BA7" s="54"/>
-      <c r="BB7" s="54"/>
-      <c r="BC7" s="54"/>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="54"/>
-      <c r="BH7" s="54"/>
-      <c r="BI7" s="54"/>
-      <c r="BJ7" s="54"/>
-      <c r="BK7" s="54"/>
-      <c r="BL7" s="54"/>
-      <c r="BM7" s="52"/>
-      <c r="BN7" s="52"/>
-      <c r="BO7" s="52"/>
-      <c r="BP7" s="52"/>
-      <c r="BQ7" s="52"/>
-      <c r="BR7" s="52"/>
-      <c r="BS7" s="52"/>
-      <c r="BT7" s="52"/>
-      <c r="BU7" s="52"/>
-      <c r="BV7" s="52"/>
-      <c r="BW7" s="52"/>
-      <c r="BX7" s="52"/>
-      <c r="BY7" s="52"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="35"/>
+      <c r="BC7" s="35"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="35"/>
+      <c r="BF7" s="35"/>
+      <c r="BG7" s="35"/>
+      <c r="BH7" s="35"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="35"/>
+      <c r="BL7" s="35"/>
     </row>
-    <row r="8" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -39414,43 +38928,29 @@
         <f>I6</f>
         <v>13.7727480854</v>
       </c>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
-      <c r="AY8" s="54"/>
-      <c r="AZ8" s="54"/>
-      <c r="BA8" s="54"/>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="54"/>
-      <c r="BD8" s="54"/>
-      <c r="BE8" s="54"/>
-      <c r="BF8" s="54"/>
-      <c r="BG8" s="54"/>
-      <c r="BH8" s="54"/>
-      <c r="BI8" s="54"/>
-      <c r="BJ8" s="54"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="54"/>
-      <c r="BM8" s="52"/>
-      <c r="BN8" s="52"/>
-      <c r="BO8" s="52"/>
-      <c r="BP8" s="52"/>
-      <c r="BQ8" s="52"/>
-      <c r="BR8" s="52"/>
-      <c r="BS8" s="52"/>
-      <c r="BT8" s="52"/>
-      <c r="BU8" s="52"/>
-      <c r="BV8" s="52"/>
-      <c r="BW8" s="52"/>
-      <c r="BX8" s="52"/>
-      <c r="BY8" s="52"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="35"/>
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="35"/>
+      <c r="BH8" s="35"/>
+      <c r="BI8" s="35"/>
+      <c r="BJ8" s="35"/>
+      <c r="BK8" s="35"/>
+      <c r="BL8" s="35"/>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -39460,216 +38960,61 @@
       <c r="G9" s="35"/>
       <c r="H9" s="39"/>
       <c r="I9" s="35"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="54"/>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="54"/>
-      <c r="BF9" s="54"/>
-      <c r="BG9" s="54"/>
-      <c r="BH9" s="54"/>
-      <c r="BI9" s="54"/>
-      <c r="BJ9" s="54"/>
-      <c r="BK9" s="54"/>
-      <c r="BL9" s="54"/>
-      <c r="BM9" s="52"/>
-      <c r="BN9" s="52"/>
-      <c r="BO9" s="52"/>
-      <c r="BP9" s="52"/>
-      <c r="BQ9" s="52"/>
-      <c r="BR9" s="52"/>
-      <c r="BS9" s="52"/>
-      <c r="BT9" s="52"/>
-      <c r="BU9" s="52"/>
-      <c r="BV9" s="52"/>
-      <c r="BW9" s="52"/>
-      <c r="BX9" s="52"/>
-      <c r="BY9" s="52"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35"/>
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35"/>
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35"/>
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
     </row>
-    <row r="10" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AQ10" s="52"/>
-      <c r="AR10" s="52"/>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="52"/>
-      <c r="AU10" s="52"/>
-      <c r="AV10" s="52"/>
-      <c r="AW10" s="52"/>
-      <c r="AX10" s="52"/>
-      <c r="AY10" s="52"/>
-      <c r="AZ10" s="52"/>
-      <c r="BA10" s="52"/>
-      <c r="BB10" s="52"/>
-      <c r="BC10" s="52"/>
-      <c r="BD10" s="52"/>
-      <c r="BE10" s="52"/>
-      <c r="BF10" s="52"/>
-      <c r="BG10" s="52"/>
-      <c r="BH10" s="52"/>
-      <c r="BI10" s="52"/>
-      <c r="BJ10" s="52"/>
-      <c r="BK10" s="52"/>
-      <c r="BL10" s="52"/>
-      <c r="BM10" s="52"/>
-      <c r="BN10" s="52"/>
-      <c r="BO10" s="52"/>
-      <c r="BP10" s="52"/>
-      <c r="BQ10" s="52"/>
-      <c r="BR10" s="52"/>
-      <c r="BS10" s="52"/>
-      <c r="BT10" s="52"/>
-      <c r="BU10" s="52"/>
-      <c r="BV10" s="52"/>
-      <c r="BW10" s="52"/>
-      <c r="BX10" s="52"/>
-      <c r="BY10" s="52"/>
-    </row>
-    <row r="11" spans="1:77" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+    <row r="10" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:64" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="52"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="52"/>
-      <c r="BL11" s="52"/>
-      <c r="BM11" s="52"/>
-      <c r="BN11" s="52"/>
-      <c r="BO11" s="52"/>
-      <c r="BP11" s="52"/>
-      <c r="BQ11" s="52"/>
-      <c r="BR11" s="52"/>
-      <c r="BS11" s="52"/>
-      <c r="BT11" s="52"/>
-      <c r="BU11" s="52"/>
-      <c r="BV11" s="52"/>
-      <c r="BW11" s="52"/>
-      <c r="BX11" s="52"/>
-      <c r="BY11" s="52"/>
     </row>
-    <row r="12" spans="1:77" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
+    <row r="12" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="52"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="52"/>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="52"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BR12" s="52"/>
-      <c r="BS12" s="52"/>
-      <c r="BT12" s="52"/>
-      <c r="BU12" s="52"/>
-      <c r="BV12" s="52"/>
-      <c r="BW12" s="52"/>
-      <c r="BX12" s="52"/>
-      <c r="BY12" s="52"/>
     </row>
-    <row r="13" spans="1:77" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="44" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="46"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="30" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="AQ13" s="52"/>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="52"/>
-      <c r="AT13" s="52"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="52"/>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52"/>
-      <c r="AZ13" s="52"/>
-      <c r="BA13" s="52"/>
-      <c r="BB13" s="52"/>
-      <c r="BC13" s="52"/>
-      <c r="BD13" s="52"/>
-      <c r="BE13" s="52"/>
-      <c r="BF13" s="52"/>
-      <c r="BG13" s="52"/>
-      <c r="BH13" s="52"/>
-      <c r="BI13" s="52"/>
-      <c r="BJ13" s="52"/>
-      <c r="BK13" s="52"/>
-      <c r="BL13" s="52"/>
-      <c r="BM13" s="52"/>
-      <c r="BN13" s="52"/>
-      <c r="BO13" s="52"/>
-      <c r="BP13" s="52"/>
-      <c r="BQ13" s="52"/>
-      <c r="BR13" s="52"/>
-      <c r="BS13" s="52"/>
-      <c r="BT13" s="52"/>
-      <c r="BU13" s="52"/>
-      <c r="BV13" s="52"/>
-      <c r="BW13" s="52"/>
-      <c r="BX13" s="52"/>
-      <c r="BY13" s="52"/>
     </row>
-    <row r="14" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
@@ -39694,43 +39039,8 @@
       <c r="I14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AQ14" s="52"/>
-      <c r="AR14" s="52"/>
-      <c r="AS14" s="52"/>
-      <c r="AT14" s="52"/>
-      <c r="AU14" s="52"/>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
-      <c r="BB14" s="52"/>
-      <c r="BC14" s="52"/>
-      <c r="BD14" s="52"/>
-      <c r="BE14" s="52"/>
-      <c r="BF14" s="52"/>
-      <c r="BG14" s="52"/>
-      <c r="BH14" s="52"/>
-      <c r="BI14" s="52"/>
-      <c r="BJ14" s="52"/>
-      <c r="BK14" s="52"/>
-      <c r="BL14" s="52"/>
-      <c r="BM14" s="52"/>
-      <c r="BN14" s="52"/>
-      <c r="BO14" s="52"/>
-      <c r="BP14" s="52"/>
-      <c r="BQ14" s="52"/>
-      <c r="BR14" s="52"/>
-      <c r="BS14" s="52"/>
-      <c r="BT14" s="52"/>
-      <c r="BU14" s="52"/>
-      <c r="BV14" s="52"/>
-      <c r="BW14" s="52"/>
-      <c r="BX14" s="52"/>
-      <c r="BY14" s="52"/>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -39756,43 +39066,8 @@
       <c r="I15" s="28">
         <v>441879391.48799998</v>
       </c>
-      <c r="AQ15" s="52"/>
-      <c r="AR15" s="52"/>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="52"/>
-      <c r="AU15" s="52"/>
-      <c r="AV15" s="52"/>
-      <c r="AW15" s="52"/>
-      <c r="AX15" s="52"/>
-      <c r="AY15" s="52"/>
-      <c r="AZ15" s="52"/>
-      <c r="BA15" s="52"/>
-      <c r="BB15" s="52"/>
-      <c r="BC15" s="52"/>
-      <c r="BD15" s="52"/>
-      <c r="BE15" s="52"/>
-      <c r="BF15" s="52"/>
-      <c r="BG15" s="52"/>
-      <c r="BH15" s="52"/>
-      <c r="BI15" s="52"/>
-      <c r="BJ15" s="52"/>
-      <c r="BK15" s="52"/>
-      <c r="BL15" s="52"/>
-      <c r="BM15" s="52"/>
-      <c r="BN15" s="52"/>
-      <c r="BO15" s="52"/>
-      <c r="BP15" s="52"/>
-      <c r="BQ15" s="52"/>
-      <c r="BR15" s="52"/>
-      <c r="BS15" s="52"/>
-      <c r="BT15" s="52"/>
-      <c r="BU15" s="52"/>
-      <c r="BV15" s="52"/>
-      <c r="BW15" s="52"/>
-      <c r="BX15" s="52"/>
-      <c r="BY15" s="52"/>
     </row>
-    <row r="16" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -39818,43 +39093,8 @@
       <c r="I16" s="29">
         <v>13349092.613053</v>
       </c>
-      <c r="AQ16" s="52"/>
-      <c r="AR16" s="52"/>
-      <c r="AS16" s="52"/>
-      <c r="AT16" s="52"/>
-      <c r="AU16" s="52"/>
-      <c r="AV16" s="52"/>
-      <c r="AW16" s="52"/>
-      <c r="AX16" s="52"/>
-      <c r="AY16" s="52"/>
-      <c r="AZ16" s="52"/>
-      <c r="BA16" s="52"/>
-      <c r="BB16" s="52"/>
-      <c r="BC16" s="52"/>
-      <c r="BD16" s="52"/>
-      <c r="BE16" s="52"/>
-      <c r="BF16" s="52"/>
-      <c r="BG16" s="52"/>
-      <c r="BH16" s="52"/>
-      <c r="BI16" s="52"/>
-      <c r="BJ16" s="52"/>
-      <c r="BK16" s="52"/>
-      <c r="BL16" s="52"/>
-      <c r="BM16" s="52"/>
-      <c r="BN16" s="52"/>
-      <c r="BO16" s="52"/>
-      <c r="BP16" s="52"/>
-      <c r="BQ16" s="52"/>
-      <c r="BR16" s="52"/>
-      <c r="BS16" s="52"/>
-      <c r="BT16" s="52"/>
-      <c r="BU16" s="52"/>
-      <c r="BV16" s="52"/>
-      <c r="BW16" s="52"/>
-      <c r="BX16" s="52"/>
-      <c r="BY16" s="52"/>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -39890,43 +39130,8 @@
         <f>I15/1000000</f>
         <v>441.87939148799995</v>
       </c>
-      <c r="AQ17" s="52"/>
-      <c r="AR17" s="52"/>
-      <c r="AS17" s="52"/>
-      <c r="AT17" s="52"/>
-      <c r="AU17" s="52"/>
-      <c r="AV17" s="52"/>
-      <c r="AW17" s="52"/>
-      <c r="AX17" s="52"/>
-      <c r="AY17" s="52"/>
-      <c r="AZ17" s="52"/>
-      <c r="BA17" s="52"/>
-      <c r="BB17" s="52"/>
-      <c r="BC17" s="52"/>
-      <c r="BD17" s="52"/>
-      <c r="BE17" s="52"/>
-      <c r="BF17" s="52"/>
-      <c r="BG17" s="52"/>
-      <c r="BH17" s="52"/>
-      <c r="BI17" s="52"/>
-      <c r="BJ17" s="52"/>
-      <c r="BK17" s="52"/>
-      <c r="BL17" s="52"/>
-      <c r="BM17" s="52"/>
-      <c r="BN17" s="52"/>
-      <c r="BO17" s="52"/>
-      <c r="BP17" s="52"/>
-      <c r="BQ17" s="52"/>
-      <c r="BR17" s="52"/>
-      <c r="BS17" s="52"/>
-      <c r="BT17" s="52"/>
-      <c r="BU17" s="52"/>
-      <c r="BV17" s="52"/>
-      <c r="BW17" s="52"/>
-      <c r="BX17" s="52"/>
-      <c r="BY17" s="52"/>
     </row>
-    <row r="18" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -39962,43 +39167,8 @@
         <f>I16/1000000</f>
         <v>13.349092613052999</v>
       </c>
-      <c r="AQ18" s="52"/>
-      <c r="AR18" s="52"/>
-      <c r="AS18" s="52"/>
-      <c r="AT18" s="52"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="52"/>
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="52"/>
-      <c r="AY18" s="52"/>
-      <c r="AZ18" s="52"/>
-      <c r="BA18" s="52"/>
-      <c r="BB18" s="52"/>
-      <c r="BC18" s="52"/>
-      <c r="BD18" s="52"/>
-      <c r="BE18" s="52"/>
-      <c r="BF18" s="52"/>
-      <c r="BG18" s="52"/>
-      <c r="BH18" s="52"/>
-      <c r="BI18" s="52"/>
-      <c r="BJ18" s="52"/>
-      <c r="BK18" s="52"/>
-      <c r="BL18" s="52"/>
-      <c r="BM18" s="52"/>
-      <c r="BN18" s="52"/>
-      <c r="BO18" s="52"/>
-      <c r="BP18" s="52"/>
-      <c r="BQ18" s="52"/>
-      <c r="BR18" s="52"/>
-      <c r="BS18" s="52"/>
-      <c r="BT18" s="52"/>
-      <c r="BU18" s="52"/>
-      <c r="BV18" s="52"/>
-      <c r="BW18" s="52"/>
-      <c r="BX18" s="52"/>
-      <c r="BY18" s="52"/>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -40008,181 +39178,40 @@
       <c r="G19" s="35"/>
       <c r="H19" s="39"/>
       <c r="I19" s="35"/>
-      <c r="AQ19" s="52"/>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
-      <c r="AT19" s="52"/>
-      <c r="AU19" s="52"/>
-      <c r="AV19" s="52"/>
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="52"/>
-      <c r="AY19" s="52"/>
-      <c r="AZ19" s="52"/>
-      <c r="BA19" s="52"/>
-      <c r="BB19" s="52"/>
-      <c r="BC19" s="52"/>
-      <c r="BD19" s="52"/>
-      <c r="BE19" s="52"/>
-      <c r="BF19" s="52"/>
-      <c r="BG19" s="52"/>
-      <c r="BH19" s="52"/>
-      <c r="BI19" s="52"/>
-      <c r="BJ19" s="52"/>
-      <c r="BK19" s="52"/>
-      <c r="BL19" s="52"/>
-      <c r="BM19" s="52"/>
-      <c r="BN19" s="52"/>
-      <c r="BO19" s="52"/>
-      <c r="BP19" s="52"/>
-      <c r="BQ19" s="52"/>
-      <c r="BR19" s="52"/>
-      <c r="BS19" s="52"/>
-      <c r="BT19" s="52"/>
-      <c r="BU19" s="52"/>
-      <c r="BV19" s="52"/>
-      <c r="BW19" s="52"/>
-      <c r="BX19" s="52"/>
-      <c r="BY19" s="52"/>
     </row>
-    <row r="20" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AQ20" s="52"/>
-      <c r="AR20" s="52"/>
-      <c r="AS20" s="52"/>
-      <c r="AT20" s="52"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="52"/>
-      <c r="AW20" s="52"/>
-      <c r="AX20" s="52"/>
-      <c r="AY20" s="52"/>
-      <c r="AZ20" s="52"/>
-      <c r="BA20" s="52"/>
-      <c r="BB20" s="52"/>
-      <c r="BC20" s="52"/>
-      <c r="BD20" s="52"/>
-      <c r="BE20" s="52"/>
-      <c r="BF20" s="52"/>
-      <c r="BG20" s="52"/>
-      <c r="BH20" s="52"/>
-      <c r="BI20" s="52"/>
-      <c r="BJ20" s="52"/>
-      <c r="BK20" s="52"/>
-      <c r="BL20" s="52"/>
-      <c r="BM20" s="52"/>
-      <c r="BN20" s="52"/>
-      <c r="BO20" s="52"/>
-      <c r="BP20" s="52"/>
-      <c r="BQ20" s="52"/>
-      <c r="BR20" s="52"/>
-      <c r="BS20" s="52"/>
-      <c r="BT20" s="52"/>
-      <c r="BU20" s="52"/>
-      <c r="BV20" s="52"/>
-      <c r="BW20" s="52"/>
-      <c r="BX20" s="52"/>
-      <c r="BY20" s="52"/>
-    </row>
-    <row r="21" spans="1:77" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="52"/>
-      <c r="AS21" s="52"/>
-      <c r="AT21" s="52"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="52"/>
-      <c r="AW21" s="52"/>
-      <c r="AX21" s="52"/>
-      <c r="AY21" s="52"/>
-      <c r="AZ21" s="52"/>
-      <c r="BA21" s="52"/>
-      <c r="BB21" s="52"/>
-      <c r="BC21" s="52"/>
-      <c r="BD21" s="52"/>
-      <c r="BE21" s="52"/>
-      <c r="BF21" s="52"/>
-      <c r="BG21" s="52"/>
-      <c r="BH21" s="52"/>
-      <c r="BI21" s="52"/>
-      <c r="BJ21" s="52"/>
-      <c r="BK21" s="52"/>
-      <c r="BL21" s="52"/>
-      <c r="BM21" s="52"/>
-      <c r="BN21" s="52"/>
-      <c r="BO21" s="52"/>
-      <c r="BP21" s="52"/>
-      <c r="BQ21" s="52"/>
-      <c r="BR21" s="52"/>
-      <c r="BS21" s="52"/>
-      <c r="BT21" s="52"/>
-      <c r="BU21" s="52"/>
-      <c r="BV21" s="52"/>
-      <c r="BW21" s="52"/>
-      <c r="BX21" s="52"/>
-      <c r="BY21" s="52"/>
     </row>
-    <row r="22" spans="1:77" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
+    <row r="22" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="AQ22" s="52"/>
-      <c r="AR22" s="52"/>
-      <c r="AS22" s="52"/>
-      <c r="AT22" s="52"/>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="52"/>
-      <c r="AW22" s="52"/>
-      <c r="AX22" s="52"/>
-      <c r="AY22" s="52"/>
-      <c r="AZ22" s="52"/>
-      <c r="BA22" s="52"/>
-      <c r="BB22" s="52"/>
-      <c r="BC22" s="52"/>
-      <c r="BD22" s="52"/>
-      <c r="BE22" s="52"/>
-      <c r="BF22" s="52"/>
-      <c r="BG22" s="52"/>
-      <c r="BH22" s="52"/>
-      <c r="BI22" s="52"/>
-      <c r="BJ22" s="52"/>
-      <c r="BK22" s="52"/>
-      <c r="BL22" s="52"/>
-      <c r="BM22" s="52"/>
-      <c r="BN22" s="52"/>
-      <c r="BO22" s="52"/>
-      <c r="BP22" s="52"/>
-      <c r="BQ22" s="52"/>
-      <c r="BR22" s="52"/>
-      <c r="BS22" s="52"/>
-      <c r="BT22" s="52"/>
-      <c r="BU22" s="52"/>
-      <c r="BV22" s="52"/>
-      <c r="BW22" s="52"/>
-      <c r="BX22" s="52"/>
-      <c r="BY22" s="52"/>
     </row>
-    <row r="23" spans="1:77" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="47" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="30" t="s">
         <v>3</v>
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
         <v>4</v>
       </c>
@@ -40208,7 +39237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -40237,7 +39266,7 @@
         <v>2316.7353571839999</v>
       </c>
     </row>
-    <row r="26" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
@@ -40266,7 +39295,7 @@
         <v>1445.511231</v>
       </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -40303,7 +39332,7 @@
         <v>2316.7353571839999</v>
       </c>
     </row>
-    <row r="28" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
@@ -40340,33 +39369,33 @@
         <v>1445.511231</v>
       </c>
     </row>
-    <row r="30" spans="1:77" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:77" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:77" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
+    <row r="32" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="44" t="s">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="46"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="30" t="s">
         <v>3</v>
       </c>
@@ -40520,31 +39549,31 @@
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="41"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="44" t="s">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="46"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="30" t="s">
         <v>3</v>
       </c>
@@ -40698,6 +39727,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AS5:AV5"/>
+    <mergeCell ref="AW5:AZ5"/>
+    <mergeCell ref="BA5:BD5"/>
+    <mergeCell ref="BE5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -40707,17 +39747,6 @@
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="AS5:AV5"/>
-    <mergeCell ref="AW5:AZ5"/>
-    <mergeCell ref="BA5:BD5"/>
-    <mergeCell ref="BE5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40730,7 +39759,7 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:BW48"/>
+  <dimension ref="A1:BL48"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -40748,104 +39777,38 @@
     <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:64" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+    <row r="2" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="52"/>
-      <c r="BR2" s="52"/>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="52"/>
-      <c r="BU2" s="52"/>
-      <c r="BV2" s="52"/>
-      <c r="BW2" s="52"/>
     </row>
-    <row r="3" spans="1:75" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="44" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="30" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52"/>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="52"/>
-      <c r="BU3" s="52"/>
-      <c r="BV3" s="52"/>
-      <c r="BW3" s="52"/>
     </row>
-    <row r="4" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -40870,41 +39833,8 @@
       <c r="I4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="52"/>
-      <c r="BN4" s="52"/>
-      <c r="BO4" s="52"/>
-      <c r="BP4" s="52"/>
-      <c r="BQ4" s="52"/>
-      <c r="BR4" s="52"/>
-      <c r="BS4" s="52"/>
-      <c r="BT4" s="52"/>
-      <c r="BU4" s="52"/>
-      <c r="BV4" s="52"/>
-      <c r="BW4" s="52"/>
     </row>
-    <row r="5" spans="1:75" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -40932,41 +39862,29 @@
       <c r="I5" s="28">
         <v>1797693328</v>
       </c>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="53"/>
-      <c r="BK5" s="53"/>
-      <c r="BL5" s="53"/>
-      <c r="BM5" s="52"/>
-      <c r="BN5" s="52"/>
-      <c r="BO5" s="52"/>
-      <c r="BP5" s="52"/>
-      <c r="BQ5" s="52"/>
-      <c r="BR5" s="52"/>
-      <c r="BS5" s="52"/>
-      <c r="BT5" s="52"/>
-      <c r="BU5" s="52"/>
-      <c r="BV5" s="52"/>
-      <c r="BW5" s="52"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="51"/>
+      <c r="AT5" s="51"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="51"/>
     </row>
-    <row r="6" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -40994,41 +39912,8 @@
       <c r="I6" s="29">
         <v>455462692.14506602</v>
       </c>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="52"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="52"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="52"/>
-      <c r="BI6" s="52"/>
-      <c r="BJ6" s="52"/>
-      <c r="BK6" s="52"/>
-      <c r="BL6" s="52"/>
-      <c r="BM6" s="52"/>
-      <c r="BN6" s="52"/>
-      <c r="BO6" s="52"/>
-      <c r="BP6" s="52"/>
-      <c r="BQ6" s="52"/>
-      <c r="BR6" s="52"/>
-      <c r="BS6" s="52"/>
-      <c r="BT6" s="52"/>
-      <c r="BU6" s="52"/>
-      <c r="BV6" s="52"/>
-      <c r="BW6" s="52"/>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -41064,41 +39949,29 @@
         <f>I5/1000000</f>
         <v>1797.6933280000001</v>
       </c>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="54"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54"/>
-      <c r="AV7" s="54"/>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54"/>
-      <c r="AY7" s="54"/>
-      <c r="AZ7" s="54"/>
-      <c r="BA7" s="54"/>
-      <c r="BB7" s="54"/>
-      <c r="BC7" s="54"/>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="54"/>
-      <c r="BH7" s="54"/>
-      <c r="BI7" s="54"/>
-      <c r="BJ7" s="54"/>
-      <c r="BK7" s="54"/>
-      <c r="BL7" s="54"/>
-      <c r="BM7" s="52"/>
-      <c r="BN7" s="52"/>
-      <c r="BO7" s="52"/>
-      <c r="BP7" s="52"/>
-      <c r="BQ7" s="52"/>
-      <c r="BR7" s="52"/>
-      <c r="BS7" s="52"/>
-      <c r="BT7" s="52"/>
-      <c r="BU7" s="52"/>
-      <c r="BV7" s="52"/>
-      <c r="BW7" s="52"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="35"/>
+      <c r="BC7" s="35"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="35"/>
+      <c r="BF7" s="35"/>
+      <c r="BG7" s="35"/>
+      <c r="BH7" s="35"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="35"/>
+      <c r="BL7" s="35"/>
     </row>
-    <row r="8" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -41134,41 +40007,29 @@
         <f>I6/1000000</f>
         <v>455.462692145066</v>
       </c>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
-      <c r="AY8" s="54"/>
-      <c r="AZ8" s="54"/>
-      <c r="BA8" s="54"/>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="54"/>
-      <c r="BD8" s="54"/>
-      <c r="BE8" s="54"/>
-      <c r="BF8" s="54"/>
-      <c r="BG8" s="54"/>
-      <c r="BH8" s="54"/>
-      <c r="BI8" s="54"/>
-      <c r="BJ8" s="54"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="54"/>
-      <c r="BM8" s="52"/>
-      <c r="BN8" s="52"/>
-      <c r="BO8" s="52"/>
-      <c r="BP8" s="52"/>
-      <c r="BQ8" s="52"/>
-      <c r="BR8" s="52"/>
-      <c r="BS8" s="52"/>
-      <c r="BT8" s="52"/>
-      <c r="BU8" s="52"/>
-      <c r="BV8" s="52"/>
-      <c r="BW8" s="52"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="35"/>
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="35"/>
+      <c r="BH8" s="35"/>
+      <c r="BI8" s="35"/>
+      <c r="BJ8" s="35"/>
+      <c r="BK8" s="35"/>
+      <c r="BL8" s="35"/>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -41178,206 +40039,61 @@
       <c r="G9" s="35"/>
       <c r="H9" s="39"/>
       <c r="I9" s="35"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="54"/>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="54"/>
-      <c r="BF9" s="54"/>
-      <c r="BG9" s="54"/>
-      <c r="BH9" s="54"/>
-      <c r="BI9" s="54"/>
-      <c r="BJ9" s="54"/>
-      <c r="BK9" s="54"/>
-      <c r="BL9" s="54"/>
-      <c r="BM9" s="52"/>
-      <c r="BN9" s="52"/>
-      <c r="BO9" s="52"/>
-      <c r="BP9" s="52"/>
-      <c r="BQ9" s="52"/>
-      <c r="BR9" s="52"/>
-      <c r="BS9" s="52"/>
-      <c r="BT9" s="52"/>
-      <c r="BU9" s="52"/>
-      <c r="BV9" s="52"/>
-      <c r="BW9" s="52"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35"/>
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35"/>
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35"/>
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
     </row>
-    <row r="10" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AQ10" s="52"/>
-      <c r="AR10" s="52"/>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="52"/>
-      <c r="AU10" s="52"/>
-      <c r="AV10" s="52"/>
-      <c r="AW10" s="52"/>
-      <c r="AX10" s="52"/>
-      <c r="AY10" s="52"/>
-      <c r="AZ10" s="52"/>
-      <c r="BA10" s="52"/>
-      <c r="BB10" s="52"/>
-      <c r="BC10" s="52"/>
-      <c r="BD10" s="52"/>
-      <c r="BE10" s="52"/>
-      <c r="BF10" s="52"/>
-      <c r="BG10" s="52"/>
-      <c r="BH10" s="52"/>
-      <c r="BI10" s="52"/>
-      <c r="BJ10" s="52"/>
-      <c r="BK10" s="52"/>
-      <c r="BL10" s="52"/>
-      <c r="BM10" s="52"/>
-      <c r="BN10" s="52"/>
-      <c r="BO10" s="52"/>
-      <c r="BP10" s="52"/>
-      <c r="BQ10" s="52"/>
-      <c r="BR10" s="52"/>
-      <c r="BS10" s="52"/>
-      <c r="BT10" s="52"/>
-      <c r="BU10" s="52"/>
-      <c r="BV10" s="52"/>
-      <c r="BW10" s="52"/>
-    </row>
-    <row r="11" spans="1:75" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+    <row r="10" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:64" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="52"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="52"/>
-      <c r="BL11" s="52"/>
-      <c r="BM11" s="52"/>
-      <c r="BN11" s="52"/>
-      <c r="BO11" s="52"/>
-      <c r="BP11" s="52"/>
-      <c r="BQ11" s="52"/>
-      <c r="BR11" s="52"/>
-      <c r="BS11" s="52"/>
-      <c r="BT11" s="52"/>
-      <c r="BU11" s="52"/>
-      <c r="BV11" s="52"/>
-      <c r="BW11" s="52"/>
     </row>
-    <row r="12" spans="1:75" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
+    <row r="12" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="52"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="52"/>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="52"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BR12" s="52"/>
-      <c r="BS12" s="52"/>
-      <c r="BT12" s="52"/>
-      <c r="BU12" s="52"/>
-      <c r="BV12" s="52"/>
-      <c r="BW12" s="52"/>
     </row>
-    <row r="13" spans="1:75" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="44" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="46"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="30" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="AQ13" s="52"/>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="52"/>
-      <c r="AT13" s="52"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="52"/>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52"/>
-      <c r="AZ13" s="52"/>
-      <c r="BA13" s="52"/>
-      <c r="BB13" s="52"/>
-      <c r="BC13" s="52"/>
-      <c r="BD13" s="52"/>
-      <c r="BE13" s="52"/>
-      <c r="BF13" s="52"/>
-      <c r="BG13" s="52"/>
-      <c r="BH13" s="52"/>
-      <c r="BI13" s="52"/>
-      <c r="BJ13" s="52"/>
-      <c r="BK13" s="52"/>
-      <c r="BL13" s="52"/>
-      <c r="BM13" s="52"/>
-      <c r="BN13" s="52"/>
-      <c r="BO13" s="52"/>
-      <c r="BP13" s="52"/>
-      <c r="BQ13" s="52"/>
-      <c r="BR13" s="52"/>
-      <c r="BS13" s="52"/>
-      <c r="BT13" s="52"/>
-      <c r="BU13" s="52"/>
-      <c r="BV13" s="52"/>
-      <c r="BW13" s="52"/>
     </row>
-    <row r="14" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
@@ -41402,41 +40118,8 @@
       <c r="I14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AQ14" s="52"/>
-      <c r="AR14" s="52"/>
-      <c r="AS14" s="52"/>
-      <c r="AT14" s="52"/>
-      <c r="AU14" s="52"/>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
-      <c r="BB14" s="52"/>
-      <c r="BC14" s="52"/>
-      <c r="BD14" s="52"/>
-      <c r="BE14" s="52"/>
-      <c r="BF14" s="52"/>
-      <c r="BG14" s="52"/>
-      <c r="BH14" s="52"/>
-      <c r="BI14" s="52"/>
-      <c r="BJ14" s="52"/>
-      <c r="BK14" s="52"/>
-      <c r="BL14" s="52"/>
-      <c r="BM14" s="52"/>
-      <c r="BN14" s="52"/>
-      <c r="BO14" s="52"/>
-      <c r="BP14" s="52"/>
-      <c r="BQ14" s="52"/>
-      <c r="BR14" s="52"/>
-      <c r="BS14" s="52"/>
-      <c r="BT14" s="52"/>
-      <c r="BU14" s="52"/>
-      <c r="BV14" s="52"/>
-      <c r="BW14" s="52"/>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -41463,7 +40146,7 @@
         <v>1060742813.248</v>
       </c>
     </row>
-    <row r="16" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -41566,31 +40249,31 @@
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="47" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="30" t="s">
         <v>3</v>
       </c>
@@ -41756,31 +40439,31 @@
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="44" t="s">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="46"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="30" t="s">
         <v>3</v>
       </c>
@@ -41934,31 +40617,31 @@
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="41"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="44" t="s">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="46"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="30" t="s">
         <v>3</v>
       </c>
@@ -42112,6 +40795,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AS5:AV5"/>
+    <mergeCell ref="AW5:AZ5"/>
+    <mergeCell ref="BA5:BD5"/>
+    <mergeCell ref="BE5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -42121,17 +40815,6 @@
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="AS5:AV5"/>
-    <mergeCell ref="AW5:AZ5"/>
-    <mergeCell ref="BA5:BD5"/>
-    <mergeCell ref="BE5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42161,30 +40844,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="30" t="s">
         <v>3</v>
       </c>
@@ -42331,30 +41014,30 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="30" t="s">
         <v>3</v>
       </c>
@@ -42501,30 +41184,30 @@
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="30" t="s">
         <v>3</v>
       </c>
@@ -42671,30 +41354,30 @@
     </row>
     <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="47"/>
       <c r="I33" s="30" t="s">
         <v>3</v>
       </c>
@@ -42841,18 +41524,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42863,7 +41546,7 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:BT48"/>
+  <dimension ref="A1:BL48"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W25" sqref="W25"/>
@@ -42883,100 +41566,40 @@
     <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:64" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:72" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+    <row r="2" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="52"/>
-      <c r="BR2" s="52"/>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="52"/>
     </row>
-    <row r="3" spans="1:72" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="45" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="46"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="31" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52"/>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="52"/>
     </row>
-    <row r="4" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -43007,38 +41630,8 @@
       <c r="K4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="52"/>
-      <c r="BN4" s="52"/>
-      <c r="BO4" s="52"/>
-      <c r="BP4" s="52"/>
-      <c r="BQ4" s="52"/>
-      <c r="BR4" s="52"/>
-      <c r="BS4" s="52"/>
-      <c r="BT4" s="52"/>
     </row>
-    <row r="5" spans="1:72" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -43070,38 +41663,29 @@
       <c r="K5" s="28">
         <v>808.39640311021992</v>
       </c>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="53"/>
-      <c r="BK5" s="53"/>
-      <c r="BL5" s="53"/>
-      <c r="BM5" s="52"/>
-      <c r="BN5" s="52"/>
-      <c r="BO5" s="52"/>
-      <c r="BP5" s="52"/>
-      <c r="BQ5" s="52"/>
-      <c r="BR5" s="52"/>
-      <c r="BS5" s="52"/>
-      <c r="BT5" s="52"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="51"/>
+      <c r="AT5" s="51"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="51"/>
     </row>
-    <row r="6" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -43133,38 +41717,8 @@
       <c r="K6" s="29">
         <v>34.230417643899997</v>
       </c>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="52"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="52"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="52"/>
-      <c r="BI6" s="52"/>
-      <c r="BJ6" s="52"/>
-      <c r="BK6" s="52"/>
-      <c r="BL6" s="52"/>
-      <c r="BM6" s="52"/>
-      <c r="BN6" s="52"/>
-      <c r="BO6" s="52"/>
-      <c r="BP6" s="52"/>
-      <c r="BQ6" s="52"/>
-      <c r="BR6" s="52"/>
-      <c r="BS6" s="52"/>
-      <c r="BT6" s="52"/>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -43208,38 +41762,29 @@
         <f>K5</f>
         <v>808.39640311021992</v>
       </c>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="54"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54"/>
-      <c r="AV7" s="54"/>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54"/>
-      <c r="AY7" s="54"/>
-      <c r="AZ7" s="54"/>
-      <c r="BA7" s="54"/>
-      <c r="BB7" s="54"/>
-      <c r="BC7" s="54"/>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="54"/>
-      <c r="BH7" s="54"/>
-      <c r="BI7" s="54"/>
-      <c r="BJ7" s="54"/>
-      <c r="BK7" s="54"/>
-      <c r="BL7" s="54"/>
-      <c r="BM7" s="52"/>
-      <c r="BN7" s="52"/>
-      <c r="BO7" s="52"/>
-      <c r="BP7" s="52"/>
-      <c r="BQ7" s="52"/>
-      <c r="BR7" s="52"/>
-      <c r="BS7" s="52"/>
-      <c r="BT7" s="52"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="35"/>
+      <c r="BC7" s="35"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="35"/>
+      <c r="BF7" s="35"/>
+      <c r="BG7" s="35"/>
+      <c r="BH7" s="35"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="35"/>
+      <c r="BL7" s="35"/>
     </row>
-    <row r="8" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -43283,38 +41828,29 @@
         <f>K6</f>
         <v>34.230417643899997</v>
       </c>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
-      <c r="AY8" s="54"/>
-      <c r="AZ8" s="54"/>
-      <c r="BA8" s="54"/>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="54"/>
-      <c r="BD8" s="54"/>
-      <c r="BE8" s="54"/>
-      <c r="BF8" s="54"/>
-      <c r="BG8" s="54"/>
-      <c r="BH8" s="54"/>
-      <c r="BI8" s="54"/>
-      <c r="BJ8" s="54"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="54"/>
-      <c r="BM8" s="52"/>
-      <c r="BN8" s="52"/>
-      <c r="BO8" s="52"/>
-      <c r="BP8" s="52"/>
-      <c r="BQ8" s="52"/>
-      <c r="BR8" s="52"/>
-      <c r="BS8" s="52"/>
-      <c r="BT8" s="52"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="35"/>
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="35"/>
+      <c r="BH8" s="35"/>
+      <c r="BI8" s="35"/>
+      <c r="BJ8" s="35"/>
+      <c r="BK8" s="35"/>
+      <c r="BL8" s="35"/>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -43326,38 +41862,29 @@
       <c r="I9" s="35"/>
       <c r="J9" s="39"/>
       <c r="K9" s="35"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="54"/>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="54"/>
-      <c r="BF9" s="54"/>
-      <c r="BG9" s="54"/>
-      <c r="BH9" s="54"/>
-      <c r="BI9" s="54"/>
-      <c r="BJ9" s="54"/>
-      <c r="BK9" s="54"/>
-      <c r="BL9" s="54"/>
-      <c r="BM9" s="52"/>
-      <c r="BN9" s="52"/>
-      <c r="BO9" s="52"/>
-      <c r="BP9" s="52"/>
-      <c r="BQ9" s="52"/>
-      <c r="BR9" s="52"/>
-      <c r="BS9" s="52"/>
-      <c r="BT9" s="52"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35"/>
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35"/>
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35"/>
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
     </row>
-    <row r="10" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -43369,161 +41896,62 @@
       <c r="I10" s="35"/>
       <c r="J10" s="39"/>
       <c r="K10" s="35"/>
-      <c r="AQ10" s="52"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="54"/>
-      <c r="AW10" s="54"/>
-      <c r="AX10" s="54"/>
-      <c r="AY10" s="54"/>
-      <c r="AZ10" s="54"/>
-      <c r="BA10" s="54"/>
-      <c r="BB10" s="54"/>
-      <c r="BC10" s="54"/>
-      <c r="BD10" s="54"/>
-      <c r="BE10" s="54"/>
-      <c r="BF10" s="54"/>
-      <c r="BG10" s="54"/>
-      <c r="BH10" s="54"/>
-      <c r="BI10" s="54"/>
-      <c r="BJ10" s="54"/>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="54"/>
-      <c r="BM10" s="52"/>
-      <c r="BN10" s="52"/>
-      <c r="BO10" s="52"/>
-      <c r="BP10" s="52"/>
-      <c r="BQ10" s="52"/>
-      <c r="BR10" s="52"/>
-      <c r="BS10" s="52"/>
-      <c r="BT10" s="52"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="35"/>
+      <c r="AT10" s="35"/>
+      <c r="AU10" s="35"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="35"/>
+      <c r="AX10" s="35"/>
+      <c r="AY10" s="35"/>
+      <c r="AZ10" s="35"/>
+      <c r="BA10" s="35"/>
+      <c r="BB10" s="35"/>
+      <c r="BC10" s="35"/>
+      <c r="BD10" s="35"/>
+      <c r="BE10" s="35"/>
+      <c r="BF10" s="35"/>
+      <c r="BG10" s="35"/>
+      <c r="BH10" s="35"/>
+      <c r="BI10" s="35"/>
+      <c r="BJ10" s="35"/>
+      <c r="BK10" s="35"/>
+      <c r="BL10" s="35"/>
     </row>
-    <row r="11" spans="1:72" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:64" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="52"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="52"/>
-      <c r="BL11" s="52"/>
-      <c r="BM11" s="52"/>
-      <c r="BN11" s="52"/>
-      <c r="BO11" s="52"/>
-      <c r="BP11" s="52"/>
-      <c r="BQ11" s="52"/>
-      <c r="BR11" s="52"/>
-      <c r="BS11" s="52"/>
-      <c r="BT11" s="52"/>
     </row>
-    <row r="12" spans="1:72" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
+    <row r="12" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="52"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="52"/>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="52"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BR12" s="52"/>
-      <c r="BS12" s="52"/>
-      <c r="BT12" s="52"/>
     </row>
-    <row r="13" spans="1:72" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="45" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="46"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="31" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="AQ13" s="52"/>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="52"/>
-      <c r="AT13" s="52"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="52"/>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52"/>
-      <c r="AZ13" s="52"/>
-      <c r="BA13" s="52"/>
-      <c r="BB13" s="52"/>
-      <c r="BC13" s="52"/>
-      <c r="BD13" s="52"/>
-      <c r="BE13" s="52"/>
-      <c r="BF13" s="52"/>
-      <c r="BG13" s="52"/>
-      <c r="BH13" s="52"/>
-      <c r="BI13" s="52"/>
-      <c r="BJ13" s="52"/>
-      <c r="BK13" s="52"/>
-      <c r="BL13" s="52"/>
-      <c r="BM13" s="52"/>
-      <c r="BN13" s="52"/>
-      <c r="BO13" s="52"/>
-      <c r="BP13" s="52"/>
-      <c r="BQ13" s="52"/>
-      <c r="BR13" s="52"/>
-      <c r="BS13" s="52"/>
-      <c r="BT13" s="52"/>
     </row>
-    <row r="14" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
@@ -43554,38 +41982,8 @@
       <c r="K14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AQ14" s="52"/>
-      <c r="AR14" s="52"/>
-      <c r="AS14" s="52"/>
-      <c r="AT14" s="52"/>
-      <c r="AU14" s="52"/>
-      <c r="AV14" s="52"/>
-      <c r="AW14" s="52"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
-      <c r="BB14" s="52"/>
-      <c r="BC14" s="52"/>
-      <c r="BD14" s="52"/>
-      <c r="BE14" s="52"/>
-      <c r="BF14" s="52"/>
-      <c r="BG14" s="52"/>
-      <c r="BH14" s="52"/>
-      <c r="BI14" s="52"/>
-      <c r="BJ14" s="52"/>
-      <c r="BK14" s="52"/>
-      <c r="BL14" s="52"/>
-      <c r="BM14" s="52"/>
-      <c r="BN14" s="52"/>
-      <c r="BO14" s="52"/>
-      <c r="BP14" s="52"/>
-      <c r="BQ14" s="52"/>
-      <c r="BR14" s="52"/>
-      <c r="BS14" s="52"/>
-      <c r="BT14" s="52"/>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -43617,38 +42015,8 @@
       <c r="K15" s="28">
         <v>1123764786.4960001</v>
       </c>
-      <c r="AQ15" s="52"/>
-      <c r="AR15" s="52"/>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="52"/>
-      <c r="AU15" s="52"/>
-      <c r="AV15" s="52"/>
-      <c r="AW15" s="52"/>
-      <c r="AX15" s="52"/>
-      <c r="AY15" s="52"/>
-      <c r="AZ15" s="52"/>
-      <c r="BA15" s="52"/>
-      <c r="BB15" s="52"/>
-      <c r="BC15" s="52"/>
-      <c r="BD15" s="52"/>
-      <c r="BE15" s="52"/>
-      <c r="BF15" s="52"/>
-      <c r="BG15" s="52"/>
-      <c r="BH15" s="52"/>
-      <c r="BI15" s="52"/>
-      <c r="BJ15" s="52"/>
-      <c r="BK15" s="52"/>
-      <c r="BL15" s="52"/>
-      <c r="BM15" s="52"/>
-      <c r="BN15" s="52"/>
-      <c r="BO15" s="52"/>
-      <c r="BP15" s="52"/>
-      <c r="BQ15" s="52"/>
-      <c r="BR15" s="52"/>
-      <c r="BS15" s="52"/>
-      <c r="BT15" s="52"/>
     </row>
-    <row r="16" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -43680,38 +42048,8 @@
       <c r="K16" s="29">
         <v>154517426.767387</v>
       </c>
-      <c r="AQ16" s="52"/>
-      <c r="AR16" s="52"/>
-      <c r="AS16" s="52"/>
-      <c r="AT16" s="52"/>
-      <c r="AU16" s="52"/>
-      <c r="AV16" s="52"/>
-      <c r="AW16" s="52"/>
-      <c r="AX16" s="52"/>
-      <c r="AY16" s="52"/>
-      <c r="AZ16" s="52"/>
-      <c r="BA16" s="52"/>
-      <c r="BB16" s="52"/>
-      <c r="BC16" s="52"/>
-      <c r="BD16" s="52"/>
-      <c r="BE16" s="52"/>
-      <c r="BF16" s="52"/>
-      <c r="BG16" s="52"/>
-      <c r="BH16" s="52"/>
-      <c r="BI16" s="52"/>
-      <c r="BJ16" s="52"/>
-      <c r="BK16" s="52"/>
-      <c r="BL16" s="52"/>
-      <c r="BM16" s="52"/>
-      <c r="BN16" s="52"/>
-      <c r="BO16" s="52"/>
-      <c r="BP16" s="52"/>
-      <c r="BQ16" s="52"/>
-      <c r="BR16" s="52"/>
-      <c r="BS16" s="52"/>
-      <c r="BT16" s="52"/>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -43755,38 +42093,8 @@
         <f>K15/1000000</f>
         <v>1123.7647864959999</v>
       </c>
-      <c r="AQ17" s="52"/>
-      <c r="AR17" s="52"/>
-      <c r="AS17" s="52"/>
-      <c r="AT17" s="52"/>
-      <c r="AU17" s="52"/>
-      <c r="AV17" s="52"/>
-      <c r="AW17" s="52"/>
-      <c r="AX17" s="52"/>
-      <c r="AY17" s="52"/>
-      <c r="AZ17" s="52"/>
-      <c r="BA17" s="52"/>
-      <c r="BB17" s="52"/>
-      <c r="BC17" s="52"/>
-      <c r="BD17" s="52"/>
-      <c r="BE17" s="52"/>
-      <c r="BF17" s="52"/>
-      <c r="BG17" s="52"/>
-      <c r="BH17" s="52"/>
-      <c r="BI17" s="52"/>
-      <c r="BJ17" s="52"/>
-      <c r="BK17" s="52"/>
-      <c r="BL17" s="52"/>
-      <c r="BM17" s="52"/>
-      <c r="BN17" s="52"/>
-      <c r="BO17" s="52"/>
-      <c r="BP17" s="52"/>
-      <c r="BQ17" s="52"/>
-      <c r="BR17" s="52"/>
-      <c r="BS17" s="52"/>
-      <c r="BT17" s="52"/>
     </row>
-    <row r="18" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -43831,41 +42139,41 @@
         <v>154.51742676738701</v>
       </c>
     </row>
-    <row r="20" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:72" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:72" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
+    <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:72" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="45" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="46"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="31" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
         <v>4</v>
       </c>
@@ -43897,7 +42205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -43930,7 +42238,7 @@
         <v>900.73899106029103</v>
       </c>
     </row>
-    <row r="26" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
@@ -43963,7 +42271,7 @@
         <v>178.05213005490401</v>
       </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -44008,7 +42316,7 @@
         <v>900.73899106029103</v>
       </c>
     </row>
-    <row r="28" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
@@ -44053,35 +42361,35 @@
         <v>178.05213005490401</v>
       </c>
     </row>
-    <row r="30" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:72" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:72" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
+    <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="45" t="s">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="46"/>
+      <c r="I33" s="47"/>
       <c r="J33" s="31" t="s">
         <v>3</v>
       </c>
@@ -44265,33 +42573,33 @@
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="41"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="45" t="s">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="46"/>
+      <c r="I43" s="47"/>
       <c r="J43" s="31" t="s">
         <v>3</v>
       </c>
@@ -44475,6 +42783,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AS5:AV5"/>
+    <mergeCell ref="AW5:AZ5"/>
+    <mergeCell ref="BA5:BD5"/>
+    <mergeCell ref="BE5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:I43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="H3:I3"/>
@@ -44484,17 +42803,6 @@
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="AS5:AV5"/>
-    <mergeCell ref="AW5:AZ5"/>
-    <mergeCell ref="BA5:BD5"/>
-    <mergeCell ref="BE5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -44526,84 +42834,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
     </row>
     <row r="3" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="44" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="44" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="1"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="52"/>
     </row>
     <row r="4" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
@@ -44645,28 +42909,6 @@
       <c r="N4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
     </row>
     <row r="5" spans="1:64" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -44711,28 +42953,27 @@
       <c r="N5" s="4">
         <v>432.46120000000002</v>
       </c>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="53"/>
-      <c r="BK5" s="53"/>
-      <c r="BL5" s="53"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="51"/>
+      <c r="AT5" s="51"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="51"/>
     </row>
     <row r="6" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -44777,28 +43018,6 @@
       <c r="N6" s="7">
         <v>27.784800000000001</v>
       </c>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="52"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="52"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="52"/>
-      <c r="BI6" s="52"/>
-      <c r="BJ6" s="52"/>
-      <c r="BK6" s="52"/>
-      <c r="BL6" s="52"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -44856,28 +43075,27 @@
         <f>N5</f>
         <v>432.46120000000002</v>
       </c>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="54"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54"/>
-      <c r="AV7" s="54"/>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54"/>
-      <c r="AY7" s="54"/>
-      <c r="AZ7" s="54"/>
-      <c r="BA7" s="54"/>
-      <c r="BB7" s="54"/>
-      <c r="BC7" s="54"/>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="54"/>
-      <c r="BH7" s="54"/>
-      <c r="BI7" s="54"/>
-      <c r="BJ7" s="54"/>
-      <c r="BK7" s="54"/>
-      <c r="BL7" s="54"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="35"/>
+      <c r="BC7" s="35"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="35"/>
+      <c r="BF7" s="35"/>
+      <c r="BG7" s="35"/>
+      <c r="BH7" s="35"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="35"/>
+      <c r="BL7" s="35"/>
     </row>
     <row r="8" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -44935,178 +43153,64 @@
         <f>N6</f>
         <v>27.784800000000001</v>
       </c>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
-      <c r="AY8" s="54"/>
-      <c r="AZ8" s="54"/>
-      <c r="BA8" s="54"/>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="54"/>
-      <c r="BD8" s="54"/>
-      <c r="BE8" s="54"/>
-      <c r="BF8" s="54"/>
-      <c r="BG8" s="54"/>
-      <c r="BH8" s="54"/>
-      <c r="BI8" s="54"/>
-      <c r="BJ8" s="54"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="54"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="35"/>
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="35"/>
+      <c r="BH8" s="35"/>
+      <c r="BI8" s="35"/>
+      <c r="BJ8" s="35"/>
+      <c r="BK8" s="35"/>
+      <c r="BL8" s="35"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="52"/>
-      <c r="AS9" s="52"/>
-      <c r="AT9" s="52"/>
-      <c r="AU9" s="52"/>
-      <c r="AV9" s="52"/>
-      <c r="AW9" s="52"/>
-      <c r="AX9" s="52"/>
-      <c r="AY9" s="52"/>
-      <c r="AZ9" s="52"/>
-      <c r="BA9" s="52"/>
-      <c r="BB9" s="52"/>
-      <c r="BC9" s="52"/>
-      <c r="BD9" s="52"/>
-      <c r="BE9" s="52"/>
-      <c r="BF9" s="52"/>
-      <c r="BG9" s="52"/>
-      <c r="BH9" s="52"/>
-      <c r="BI9" s="52"/>
-      <c r="BJ9" s="52"/>
-      <c r="BK9" s="52"/>
-      <c r="BL9" s="52"/>
-    </row>
-    <row r="10" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AQ10" s="52"/>
-      <c r="AR10" s="52"/>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="52"/>
-      <c r="AU10" s="52"/>
-      <c r="AV10" s="52"/>
-      <c r="AW10" s="52"/>
-      <c r="AX10" s="52"/>
-      <c r="AY10" s="52"/>
-      <c r="AZ10" s="52"/>
-      <c r="BA10" s="52"/>
-      <c r="BB10" s="52"/>
-      <c r="BC10" s="52"/>
-      <c r="BD10" s="52"/>
-      <c r="BE10" s="52"/>
-      <c r="BF10" s="52"/>
-      <c r="BG10" s="52"/>
-      <c r="BH10" s="52"/>
-      <c r="BI10" s="52"/>
-      <c r="BJ10" s="52"/>
-      <c r="BK10" s="52"/>
-      <c r="BL10" s="52"/>
-    </row>
+    <row r="10" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:64" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="52"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="52"/>
-      <c r="BL11" s="52"/>
     </row>
     <row r="12" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="52"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="52"/>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
     </row>
     <row r="13" spans="1:64" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="44" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="44" t="s">
+      <c r="G13" s="47"/>
+      <c r="H13" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
       <c r="N13" s="1"/>
-      <c r="AQ13" s="52"/>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="52"/>
-      <c r="AT13" s="52"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="52"/>
-      <c r="AW13" s="52"/>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52"/>
-      <c r="AZ13" s="52"/>
-      <c r="BA13" s="52"/>
-      <c r="BB13" s="52"/>
-      <c r="BC13" s="52"/>
-      <c r="BD13" s="52"/>
-      <c r="BE13" s="52"/>
-      <c r="BF13" s="52"/>
-      <c r="BG13" s="52"/>
-      <c r="BH13" s="52"/>
-      <c r="BI13" s="52"/>
-      <c r="BJ13" s="52"/>
-      <c r="BK13" s="52"/>
-      <c r="BL13" s="52"/>
     </row>
     <row r="14" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
@@ -45349,39 +43453,39 @@
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="44" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="44" t="s">
+      <c r="G23" s="47"/>
+      <c r="H23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="47"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -45629,39 +43733,39 @@
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="44" t="s">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="44" t="s">
+      <c r="G33" s="47"/>
+      <c r="H33" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="47"/>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -45897,39 +44001,39 @@
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="41"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="44" t="s">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="44" t="s">
+      <c r="G43" s="47"/>
+      <c r="H43" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="47"/>
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -46165,14 +44269,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="AS5:AV5"/>
+    <mergeCell ref="AW5:AZ5"/>
+    <mergeCell ref="BA5:BD5"/>
+    <mergeCell ref="BE5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="H23:M23"/>
@@ -46185,11 +44286,14 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:M13"/>
-    <mergeCell ref="AS5:AV5"/>
-    <mergeCell ref="AW5:AZ5"/>
-    <mergeCell ref="BA5:BD5"/>
-    <mergeCell ref="BE5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46222,38 +44326,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="44" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="44" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="46"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -46450,38 +44554,38 @@
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="44" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="44" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="46"/>
+      <c r="J13" s="47"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -46678,38 +44782,38 @@
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="44" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="44" t="s">
+      <c r="H23" s="47"/>
+      <c r="I23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="47"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -46866,38 +44970,38 @@
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="44" t="s">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="44" t="s">
+      <c r="H33" s="47"/>
+      <c r="I33" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="46"/>
+      <c r="J33" s="47"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -47054,11 +45158,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A11:B12"/>
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="G33:H33"/>
@@ -47070,6 +45169,11 @@
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Bench-in-loop/Structured_Grid/Structured Grid comparison.xlsx
+++ b/Bench-in-loop/Structured_Grid/Structured Grid comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikerlan-my.sharepoint.com/personal/mrodriguez_ikerlan_es/Documents/Documentos/GitHub/MARS-data/Bench-in-loop/Structured_Grid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="8_{8E775A4F-0340-4AC3-98F9-9A140DC03C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE9078A8-4840-4D0C-BFC7-BA9A27434AE5}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="8_{8E775A4F-0340-4AC3-98F9-9A140DC03C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FBD0DD6-0409-4132-8090-FF1372334A25}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" firstSheet="1" activeTab="10" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="7" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
   </bookViews>
   <sheets>
     <sheet name="particlefilter_naive" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
   </externalReferences>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="52">
   <si>
     <t>cudaMalloc</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>OPT traditional alloc</t>
+  </si>
+  <si>
+    <t>Normalized mean</t>
   </si>
 </sst>
 </file>
@@ -573,9 +576,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -611,20 +615,30 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>KERNEL LAUNCH API</c:v>
+            <c:v>AllocAPI</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -634,7 +648,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -649,12 +662,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -716,43 +726,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot64!$C$7,Hotspot64!$C$17,Hotspot64!$C$27,Hotspot64!$C$37,Hotspot64!$C$47)</c:f>
+              <c:f>(Hotspot64!$D$9,Hotspot64!$D$19,Hotspot64!$D$29,Hotspot64!$D$39,Hotspot64!$D$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.106757643286573</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6382592000000003E-2</c:v>
+                  <c:v>3.2031092832317776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13578758399999999</c:v>
+                  <c:v>4.0144284895428876E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3443328000000001</c:v>
+                  <c:v>2.0095850927934641E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2523204488977899</c:v>
+                  <c:v>5.7026647549502001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E495-410B-9004-8B59B674269E}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>AllocAPI</c:v>
+            <c:v>COPY API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -777,12 +787,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -844,43 +851,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot64!$D$7,Hotspot64!$D$17,Hotspot64!$D$27,Hotspot64!$D$37,Hotspot64!$D$47)</c:f>
+              <c:f>(Hotspot64!$E$9,Hotspot64!$E$19,Hotspot64!$E$29,Hotspot64!$E$39,Hotspot64!$E$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>60.017680879759496</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192.24319078400001</c:v>
+                  <c:v>1.8961339205725494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24093668799999998</c:v>
+                  <c:v>1.0958099440768072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2061063679999999</c:v>
+                  <c:v>1.9240146351371465</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34226071342685299</c:v>
+                  <c:v>2.0972956201091204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E495-410B-9004-8B59B674269E}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>COPY API</c:v>
+            <c:v>TOTAL EXEC</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -889,26 +896,6 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E495-410B-9004-8B59B674269E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
@@ -925,12 +912,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -992,43 +976,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot64!$E$7,Hotspot64!$E$17,Hotspot64!$E$27,Hotspot64!$E$37,Hotspot64!$E$47)</c:f>
+              <c:f>(Hotspot64!$I$9,Hotspot64!$I$19,Hotspot64!$I$29,Hotspot64!$I$39,Hotspot64!$I$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.36266960721442804</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68767014419999994</c:v>
+                  <c:v>1.0407120560985792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39741696199999998</c:v>
+                  <c:v>1.0927732938501955</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69778163199999999</c:v>
+                  <c:v>1.0209522060355996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76062537875751501</c:v>
+                  <c:v>0.97188203465565104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E495-410B-9004-8B59B674269E}"/>
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="1"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>TOTAL EXEC</c:v>
+            <c:v>KERNEL LAUNCH API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1053,12 +1037,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1120,31 +1101,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot64!$I$7,Hotspot64!$I$17,Hotspot64!$I$27,Hotspot64!$I$37,Hotspot64!$I$47)</c:f>
+              <c:f>(Hotspot64!$C$9,Hotspot64!$C$19,Hotspot64!$C$29,Hotspot64!$C$39,Hotspot64!$C$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>233.82443010821598</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>243.34390342399999</c:v>
+                  <c:v>0.90281678231952989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>255.51709267199999</c:v>
+                  <c:v>1.2719237688256284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>238.72356774399998</c:v>
+                  <c:v>12.59237988601307</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>227.24976288577102</c:v>
+                  <c:v>11.730499197478025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E495-410B-9004-8B59B674269E}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1161,149 +1142,7 @@
         <c:axId val="2057779183"/>
         <c:axId val="2057779663"/>
         <c:axId val="1524889007"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>SYNC API</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                  <a:sp3d/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="es-ES"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Hotspot64!$A$1,Hotspot64!$A$11,Hotspot64!$A$21,Hotspot64!$A$31,Hotspot64!$A$41)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>traditional alloc</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>OPT traditional alloc</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>ScatterAlloc</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Zero-Copy</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Unified Memory</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>([1]gaussian1024!$F$7,[1]gaussian1024!$F$17,[1]gaussian1024!$F$27,[1]gaussian1024!$F$37)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>0.49685522645290497</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.59037115000000007</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.55035044</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1.0994194107142801</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-E495-410B-9004-8B59B674269E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:bar3DChart>
       <c:catAx>
         <c:axId val="2057779183"/>
@@ -1334,12 +1173,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1385,12 +1221,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1399,11 +1232,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1417,12 +1258,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1449,12 +1287,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1486,16 +1321,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1523,7 +1355,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1571,9 +1403,11 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
+      <c:rotX val="60"/>
+      <c:rotY val="40"/>
+      <c:depthPercent val="80"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -1614,10 +1448,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.4559015550191903E-2"/>
-          <c:y val="4.2685292976329066E-2"/>
-          <c:w val="0.72421123238992113"/>
-          <c:h val="0.68381717128199482"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.91789469362338394"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -1625,7 +1459,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1640,7 +1474,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1650,7 +1484,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1665,12 +1499,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1732,30 +1563,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(srad_v1!$F$7,srad_v1!$F$17,srad_v1!$F$27,srad_v1!$F$36,srad_v1!$F$46)</c:f>
+              <c:f>(srad_v1!$F$9,srad_v1!$F$19,srad_v1!$F$29,srad_v1!$F$39,srad_v1!$F$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.6341238000000003E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5277606399999999E-2</c:v>
+                  <c:v>0.95962104742381493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0858956059999999E-2</c:v>
+                  <c:v>0.79187455274501517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3464-4ECD-8BDC-F15B1D23F3F4}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -1770,7 +1607,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1780,7 +1617,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1795,12 +1632,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1862,45 +1696,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(srad_v1!$G$7,srad_v1!$G$17,srad_v1!$G$27,srad_v1!$G$36,srad_v1!$G$46)</c:f>
+              <c:f>(srad_v1!$G$9,srad_v1!$G$19,srad_v1!$G$29,srad_v1!$G$39,srad_v1!$G$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4014959999999999E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0190581999999999E-3</c:v>
+                  <c:v>1.2571572886234248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0136986999999998E-3</c:v>
+                  <c:v>0.83851844850043467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3464-4ECD-8BDC-F15B1D23F3F4}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>srad_v1!$K$4</c:f>
+              <c:f>srad_v1!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>kernel: prepare</c:v>
+                  <c:v>kernel: extract</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1910,6 +1750,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1924,12 +1765,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1991,53 +1829,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(srad_v1!$K$7,srad_v1!$K$17,srad_v1!$K$27,srad_v1!$K$37,srad_v1!$K$47)</c:f>
+              <c:f>(srad_v1!$L$9,srad_v1!$L$19,srad_v1!$L$29,srad_v1!$L$39,srad_v1!$L$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.3145207999999994E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4420697799999991E-2</c:v>
+                  <c:v>0.78150165530029281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3644135983263598E-2</c:v>
+                  <c:v>0.67447338926010103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8580289855072399E-2</c:v>
+                  <c:v>1.0528312666671242</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.915396436E-2</c:v>
+                  <c:v>0.9767490343609867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-3464-4ECD-8BDC-F15B1D23F3F4}"/>
+              <c16:uniqueId val="{00000005-BE63-4737-AD68-921FACC7078E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="5"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>srad_v1!$M$4</c:f>
+              <c:f>srad_v1!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>kernel: compress</c:v>
+                  <c:v>kernel: reduce</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2047,6 +1883,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2061,12 +1898,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2128,31 +1962,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(srad_v1!$M$7,srad_v1!$M$17,srad_v1!$M$27,srad_v1!$M$37,srad_v1!$M$47)</c:f>
+              <c:f>(srad_v1!$J$9,srad_v1!$J$19,srad_v1!$J$29,srad_v1!$J$39,srad_v1!$J$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.2063616E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4580095999999999E-2</c:v>
+                  <c:v>1.1146061804426433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4693355600000005E-2</c:v>
+                  <c:v>0.79639300536263546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2069300207039294E-2</c:v>
+                  <c:v>0.97175049570863703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.00876142E-2</c:v>
+                  <c:v>1.0225395669501538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-3464-4ECD-8BDC-F15B1D23F3F4}"/>
+              <c16:uniqueId val="{00000006-BE63-4737-AD68-921FACC7078E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2161,11 +1995,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>srad_v1!$L$4</c:f>
+              <c:f>srad_v1!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>kernel: extract</c:v>
+                  <c:v>kernel: srad2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2184,6 +2018,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2198,12 +2033,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2265,51 +2097,53 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(srad_v1!$L$7,srad_v1!$L$17,srad_v1!$L$27,srad_v1!$L$37,srad_v1!$L$47)</c:f>
+              <c:f>(srad_v1!$I$9,srad_v1!$I$19,srad_v1!$I$29,srad_v1!$I$39,srad_v1!$I$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.892102400000001E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7306944000000002E-2</c:v>
+                  <c:v>1.1123832671781362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6719598326359805E-2</c:v>
+                  <c:v>0.80041404418403184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.104147146997929</c:v>
+                  <c:v>0.85045454234926798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6621014670000005E-2</c:v>
+                  <c:v>0.87722931059093134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-3464-4ECD-8BDC-F15B1D23F3F4}"/>
+              <c16:uniqueId val="{00000007-BE63-4737-AD68-921FACC7078E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="7"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>srad_v1!$J$4</c:f>
+              <c:f>srad_v1!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>kernel: reduce</c:v>
+                  <c:v>kernel: srad</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2334,12 +2168,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2401,31 +2232,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(srad_v1!$J$7,srad_v1!$J$17,srad_v1!$J$27,srad_v1!$J$37,srad_v1!$J$47)</c:f>
+              <c:f>(srad_v1!$H$9,srad_v1!$H$19,srad_v1!$H$29,srad_v1!$H$39,srad_v1!$H$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.116630546</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1299971274</c:v>
+                  <c:v>1.1024235887420717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2883751046025101E-2</c:v>
+                  <c:v>0.78900740954822968</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11333579089026899</c:v>
+                  <c:v>0.84984765546149843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.119259348</c:v>
+                  <c:v>0.87852511701789149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3464-4ECD-8BDC-F15B1D23F3F4}"/>
+              <c16:uniqueId val="{00000008-BE63-4737-AD68-921FACC7078E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2434,11 +2265,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>srad_v1!$I$4</c:f>
+              <c:f>srad_v1!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>kernel: srad2</c:v>
+                  <c:v>kernel: prepare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2470,148 +2301,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(srad_v1!$A$1,srad_v1!$A$11,srad_v1!$A$21,srad_v1!$A$31,srad_v1!$A$41)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>traditional alloc</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPT traditional alloc</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Zero-Copy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Unified Memory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(srad_v1!$I$7,srad_v1!$I$17,srad_v1!$I$27,srad_v1!$I$37,srad_v1!$I$47)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.28985528199999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32243016559999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23200423849372301</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.246508741200828</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2542695492</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3464-4ECD-8BDC-F15B1D23F3F4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>srad_v1!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>kernel: srad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2673,31 +2365,164 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(srad_v1!$H$7,srad_v1!$H$17,srad_v1!$H$27,srad_v1!$H$37,srad_v1!$H$47)</c:f>
+              <c:f>(srad_v1!$K$9,srad_v1!$K$19,srad_v1!$K$29,srad_v1!$K$39,srad_v1!$K$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.75008187999999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82690795799999994</c:v>
+                  <c:v>1.1785644573377603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59182016108786606</c:v>
+                  <c:v>0.84953613555701013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63745532712215303</c:v>
+                  <c:v>1.2444378970938286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65896577140000001</c:v>
+                  <c:v>1.0951577570225124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3464-4ECD-8BDC-F15B1D23F3F4}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>srad_v1!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kernel: compress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(srad_v1!$A$1,srad_v1!$A$11,srad_v1!$A$21,srad_v1!$A$31,srad_v1!$A$41)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>traditional alloc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPT traditional alloc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ScatterAlloc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zero-Copy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unified Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(srad_v1!$M$9,srad_v1!$M$19,srad_v1!$M$29,srad_v1!$M$39,srad_v1!$M$49)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4324801412180053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85843740857338846</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0001091781070162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1541191107432875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2745,12 +2570,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2771,6 +2593,7 @@
         <c:axId val="2057779663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2796,12 +2619,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2810,11 +2630,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.1479058832729708"/>
+              <c:y val="0.44196238926778303"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2828,12 +2656,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2860,12 +2685,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2897,16 +2719,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2934,7 +2753,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -5580,9 +5399,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -5618,13 +5438,23 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -5639,7 +5469,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5649,7 +5479,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5664,12 +5494,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5731,30 +5558,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot64!$F$7,Hotspot64!$F$17,Hotspot64!$F$27,Hotspot64!$F$36,Hotspot64!$F$46)</c:f>
+              <c:f>(Hotspot64!$F$9,Hotspot64!$F$19,Hotspot64!$F$29,Hotspot64!$F$39,Hotspot64!$F$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.5177555110220399E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9132479999999995E-3</c:v>
+                  <c:v>1.0526077881088465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5793599999999994E-3</c:v>
+                  <c:v>1.008194532116353</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5A3B-4387-B470-A4A63A96F7BE}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -5769,7 +5602,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5779,7 +5612,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5794,12 +5626,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5861,30 +5690,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot64!$G$7,Hotspot64!$G$17,Hotspot64!$G$27,Hotspot64!$G$36,Hotspot64!$G$45)</c:f>
+              <c:f>(Hotspot64!$G$9,Hotspot64!$G$19,Hotspot64!$G$29,Hotspot64!$G$39,Hotspot64!$G$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.73486172344689E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6643839999999997E-3</c:v>
+                  <c:v>0.9877106499083067</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7868800000000003E-3</c:v>
+                  <c:v>1.0090705371919317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5A3B-4387-B470-A4A63A96F7BE}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -5899,7 +5734,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5909,7 +5744,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5924,12 +5759,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5991,31 +5823,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot64!$H$7,Hotspot64!$H$17,Hotspot64!$H$27,Hotspot64!$H$37,Hotspot64!$H$47)</c:f>
+              <c:f>(Hotspot64!$I$9,Hotspot64!$I$19,Hotspot64!$I$29,Hotspot64!$I$39,Hotspot64!$I$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.6730773547094099E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3088127999999993E-2</c:v>
+                  <c:v>1.0407120560985792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7248063999999996E-2</c:v>
+                  <c:v>1.0927732938501955</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3425087999999999E-2</c:v>
+                  <c:v>1.0209522060355996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2605178356713401E-2</c:v>
+                  <c:v>0.97188203465565104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5A3B-4387-B470-A4A63A96F7BE}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6063,12 +5895,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6114,12 +5943,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6128,11 +5954,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6146,12 +5980,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6178,12 +6009,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6215,16 +6043,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6252,7 +6077,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -10177,9 +10002,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -10215,20 +10041,30 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>KERNEL LAUNCH API</c:v>
+            <c:v>AllocAPI</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -10253,12 +10089,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -10320,43 +10153,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot512!$C$7,Hotspot512!$C$17,Hotspot512!$C$27,Hotspot512!$C$37,Hotspot512!$C$47)</c:f>
+              <c:f>(Hotspot512!$D$9,Hotspot512!$D$19,Hotspot512!$D$29,Hotspot512!$D$39,Hotspot512!$D$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.118589824</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.133652992</c:v>
+                  <c:v>3.294547736594037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13647395199999998</c:v>
+                  <c:v>5.9667755601484932E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6412748160000001</c:v>
+                  <c:v>2.868665111032008E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6882971062000001</c:v>
+                  <c:v>2.7466500727071391E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E53F-4FC1-A866-F69E77E4DF6A}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>AllocAPI</c:v>
+            <c:v>COPY API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -10381,12 +10214,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -10448,31 +10278,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot512!$D$7,Hotspot512!$D$17,Hotspot512!$D$27,Hotspot512!$D$37,Hotspot512!$D$47)</c:f>
+              <c:f>(Hotspot512!$E$9,Hotspot512!$E$19,Hotspot512!$E$29,Hotspot512!$E$39,Hotspot512!$E$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>58.175257389999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>191.66116256000001</c:v>
+                  <c:v>1.3596592513865582</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.347118704</c:v>
+                  <c:v>0.62695066731236471</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.668853312</c:v>
+                  <c:v>2.2267323027407615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5978707494000002</c:v>
+                  <c:v>2.4679201015199022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E53F-4FC1-A866-F69E77E4DF6A}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10480,7 +10310,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>COPY API</c:v>
+            <c:v>TOTAL EXEC</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -10493,26 +10323,6 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E53F-4FC1-A866-F69E77E4DF6A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
@@ -10529,12 +10339,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -10596,43 +10403,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot512!$E$7,Hotspot512!$E$17,Hotspot512!$E$27,Hotspot512!$E$37,Hotspot512!$E$47)</c:f>
+              <c:f>(Hotspot512!$I$9,Hotspot512!$I$19,Hotspot512!$I$29,Hotspot512!$I$39,Hotspot512!$I$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9094581000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5962123708</c:v>
+                  <c:v>0.77541694491452062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.19713603</c:v>
+                  <c:v>4.0654438460994697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2518520319999995</c:v>
+                  <c:v>0.77475381495467488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7123900279999997</c:v>
+                  <c:v>0.73827199964065648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E53F-4FC1-A866-F69E77E4DF6A}"/>
+              <c16:uniqueId val="{00000007-8130-4C54-9974-E621DA3E9FFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="1"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>TOTAL EXEC</c:v>
+            <c:v>KERNEL LAUNCH API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -10657,12 +10464,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -10724,31 +10528,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot512!$I$7,Hotspot512!$I$17,Hotspot512!$I$27,Hotspot512!$I$37,Hotspot512!$I$47)</c:f>
+              <c:f>(Hotspot512!$C$9,Hotspot512!$C$19,Hotspot512!$C$29,Hotspot512!$C$39,Hotspot512!$C$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>569.86037561600006</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>441.87939148799995</c:v>
+                  <c:v>1.1270190602525896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2316.7353571839999</c:v>
+                  <c:v>1.1508065987179472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>441.50150000000002</c:v>
+                  <c:v>13.839929604752598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>420.71195902199997</c:v>
+                  <c:v>14.236441620825747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E53F-4FC1-A866-F69E77E4DF6A}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10765,149 +10569,7 @@
         <c:axId val="2057779183"/>
         <c:axId val="2057779663"/>
         <c:axId val="1524889007"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>SYNC API</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                  <a:sp3d/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="es-ES"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Hotspot512!$A$1,Hotspot512!$A$11,Hotspot512!$A$21,Hotspot512!$A$31,Hotspot512!$A$41)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>traditional alloc</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>OPT traditional alloc</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>ScatterAlloc</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Zero-Copy</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Unified Memory</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>([1]gaussian1024!$F$7,[1]gaussian1024!$F$17,[1]gaussian1024!$F$27,[1]gaussian1024!$F$37)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>0.49685522645290497</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.59037115000000007</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.55035044</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1.0994194107142801</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-E53F-4FC1-A866-F69E77E4DF6A}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:bar3DChart>
       <c:catAx>
         <c:axId val="2057779183"/>
@@ -10938,12 +10600,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -10989,12 +10648,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -11003,11 +10659,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11021,12 +10685,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -11053,12 +10714,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -11090,16 +10748,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -11127,7 +10782,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -11175,9 +10830,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -11213,13 +10869,23 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -11234,7 +10900,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -11244,7 +10910,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -11259,12 +10925,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -11326,30 +10989,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot512!$F$7,Hotspot512!$F$17,Hotspot512!$F$27,Hotspot512!$F$36,Hotspot512!$F$46)</c:f>
+              <c:f>(Hotspot512!$F$9,Hotspot512!$F$19,Hotspot512!$F$29,Hotspot512!$F$39,Hotspot512!$F$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.133266624</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13426131199999999</c:v>
+                  <c:v>1.007463894335614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6327840000000003E-2</c:v>
+                  <c:v>0.64778289873989758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A8D1-4353-AADA-03A52CA9D431}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -11364,7 +11033,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -11374,7 +11043,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -11389,12 +11057,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -11456,30 +11121,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot512!$G$7,Hotspot512!$G$17,Hotspot512!$G$27,Hotspot512!$G$36,Hotspot512!$G$46)</c:f>
+              <c:f>(Hotspot512!$G$9,Hotspot512!$G$19,Hotspot512!$G$29,Hotspot512!$G$39,Hotspot512!$G$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.12432051200000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12629408</c:v>
+                  <c:v>1.0158748380959048</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3343039999999998E-2</c:v>
+                  <c:v>0.58995123829605844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A8D1-4353-AADA-03A52CA9D431}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -11494,7 +11165,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -11504,7 +11175,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -11519,12 +11190,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -11586,31 +11254,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot512!$H$7,Hotspot512!$H$17,Hotspot512!$H$27,Hotspot512!$H$37,Hotspot512!$H$47)</c:f>
+              <c:f>(Hotspot512!$H$9,Hotspot512!$H$19,Hotspot512!$H$29,Hotspot512!$H$39,Hotspot512!$H$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.7871018240000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.765405184</c:v>
+                  <c:v>0.99221534003057654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6193381760000001</c:v>
+                  <c:v>0.5810114872932608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7765713280000002</c:v>
+                  <c:v>0.99622170388274989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7628294028</c:v>
+                  <c:v>0.99129116095042247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A8D1-4353-AADA-03A52CA9D431}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11658,12 +11326,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -11709,12 +11374,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -11723,11 +11385,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11741,12 +11411,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -11773,12 +11440,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -11810,16 +11474,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -11847,7 +11508,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -11895,9 +11556,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -11933,7 +11595,17 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
@@ -11942,7 +11614,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>KERNEL LAUNCH API</c:v>
+            <c:v>TOTAL EXEC</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -11971,12 +11643,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -12038,43 +11707,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot1024!$C$7,Hotspot1024!$C$17,Hotspot1024!$C$27,Hotspot1024!$C$37,Hotspot1024!$C$47)</c:f>
+              <c:f>(Hotspot1024!$I$9,Hotspot1024!$I$19,Hotspot1024!$I$29,Hotspot1024!$I$39,Hotspot1024!$I$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.15245248</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1620288</c:v>
+                  <c:v>0.59005771269569951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19529407999999998</c:v>
+                  <c:v>0.96631437340685267</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9189976959999999</c:v>
+                  <c:v>0.58386083225425411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0456291200000001</c:v>
+                  <c:v>0.58503260109334954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-208D-428F-A634-47B51072D7D0}"/>
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:v>AllocAPI</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -12084,7 +11753,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -12099,12 +11767,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -12166,43 +11831,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot1024!$D$7,Hotspot1024!$D$17,Hotspot1024!$D$27,Hotspot1024!$D$37,Hotspot1024!$D$47)</c:f>
+              <c:f>(Hotspot1024!$D$9,Hotspot1024!$D$19,Hotspot1024!$D$29,Hotspot1024!$D$39,Hotspot1024!$D$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>58.793130120000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192.635261888</c:v>
+                  <c:v>3.2764927040764946</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95129409600000003</c:v>
+                  <c:v>1.6180361447984768E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2454065920000001</c:v>
+                  <c:v>8.9218018861962914E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8695720959999997</c:v>
+                  <c:v>8.2825528868099657E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-208D-428F-A634-47B51072D7D0}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:v>COPY API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -12211,26 +11876,6 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-208D-428F-A634-47B51072D7D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
@@ -12247,12 +11892,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -12314,43 +11956,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot1024!$E$7,Hotspot1024!$E$17,Hotspot1024!$E$27,Hotspot1024!$E$37,Hotspot1024!$E$47)</c:f>
+              <c:f>(Hotspot1024!$E$9,Hotspot1024!$E$19,Hotspot1024!$E$29,Hotspot1024!$E$39,Hotspot1024!$E$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.9930650939999994</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8864062928000003</c:v>
+                  <c:v>1.1490624888580596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1892716679999999</c:v>
+                  <c:v>1.0327389359071761</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.994378368000001</c:v>
+                  <c:v>2.6688143908219666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.65582848</c:v>
+                  <c:v>2.612324117032192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-208D-428F-A634-47B51072D7D0}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="1"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>TOTAL EXEC</c:v>
+            <c:v>KERNEL LAUNCH API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -12375,12 +12017,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -12442,31 +12081,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot1024!$I$7,Hotspot1024!$I$17,Hotspot1024!$I$27,Hotspot1024!$I$37,Hotspot1024!$I$47)</c:f>
+              <c:f>(Hotspot1024!$C$9,Hotspot1024!$C$19,Hotspot1024!$C$29,Hotspot1024!$C$39,Hotspot1024!$C$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1797.6933280000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1060.7428132479999</c:v>
+                  <c:v>1.0628151145852136</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1737.1369018239998</c:v>
+                  <c:v>1.2810160910468624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1049.6027226239999</c:v>
+                  <c:v>12.5875138010218</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1051.7092036480001</c:v>
+                  <c:v>13.418142623852365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-208D-428F-A634-47B51072D7D0}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12483,149 +12122,7 @@
         <c:axId val="2057779183"/>
         <c:axId val="2057779663"/>
         <c:axId val="1524889007"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>SYNC API</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                  <a:sp3d/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="es-ES"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(Hotspot1024!$A$1,Hotspot1024!$A$11,Hotspot1024!$A$21,Hotspot1024!$A$31,Hotspot1024!$A$41)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>traditional alloc</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>OPT traditional alloc</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>ScatterAlloc</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Zero-Copy</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Unified Memory</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>([1]gaussian1024!$F$7,[1]gaussian1024!$F$17,[1]gaussian1024!$F$27,[1]gaussian1024!$F$37)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>0.49685522645290497</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.59037115000000007</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.55035044</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1.0994194107142801</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-208D-428F-A634-47B51072D7D0}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:bar3DChart>
       <c:catAx>
         <c:axId val="2057779183"/>
@@ -12656,12 +12153,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -12707,12 +12201,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -12721,11 +12212,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12739,12 +12238,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -12771,12 +12267,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -12808,16 +12301,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -12845,7 +12335,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -12893,9 +12383,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -12931,13 +12422,23 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -12952,7 +12453,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -12962,7 +12463,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -12977,12 +12478,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -13044,30 +12542,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot1024!$F$7,Hotspot1024!$F$17,Hotspot1024!$F$27,Hotspot1024!$F$36,Hotspot1024!$F$46)</c:f>
+              <c:f>(Hotspot1024!$F$9,Hotspot1024!$F$19,Hotspot1024!$F$29,Hotspot1024!$F$39,Hotspot1024!$F$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.97263254399999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.954118048</c:v>
+                  <c:v>0.98096455222045298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0397901439999999</c:v>
+                  <c:v>1.069047247508099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-117B-403E-BB54-C7D88E53EC29}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -13082,7 +12586,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -13092,7 +12596,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -13107,12 +12610,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -13174,30 +12674,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot1024!$G$7,Hotspot1024!$G$17,Hotspot1024!$G$27,Hotspot1024!$G$36,Hotspot1024!$G$46)</c:f>
+              <c:f>(Hotspot1024!$G$9,Hotspot1024!$G$19,Hotspot1024!$G$29,Hotspot1024!$G$39,Hotspot1024!$G$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.703505024</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3858689279999998</c:v>
+                  <c:v>0.88250952257154003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4126922239999997</c:v>
+                  <c:v>0.89243119675445426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-117B-403E-BB54-C7D88E53EC29}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -13212,7 +12718,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -13222,7 +12728,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -13237,12 +12743,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -13304,31 +12807,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Hotspot1024!$H$7,Hotspot1024!$H$17,Hotspot1024!$H$27,Hotspot1024!$H$37,Hotspot1024!$H$47)</c:f>
+              <c:f>(Hotspot1024!$H$9,Hotspot1024!$H$19,Hotspot1024!$H$29,Hotspot1024!$H$39,Hotspot1024!$H$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11.006751551999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.228240960000001</c:v>
+                  <c:v>1.0201230496530791</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.131723072</c:v>
+                  <c:v>1.0113540783953912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.107042624</c:v>
+                  <c:v>1.0091117775781699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.160391808</c:v>
+                  <c:v>1.0139587284471852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-117B-403E-BB54-C7D88E53EC29}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13376,12 +12879,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -13427,12 +12927,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -13441,11 +12938,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13459,12 +12964,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -13491,12 +12993,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -13528,16 +13027,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -13565,7 +13061,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -13613,9 +13109,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -13651,20 +13148,30 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>KERNEL LAUNCH API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -13689,12 +13196,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -13733,19 +13237,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>([1]gaussian3!$A$1,[1]gaussian3!$A$11,[1]gaussian3!$A$21,[1]gaussian3!$A$31)</c:f>
+              <c:f>(heartwall!$A$1,heartwall!$A$11,heartwall!$A$21,heartwall!$A$31,heartwall!$A$41)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>traditional Allocation</c:v>
+                  <c:v>traditional alloc</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>OPT traditional alloc</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ScatterAlloc</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Zero-Copy</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Unified Memory</c:v>
                 </c:pt>
               </c:strCache>
@@ -13753,43 +13260,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(heartwall!$C$7,heartwall!$C$17,heartwall!$C$27,heartwall!$C$37,heartwall!$C$47)</c:f>
+              <c:f>(heartwall!$C$9,heartwall!$C$19,heartwall!$C$29,heartwall!$C$39,heartwall!$C$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.6197077999999996E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1117019712</c:v>
+                  <c:v>1.2958904616233047</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8934378378378304E-2</c:v>
+                  <c:v>1.1477695146276108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9926253668763112E-2</c:v>
+                  <c:v>1.0432633652472896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.111805589247311</c:v>
+                  <c:v>1.2970925678862455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C311-4BFD-B567-EE564AD02A7E}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>AllocAPI</c:v>
+            <c:v>TOTAL EXEC</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -13814,12 +13321,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -13858,19 +13362,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>([1]gaussian3!$A$1,[1]gaussian3!$A$11,[1]gaussian3!$A$21,[1]gaussian3!$A$31)</c:f>
+              <c:f>(heartwall!$A$1,heartwall!$A$11,heartwall!$A$21,heartwall!$A$31,heartwall!$A$41)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>traditional Allocation</c:v>
+                  <c:v>traditional alloc</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>OPT traditional alloc</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ScatterAlloc</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Zero-Copy</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Unified Memory</c:v>
                 </c:pt>
               </c:strCache>
@@ -13878,43 +13385,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(heartwall!$D$7,heartwall!$D$17,heartwall!$D$27,heartwall!$D$37,heartwall!$D$47)</c:f>
+              <c:f>(heartwall!$K$9,heartwall!$K$19,heartwall!$K$29,heartwall!$K$39,heartwall!$K$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.30069083399999996</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196.44603968000001</c:v>
+                  <c:v>1.3901160150792773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2952365904365899E-2</c:v>
+                  <c:v>1.1142293404507897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.011348192872099</c:v>
+                  <c:v>1.1294280517103408</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.012486606451599</c:v>
+                  <c:v>1.2131552991530914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C311-4BFD-B567-EE564AD02A7E}"/>
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:v>COPY API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -13923,26 +13430,6 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C311-4BFD-B567-EE564AD02A7E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
@@ -13959,12 +13446,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -14003,19 +13487,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>([1]gaussian3!$A$1,[1]gaussian3!$A$11,[1]gaussian3!$A$21,[1]gaussian3!$A$31)</c:f>
+              <c:f>(heartwall!$A$1,heartwall!$A$11,heartwall!$A$21,heartwall!$A$31,heartwall!$A$41)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>traditional Allocation</c:v>
+                  <c:v>traditional alloc</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>OPT traditional alloc</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ScatterAlloc</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Zero-Copy</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Unified Memory</c:v>
                 </c:pt>
               </c:strCache>
@@ -14023,39 +13510,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(heartwall!$E$7,heartwall!$E$17,heartwall!$E$27,heartwall!$E$37,heartwall!$E$47)</c:f>
+              <c:f>(heartwall!$E$9,heartwall!$E$19,heartwall!$E$29,heartwall!$E$39,heartwall!$E$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14.757510934000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54452640800000007</c:v>
+                  <c:v>3.6898255433134006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.025490767151698</c:v>
+                  <c:v>1.1536830867545875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.035250153039797</c:v>
+                  <c:v>1.7642033449595407</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3841692021505299</c:v>
+                  <c:v>9.379421830286612E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C311-4BFD-B567-EE564AD02A7E}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>TOTAL EXEC</c:v>
+            <c:v>AllocAPI</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -14084,12 +13571,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -14128,19 +13612,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>([1]gaussian3!$A$1,[1]gaussian3!$A$11,[1]gaussian3!$A$21,[1]gaussian3!$A$31)</c:f>
+              <c:f>(heartwall!$A$1,heartwall!$A$11,heartwall!$A$21,heartwall!$A$31,heartwall!$A$41)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>traditional Allocation</c:v>
+                  <c:v>traditional alloc</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>OPT traditional alloc</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ScatterAlloc</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Zero-Copy</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Unified Memory</c:v>
                 </c:pt>
               </c:strCache>
@@ -14148,31 +13635,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(heartwall!$K$7,heartwall!$K$17,heartwall!$K$27,heartwall!$K$37,heartwall!$K$47)</c:f>
+              <c:f>(heartwall!$D$9,heartwall!$D$19,heartwall!$D$29,heartwall!$D$39,heartwall!$D$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>808.39640311021992</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1123.7647864959999</c:v>
+                  <c:v>653.31568996213582</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>900.73899106029103</c:v>
+                  <c:v>0.10958886064470426</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>913.02557457442299</c:v>
+                  <c:v>53.248540967737313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>980.71038024946199</c:v>
+                  <c:v>53.252326961358591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C311-4BFD-B567-EE564AD02A7E}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14189,146 +13676,7 @@
         <c:axId val="2057779183"/>
         <c:axId val="2057779663"/>
         <c:axId val="1524889007"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>SYNC API</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                  <a:sp3d/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="es-ES"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>([1]gaussian3!$A$1,[1]gaussian3!$A$11,[1]gaussian3!$A$21,[1]gaussian3!$A$31)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>traditional Allocation</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>ScatterAlloc</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Zero-Copy</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Unified Memory</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>([1]gaussian1024!$F$7,[1]gaussian1024!$F$17,[1]gaussian1024!$F$27,[1]gaussian1024!$F$37)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>0.49685522645290497</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.59037115000000007</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.55035044</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1.0994194107142801</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-C311-4BFD-B567-EE564AD02A7E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:bar3DChart>
       <c:catAx>
         <c:axId val="2057779183"/>
@@ -14359,12 +13707,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -14385,6 +13730,7 @@
         <c:axId val="2057779663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -14410,12 +13756,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -14424,11 +13767,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14442,12 +13793,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -14474,12 +13822,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -14511,16 +13856,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -14548,7 +13890,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -14596,9 +13938,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -14634,13 +13977,23 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -14655,7 +14008,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -14665,7 +14018,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -14680,12 +14033,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -14747,30 +14097,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(heartwall!$H$7,heartwall!$H$17,heartwall!$H$27,heartwall!$H$36,heartwall!$H$46)</c:f>
+              <c:f>(heartwall!$H$9,heartwall!$H$19,heartwall!$H$29,heartwall!$H$39,heartwall!$H$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.4066399999999994E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1174881366</c:v>
+                  <c:v>1.2489915272615941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11388208939708901</c:v>
+                  <c:v>1.2106564022550987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4881-4D13-87A7-3E0A22145079}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -14785,7 +14141,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -14795,7 +14151,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -14810,12 +14165,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -14877,30 +14229,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(heartwall!$I$7,heartwall!$I$17,heartwall!$I$27,heartwall!$I$36,heartwall!$I$46)</c:f>
+              <c:f>(heartwall!$I$9,heartwall!$I$19,heartwall!$I$29,heartwall!$I$39,heartwall!$I$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.309392E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.740944E-3</c:v>
+                  <c:v>1.1304022007667873</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.47422869022869E-3</c:v>
+                  <c:v>1.0498087534594542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4881-4D13-87A7-3E0A22145079}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -14915,7 +14273,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -14925,7 +14283,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -14940,12 +14298,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -15007,31 +14362,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(heartwall!$J$7,heartwall!$J$17,heartwall!$J$27,heartwall!$J$37,heartwall!$J$47)</c:f>
+              <c:f>(heartwall!$J$9,heartwall!$J$19,heartwall!$J$29,heartwall!$J$39,heartwall!$J$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26.327279841999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.820030675200002</c:v>
+                  <c:v>1.2846002655104076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.810549492723403</c:v>
+                  <c:v>1.0563396469223205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.057165983228501</c:v>
+                  <c:v>1.217640644062574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.385740533333301</c:v>
+                  <c:v>1.0402039518585104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4881-4D13-87A7-3E0A22145079}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15079,12 +14434,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -15130,12 +14482,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -15144,11 +14493,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time facotr</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15162,12 +14519,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -15194,12 +14548,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -15231,16 +14582,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -15268,7 +14616,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -15316,9 +14664,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
+      <c:rotX val="40"/>
+      <c:rotY val="30"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -15354,20 +14703,30 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>KERNEL LAUNCH API</c:v>
+            <c:v>COPY API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -15392,12 +14751,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -15459,43 +14815,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(srad_v1!$C$7,srad_v1!$C$17,srad_v1!$C$27,srad_v1!$C$37,srad_v1!$C$47)</c:f>
+              <c:f>(srad_v1!$E$9,srad_v1!$E$19,srad_v1!$E$29,srad_v1!$E$39,srad_v1!$E$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6121584000000001E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.07890664E-2</c:v>
+                  <c:v>9.4842788753975588E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.40632155E-2</c:v>
+                  <c:v>0.83236244297294704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7619581780538303E-2</c:v>
+                  <c:v>0.91019266183706515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9458452800000002E-2</c:v>
+                  <c:v>0.31496675596979729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E37-412F-B67A-3DB360D9BA2B}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>AllocAPI</c:v>
+            <c:v>TOTAL EXEC</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -15520,12 +14876,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -15587,43 +14940,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(srad_v1!$D$7,srad_v1!$D$17,srad_v1!$D$27,srad_v1!$D$37,srad_v1!$D$47)</c:f>
+              <c:f>(srad_v1!$N$9,srad_v1!$N$19,srad_v1!$N$29,srad_v1!$N$39,srad_v1!$N$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14.957324915999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192.89148454400001</c:v>
+                  <c:v>1.1298434689632271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16593457110000001</c:v>
+                  <c:v>1.0524058255225393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2250456645962697</c:v>
+                  <c:v>0.96997110519034302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1844518909000001</c:v>
+                  <c:v>1.3951788044800317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7E37-412F-B67A-3DB360D9BA2B}"/>
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>COPY API</c:v>
+            <c:v>KERNEL LAUNCH API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -15632,26 +14985,6 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7E37-412F-B67A-3DB360D9BA2B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
@@ -15668,12 +15001,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -15735,39 +15065,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(srad_v1!$E$7,srad_v1!$E$17,srad_v1!$E$27,srad_v1!$E$37,srad_v1!$E$47)</c:f>
+              <c:f>(srad_v1!$C$9,srad_v1!$C$19,srad_v1!$C$29,srad_v1!$C$39,srad_v1!$C$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.72959144399999998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9196487200000004E-2</c:v>
+                  <c:v>1.289517605714178</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60728451670000005</c:v>
+                  <c:v>0.8723221924098773</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66406877846790802</c:v>
+                  <c:v>1.0929187715387212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2297970503</c:v>
+                  <c:v>2.4475543346112887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7E37-412F-B67A-3DB360D9BA2B}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>TOTAL EXEC</c:v>
+            <c:v>AllocAPI</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -15796,12 +15126,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -15863,31 +15190,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(srad_v1!$N$7,srad_v1!$N$17,srad_v1!$N$27,srad_v1!$N$37,srad_v1!$N$47)</c:f>
+              <c:f>(srad_v1!$D$9,srad_v1!$D$19,srad_v1!$D$29,srad_v1!$D$39,srad_v1!$D$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>432.46120000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>488.6134624</c:v>
+                  <c:v>12.896121841791514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>455.124686192468</c:v>
+                  <c:v>1.1093866853323361E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>419.474868115942</c:v>
+                  <c:v>0.21561647438349127</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>603.36069999999995</c:v>
+                  <c:v>0.21290250153579002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7E37-412F-B67A-3DB360D9BA2B}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15904,149 +15231,7 @@
         <c:axId val="2057779183"/>
         <c:axId val="2057779663"/>
         <c:axId val="1524889007"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>SYNC API</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                  <a:sp3d/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="es-ES"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(srad_v1!$A$1,srad_v1!$A$11,srad_v1!$A$21,srad_v1!$A$31,srad_v1!$A$41)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>traditional alloc</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>OPT traditional alloc</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>ScatterAlloc</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Zero-Copy</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Unified Memory</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>([1]gaussian1024!$F$7,[1]gaussian1024!$F$17,[1]gaussian1024!$F$27,[1]gaussian1024!$F$37)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>0.49685522645290497</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.59037115000000007</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.55035044</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1.0994194107142801</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-7E37-412F-B67A-3DB360D9BA2B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:bar3DChart>
       <c:catAx>
         <c:axId val="2057779183"/>
@@ -16077,12 +15262,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -16103,6 +15285,7 @@
         <c:axId val="2057779663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -16128,12 +15311,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -16142,11 +15322,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16160,12 +15348,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -16192,12 +15377,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -16229,16 +15411,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -16266,7 +15445,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -28790,16 +27969,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>364027</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>211628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>444679</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57475</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>519544</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28828,16 +28007,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>436764</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>288469</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>157574</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>536863</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28871,16 +28050,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>140104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>402769</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>129865</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28909,16 +28088,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>283671</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>59575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>428318</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>55553</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28952,16 +28131,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360563</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>58535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>193331</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19375</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28990,16 +28169,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>429985</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>187779</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>345296</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>153142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>163762</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>52047</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>207817</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29033,16 +28212,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>330604</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>67368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>408481</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>189562</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29071,16 +28250,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>169372</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>211629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>368476</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>98394</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29114,16 +28293,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>450272</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>231611</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>111999</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>225135</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29152,16 +28331,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>507942</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29792,7 +28971,7 @@
       <sheetName val="Streamcluster"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="7">
           <cell r="F7">
@@ -29815,11 +28994,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -36158,15 +35337,15 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:BL48"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
@@ -36458,15 +35637,43 @@
       <c r="BL8" s="35"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="A9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="35">
+        <f>B7/B$7</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="35">
+        <f t="shared" ref="C9:K9" si="1">C7/C$7</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
       <c r="AR9" s="35"/>
       <c r="AS9" s="35"/>
       <c r="AT9" s="35"/>
@@ -36601,7 +35808,7 @@
         <v>191.49372055365799</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -36610,15 +35817,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:E17" si="1">C15/1000000</f>
+        <f t="shared" ref="C17:E17" si="2">C15/1000000</f>
         <v>2.4682817599999997E-2</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>189.96320518399997</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1234544422</v>
       </c>
       <c r="F17" s="2">
@@ -36626,11 +35833,11 @@
         <v>1.4452454000000001E-3</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" ref="G17:H17" si="2">G15/1000000</f>
+        <f t="shared" ref="G17:H17" si="3">G15/1000000</f>
         <v>2.2099337999999997E-3</v>
       </c>
       <c r="H17" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31848186979999998</v>
       </c>
       <c r="I17" s="4">
@@ -36638,7 +35845,7 @@
         <v>2283.8637466</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -36647,15 +35854,15 @@
         <v>0</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" ref="C18:E18" si="3">C16/1000000</f>
+        <f t="shared" ref="C18:E18" si="4">C16/1000000</f>
         <v>4.43635594217388E-3</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7542730480873601</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.12413599700102E-2</v>
       </c>
       <c r="F18" s="5">
@@ -36663,11 +35870,11 @@
         <v>1.19854125091474E-4</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" ref="G18:H18" si="4">G16/1000000</f>
+        <f t="shared" ref="G18:H18" si="5">G16/1000000</f>
         <v>1.8459629818652401E-4</v>
       </c>
       <c r="H18" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5411561612566101E-2</v>
       </c>
       <c r="I18" s="7">
@@ -36675,19 +35882,47 @@
         <v>191.49372055365799</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="35">
+        <f>B17/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="35">
+        <f t="shared" ref="C19:K19" si="6">C17/C$7</f>
+        <v>1.2054336505233534</v>
+      </c>
+      <c r="D19" s="35">
+        <f t="shared" si="6"/>
+        <v>4.164729751965691</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" si="6"/>
+        <v>0.33988926083341003</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.3313294331730106</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.2497018350707605</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.4376391566571465</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="6"/>
+        <v>0.38022981490654428</v>
+      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>25</v>
       </c>
@@ -36695,13 +35930,13 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="43"/>
       <c r="B22" s="44"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="45" t="s">
         <v>1</v>
@@ -36718,7 +35953,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
         <v>4</v>
       </c>
@@ -36744,7 +35979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>12</v>
       </c>
@@ -36757,7 +35992,7 @@
       <c r="H25" s="28"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
         <v>13</v>
       </c>
@@ -36770,7 +36005,7 @@
       <c r="H26" s="29"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -36779,15 +36014,15 @@
         <v>0</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:E28" si="5">C25/1000000</f>
+        <f t="shared" ref="C27:E28" si="7">C25/1000000</f>
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F27" s="2">
@@ -36795,11 +36030,11 @@
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27:H28" si="6">G25/1000000</f>
+        <f t="shared" ref="G27:H28" si="8">G25/1000000</f>
         <v>0</v>
       </c>
       <c r="H27" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I27" s="4">
@@ -36807,7 +36042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
@@ -36816,15 +36051,15 @@
         <v>0</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F28" s="5">
@@ -36832,11 +36067,11 @@
         <v>0</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H28" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I28" s="7">
@@ -36844,8 +36079,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="35">
+        <f>B27/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="35">
+        <f t="shared" ref="C29:K29" si="9">C27/C$7</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>29</v>
       </c>
@@ -36853,13 +36127,13 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="43"/>
       <c r="B32" s="44"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="45" t="s">
         <v>1</v>
@@ -36876,7 +36150,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="8" t="s">
         <v>4</v>
       </c>
@@ -36902,7 +36176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -36925,7 +36199,7 @@
         <v>2190.0881937106901</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>13</v>
       </c>
@@ -36948,7 +36222,7 @@
         <v>1099.5771934498</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -36957,15 +36231,15 @@
         <v>0</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:E38" si="7">C35/1000000</f>
+        <f t="shared" ref="C37:E38" si="10">C35/1000000</f>
         <v>1.8092693920335402E-2</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0265074046121501</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.11996436058700199</v>
       </c>
       <c r="F37" s="2">
@@ -36973,11 +36247,11 @@
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" ref="G37:H38" si="8">G35/1000000</f>
+        <f t="shared" ref="G37:H38" si="11">G35/1000000</f>
         <v>0</v>
       </c>
       <c r="H37" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.22005743186582799</v>
       </c>
       <c r="I37" s="4">
@@ -36985,7 +36259,7 @@
         <v>2190.0881937106901</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
@@ -36994,15 +36268,15 @@
         <v>0</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.40109250654127E-3</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.38687795415467297</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.0485920343007394E-2</v>
       </c>
       <c r="F38" s="5">
@@ -37010,11 +36284,11 @@
         <v>0</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H38" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.78833199104602E-2</v>
       </c>
       <c r="I38" s="7">
@@ -37022,8 +36296,47 @@
         <v>1099.5771934498</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="35">
+        <f>B37/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="35">
+        <f t="shared" ref="C39:K39" si="12">C37/C$7</f>
+        <v>0.88359207743736623</v>
+      </c>
+      <c r="D39" s="35">
+        <f t="shared" si="12"/>
+        <v>2.2505021035312503E-2</v>
+      </c>
+      <c r="E39" s="35">
+        <f t="shared" si="12"/>
+        <v>0.3302805238892309</v>
+      </c>
+      <c r="F39" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="35">
+        <f t="shared" si="12"/>
+        <v>0.99334753643086782</v>
+      </c>
+      <c r="I39" s="35">
+        <f t="shared" si="12"/>
+        <v>0.36461756081698099</v>
+      </c>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>30</v>
       </c>
@@ -37031,13 +36344,13 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="43"/>
       <c r="B42" s="44"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
       <c r="B43" s="45" t="s">
         <v>1</v>
@@ -37054,7 +36367,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="8" t="s">
         <v>4</v>
       </c>
@@ -37080,7 +36393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>12</v>
       </c>
@@ -37103,7 +36416,7 @@
         <v>6419.3951155925097</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="29" t="s">
         <v>13</v>
       </c>
@@ -37126,7 +36439,7 @@
         <v>4319.8230767231298</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -37135,15 +36448,15 @@
         <v>0</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:E48" si="9">C45/1000000</f>
+        <f t="shared" ref="C47:E48" si="13">C45/1000000</f>
         <v>3.18481787941787E-2</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.41484074844074803</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.38654818087317999</v>
       </c>
       <c r="F47" s="2">
@@ -37151,11 +36464,11 @@
         <v>0</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" ref="G47:H48" si="10">G45/1000000</f>
+        <f t="shared" ref="G47:H48" si="14">G45/1000000</f>
         <v>0</v>
       </c>
       <c r="H47" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.26503113721413701</v>
       </c>
       <c r="I47" s="4">
@@ -37163,7 +36476,7 @@
         <v>6419.3951155925097</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>15</v>
       </c>
@@ -37172,15 +36485,15 @@
         <v>0</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8.2261720042171495E-3</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.109224333604308</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.27515759585875305</v>
       </c>
       <c r="F48" s="5">
@@ -37188,17 +36501,56 @@
         <v>0</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H48" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.1885374163497799E-2</v>
       </c>
       <c r="I48" s="7">
         <f>I46</f>
         <v>4319.8230767231298</v>
       </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="35">
+        <f>B47/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="35">
+        <f t="shared" ref="C49:K49" si="15">C47/C$7</f>
+        <v>1.5553680721761394</v>
+      </c>
+      <c r="D49" s="35">
+        <f t="shared" si="15"/>
+        <v>9.0949171218996511E-3</v>
+      </c>
+      <c r="E49" s="35">
+        <f t="shared" si="15"/>
+        <v>1.0642272009996934</v>
+      </c>
+      <c r="F49" s="35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="35">
+        <f t="shared" si="15"/>
+        <v>1.1963605364151138</v>
+      </c>
+      <c r="I49" s="35">
+        <f t="shared" si="15"/>
+        <v>1.0687351293383476</v>
+      </c>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -37581,10 +36933,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:BL48"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37852,15 +37204,41 @@
       <c r="BL8" s="35"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="35"/>
+      <c r="A9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="35">
+        <f>B7/B$7</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="35">
+        <f t="shared" ref="C9:I9" si="1">C7/C$7</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AR9" s="35"/>
       <c r="AS9" s="35"/>
       <c r="AT9" s="35"/>
@@ -38035,15 +37413,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:E17" si="1">C15/1000000</f>
+        <f t="shared" ref="C17:E17" si="2">C15/1000000</f>
         <v>9.6382592000000003E-2</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>192.24319078400001</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.68767014419999994</v>
       </c>
       <c r="F17" s="2">
@@ -38051,11 +37429,11 @@
         <v>7.9132479999999995E-3</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" ref="G17:H17" si="2">G15/1000000</f>
+        <f t="shared" ref="G17:H17" si="3">G15/1000000</f>
         <v>5.6643839999999997E-3</v>
       </c>
       <c r="H17" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3088127999999993E-2</v>
       </c>
       <c r="I17" s="28">
@@ -38072,15 +37450,15 @@
         <v>0</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" ref="C18:E18" si="3">C16/1000000</f>
+        <f t="shared" ref="C18:E18" si="4">C16/1000000</f>
         <v>6.5194035161161698E-3</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0383902539588301</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9395039338348197E-2</v>
       </c>
       <c r="F18" s="5">
@@ -38088,16 +37466,53 @@
         <v>6.0694770576307595E-4</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" ref="G18:H18" si="4">G16/1000000</f>
+        <f t="shared" ref="G18:H18" si="5">G16/1000000</f>
         <v>6.5586105845674301E-4</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1404610164386101E-2</v>
       </c>
       <c r="I18" s="29">
         <f>I16/1000000</f>
         <v>4.9022163178931404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="35">
+        <f>B17/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="35">
+        <f t="shared" ref="C19:I19" si="6">C17/C$7</f>
+        <v>0.90281678231952989</v>
+      </c>
+      <c r="D19" s="35">
+        <f t="shared" si="6"/>
+        <v>3.2031092832317776</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.8961339205725494</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.0526077881088465</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="6"/>
+        <v>0.9877106499083067</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="6"/>
+        <v>0.94541280801243266</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.0407120560985792</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -38225,15 +37640,15 @@
         <v>0.102460064</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:E27" si="5">C25/1000000</f>
+        <f t="shared" ref="C27:E27" si="7">C25/1000000</f>
         <v>0.13578758399999999</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.24093668799999998</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.39741696199999998</v>
       </c>
       <c r="F27" s="2">
@@ -38241,11 +37656,11 @@
         <v>7.5793599999999994E-3</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27:H27" si="6">G25/1000000</f>
+        <f t="shared" ref="G27:H27" si="8">G25/1000000</f>
         <v>5.7868800000000003E-3</v>
       </c>
       <c r="H27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.7248063999999996E-2</v>
       </c>
       <c r="I27" s="28">
@@ -38262,15 +37677,15 @@
         <v>1.3351165951948E-2</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" ref="C28:E28" si="7">C26/1000000</f>
+        <f t="shared" ref="C28:E28" si="9">C26/1000000</f>
         <v>1.5278204016404399E-2</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7753499625723802E-2</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.0537285002162701E-2</v>
       </c>
       <c r="F28" s="5">
@@ -38278,16 +37693,53 @@
         <v>3.38943079620229E-4</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" ref="G28:H28" si="8">G26/1000000</f>
+        <f t="shared" ref="G28:H28" si="10">G26/1000000</f>
         <v>3.9093064235778198E-4</v>
       </c>
       <c r="H28" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9378299270713393E-3</v>
       </c>
       <c r="I28" s="29">
         <f>I26/1000000</f>
         <v>8.4892310868916603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="35">
+        <f>B27/B$7</f>
+        <v>0.88029221951905257</v>
+      </c>
+      <c r="C29" s="35">
+        <f t="shared" ref="C29:I29" si="11">C27/C$7</f>
+        <v>1.2719237688256284</v>
+      </c>
+      <c r="D29" s="35">
+        <f t="shared" si="11"/>
+        <v>4.0144284895428876E-3</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" si="11"/>
+        <v>1.0958099440768072</v>
+      </c>
+      <c r="F29" s="35">
+        <f t="shared" si="11"/>
+        <v>1.008194532116353</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="11"/>
+        <v>1.0090705371919317</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="11"/>
+        <v>1.007751902539251</v>
+      </c>
+      <c r="I29" s="35">
+        <f t="shared" si="11"/>
+        <v>1.0927732938501955</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -38403,15 +37855,15 @@
         <v>0</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:E37" si="9">C35/1000000</f>
+        <f t="shared" ref="C37:E37" si="12">C35/1000000</f>
         <v>1.3443328000000001</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2061063679999999</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.69778163199999999</v>
       </c>
       <c r="F37" s="2">
@@ -38419,11 +37871,11 @@
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" ref="G37:H37" si="10">G35/1000000</f>
+        <f t="shared" ref="G37:H37" si="13">G35/1000000</f>
         <v>0</v>
       </c>
       <c r="H37" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.3425087999999999E-2</v>
       </c>
       <c r="I37" s="28">
@@ -38440,15 +37892,15 @@
         <v>0</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" ref="C38:E38" si="11">C36/1000000</f>
+        <f t="shared" ref="C38:E38" si="14">C36/1000000</f>
         <v>0.112791438944779</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.78701192006476E-2</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.15574413064471199</v>
       </c>
       <c r="F38" s="5">
@@ -38456,16 +37908,53 @@
         <v>0</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" ref="G38:H38" si="12">G36/1000000</f>
+        <f t="shared" ref="G38:H38" si="15">G36/1000000</f>
         <v>0</v>
       </c>
       <c r="H38" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.7011933301728208E-3</v>
       </c>
       <c r="I38" s="29">
         <f>I36/1000000</f>
         <v>3.9532624840559403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="35">
+        <f>B37/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="35">
+        <f t="shared" ref="C39:I39" si="16">C37/C$7</f>
+        <v>12.59237988601307</v>
+      </c>
+      <c r="D39" s="35">
+        <f t="shared" si="16"/>
+        <v>2.0095850927934641E-2</v>
+      </c>
+      <c r="E39" s="35">
+        <f t="shared" si="16"/>
+        <v>1.9240146351371465</v>
+      </c>
+      <c r="F39" s="35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="35">
+        <f t="shared" si="16"/>
+        <v>1.1003182504423017</v>
+      </c>
+      <c r="I39" s="35">
+        <f t="shared" si="16"/>
+        <v>1.0209522060355996</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -38581,15 +38070,15 @@
         <v>0</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:E47" si="13">C45/1000000</f>
+        <f t="shared" ref="C47:E47" si="17">C45/1000000</f>
         <v>1.2523204488977899</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.34226071342685299</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.76062537875751501</v>
       </c>
       <c r="F47" s="2">
@@ -38597,11 +38086,11 @@
         <v>0</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" ref="G47:H47" si="14">G45/1000000</f>
+        <f t="shared" ref="G47:H47" si="18">G45/1000000</f>
         <v>0</v>
       </c>
       <c r="H47" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.2605178356713401E-2</v>
       </c>
       <c r="I47" s="28">
@@ -38618,15 +38107,15 @@
         <v>0</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" ref="C48:E48" si="15">C46/1000000</f>
+        <f t="shared" ref="C48:E48" si="19">C46/1000000</f>
         <v>0.118155406628682</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3.6642986565258599E-2</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.21154504379662101</v>
       </c>
       <c r="F48" s="5">
@@ -38634,16 +38123,53 @@
         <v>0</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" ref="G48:H48" si="16">G46/1000000</f>
+        <f t="shared" ref="G48:H48" si="20">G46/1000000</f>
         <v>0</v>
       </c>
       <c r="H48" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7.1108713279331793E-3</v>
       </c>
       <c r="I48" s="29">
         <f>I46/1000000</f>
         <v>6.0892111573497401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="35">
+        <f>B47/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="35">
+        <f t="shared" ref="C49:I49" si="21">C47/C$7</f>
+        <v>11.730499197478025</v>
+      </c>
+      <c r="D49" s="35">
+        <f t="shared" si="21"/>
+        <v>5.7026647549502001E-3</v>
+      </c>
+      <c r="E49" s="35">
+        <f t="shared" si="21"/>
+        <v>2.0972956201091204</v>
+      </c>
+      <c r="F49" s="35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="35">
+        <f t="shared" si="21"/>
+        <v>1.0880314208477373</v>
+      </c>
+      <c r="I49" s="35">
+        <f t="shared" si="21"/>
+        <v>0.97188203465565104</v>
       </c>
     </row>
   </sheetData>
@@ -38680,15 +38206,15 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:BL48"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
@@ -38951,15 +38477,41 @@
       <c r="BL8" s="35"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="35"/>
+      <c r="A9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="35">
+        <f>B7/B$7</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="35">
+        <f t="shared" ref="C9:I9" si="1">C7/C$7</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AR9" s="35"/>
       <c r="AS9" s="35"/>
       <c r="AT9" s="35"/>
@@ -39103,15 +38655,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:E18" si="1">C15/1000000</f>
+        <f t="shared" ref="C17:E18" si="2">C15/1000000</f>
         <v>0.133652992</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>191.66116256000001</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5962123708</v>
       </c>
       <c r="F17" s="2">
@@ -39119,11 +38671,11 @@
         <v>0.13426131199999999</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" ref="G17:H18" si="2">G15/1000000</f>
+        <f t="shared" ref="G17:H18" si="3">G15/1000000</f>
         <v>0.12629408</v>
       </c>
       <c r="H17" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.765405184</v>
       </c>
       <c r="I17" s="28">
@@ -39140,15 +38692,15 @@
         <v>0</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.65204744891491E-2</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7871462360638699</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.186459739284763</v>
       </c>
       <c r="F18" s="5">
@@ -39156,11 +38708,11 @@
         <v>9.4833797991795594E-3</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.27809950253207E-2</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29241814777685798</v>
       </c>
       <c r="I18" s="29">
@@ -39169,15 +38721,41 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="35"/>
+      <c r="A19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="35">
+        <f>B17/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="35">
+        <f t="shared" ref="C19:I19" si="4">C17/C$7</f>
+        <v>1.1270190602525896</v>
+      </c>
+      <c r="D19" s="35">
+        <f t="shared" si="4"/>
+        <v>3.294547736594037</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" si="4"/>
+        <v>1.3596592513865582</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="4"/>
+        <v>1.007463894335614</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="4"/>
+        <v>1.0158748380959048</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="4"/>
+        <v>0.99221534003057654</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="4"/>
+        <v>0.77541694491452062</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.3">
@@ -39304,15 +38882,15 @@
         <v>5.2693148940000007</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:E28" si="3">C25/1000000</f>
+        <f t="shared" ref="C27:E28" si="5">C25/1000000</f>
         <v>0.13647395199999998</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.347118704</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.19713603</v>
       </c>
       <c r="F27" s="2">
@@ -39320,11 +38898,11 @@
         <v>8.6327840000000003E-2</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27:H28" si="4">G25/1000000</f>
+        <f t="shared" ref="G27:H28" si="6">G25/1000000</f>
         <v>7.3343039999999998E-2</v>
       </c>
       <c r="H27" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6193381760000001</v>
       </c>
       <c r="I27" s="28">
@@ -39341,15 +38919,15 @@
         <v>56.481657024599997</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.6960801500000003E-2</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9150926899999998E-2</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.25248116669999998</v>
       </c>
       <c r="F28" s="5">
@@ -39357,16 +38935,53 @@
         <v>2.1905674399999998E-2</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.96395574E-2</v>
       </c>
       <c r="H28" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.47546227389999995</v>
       </c>
       <c r="I28" s="29">
         <f>I26</f>
         <v>1445.511231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="35">
+        <f>B27/B$7</f>
+        <v>23.245584857888325</v>
+      </c>
+      <c r="C29" s="35">
+        <f t="shared" ref="C29:I29" si="7">C27/C$7</f>
+        <v>1.1508065987179472</v>
+      </c>
+      <c r="D29" s="35">
+        <f t="shared" si="7"/>
+        <v>5.9667755601484932E-3</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" si="7"/>
+        <v>0.62695066731236471</v>
+      </c>
+      <c r="F29" s="35">
+        <f t="shared" si="7"/>
+        <v>0.64778289873989758</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="7"/>
+        <v>0.58995123829605844</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="7"/>
+        <v>0.5810114872932608</v>
+      </c>
+      <c r="I29" s="35">
+        <f t="shared" si="7"/>
+        <v>4.0654438460994697</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -39482,15 +39097,15 @@
         <v>0</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:E38" si="5">C35/1000000</f>
+        <f t="shared" ref="C37:E38" si="8">C35/1000000</f>
         <v>1.6412748160000001</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.668853312</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.2518520319999995</v>
       </c>
       <c r="F37" s="2">
@@ -39498,11 +39113,11 @@
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" ref="G37:H38" si="6">G35/1000000</f>
+        <f t="shared" ref="G37:H38" si="9">G35/1000000</f>
         <v>0</v>
       </c>
       <c r="H37" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.7765713280000002</v>
       </c>
       <c r="I37" s="28">
@@ -39519,15 +39134,15 @@
         <v>0</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.4836789447</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.21999494020000002</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.43078852740000001</v>
       </c>
       <c r="F38" s="5">
@@ -39535,16 +39150,53 @@
         <v>0</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H38" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.24018787179999998</v>
       </c>
       <c r="I38" s="29">
         <f>I36</f>
         <v>99.305400000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="35">
+        <f>B37/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="35">
+        <f t="shared" ref="C39:I39" si="10">C37/C$7</f>
+        <v>13.839929604752598</v>
+      </c>
+      <c r="D39" s="35">
+        <f t="shared" si="10"/>
+        <v>2.868665111032008E-2</v>
+      </c>
+      <c r="E39" s="35">
+        <f t="shared" si="10"/>
+        <v>2.2267323027407615</v>
+      </c>
+      <c r="F39" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="35">
+        <f t="shared" si="10"/>
+        <v>0.99622170388274989</v>
+      </c>
+      <c r="I39" s="35">
+        <f t="shared" si="10"/>
+        <v>0.77475381495467488</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -39660,15 +39312,15 @@
         <v>0</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:E48" si="7">C45/1000000</f>
+        <f t="shared" ref="C47:E48" si="11">C45/1000000</f>
         <v>1.6882971062000001</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.5978707494000002</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.7123900279999997</v>
       </c>
       <c r="F47" s="2">
@@ -39676,11 +39328,11 @@
         <v>0</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" ref="G47:H48" si="8">G45/1000000</f>
+        <f t="shared" ref="G47:H48" si="12">G45/1000000</f>
         <v>0</v>
       </c>
       <c r="H47" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.7628294028</v>
       </c>
       <c r="I47" s="28">
@@ -39697,15 +39349,15 @@
         <v>0</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.37417233929999999</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.23078427509999999</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.72414262330000001</v>
       </c>
       <c r="F48" s="5">
@@ -39713,16 +39365,53 @@
         <v>0</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H48" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.33313322889999997</v>
       </c>
       <c r="I48" s="29">
         <f>I46</f>
         <v>11.148897</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="35">
+        <f>B47/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="35">
+        <f t="shared" ref="C49:I49" si="13">C47/C$7</f>
+        <v>14.236441620825747</v>
+      </c>
+      <c r="D49" s="35">
+        <f t="shared" si="13"/>
+        <v>2.7466500727071391E-2</v>
+      </c>
+      <c r="E49" s="35">
+        <f t="shared" si="13"/>
+        <v>2.4679201015199022</v>
+      </c>
+      <c r="F49" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="35">
+        <f t="shared" si="13"/>
+        <v>0.99129116095042247</v>
+      </c>
+      <c r="I49" s="35">
+        <f t="shared" si="13"/>
+        <v>0.73827199964065648</v>
       </c>
     </row>
   </sheetData>
@@ -39759,15 +39448,15 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:BL48"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
@@ -40030,15 +39719,41 @@
       <c r="BL8" s="35"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="35"/>
+      <c r="A9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="35">
+        <f>B7/B$7</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="35">
+        <f t="shared" ref="C9:I9" si="1">C7/C$7</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AR9" s="35"/>
       <c r="AS9" s="35"/>
       <c r="AT9" s="35"/>
@@ -40182,15 +39897,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:E18" si="1">C15/1000000</f>
+        <f t="shared" ref="C17:E18" si="2">C15/1000000</f>
         <v>0.1620288</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>192.635261888</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8864062928000003</v>
       </c>
       <c r="F17" s="2">
@@ -40198,11 +39913,11 @@
         <v>0.954118048</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" ref="G17:H18" si="2">G15/1000000</f>
+        <f t="shared" ref="G17:H18" si="3">G15/1000000</f>
         <v>2.3858689279999998</v>
       </c>
       <c r="H17" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.228240960000001</v>
       </c>
       <c r="I17" s="28">
@@ -40219,15 +39934,15 @@
         <v>0</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9259833662870499E-2</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0465465329144399</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.246731535804533</v>
       </c>
       <c r="F18" s="5">
@@ -40235,16 +39950,53 @@
         <v>2.3332060790061299E-2</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40821572302119602</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49620828727705302</v>
       </c>
       <c r="I18" s="29">
         <f>I16/1000000</f>
         <v>20.055465823214199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="35">
+        <f>B17/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="35">
+        <f t="shared" ref="C19:I19" si="4">C17/C$7</f>
+        <v>1.0628151145852136</v>
+      </c>
+      <c r="D19" s="35">
+        <f t="shared" si="4"/>
+        <v>3.2764927040764946</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" si="4"/>
+        <v>1.1490624888580596</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="4"/>
+        <v>0.98096455222045298</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="4"/>
+        <v>0.88250952257154003</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="4"/>
+        <v>1.0201230496530791</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="4"/>
+        <v>0.59005771269569951</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -40372,15 +40124,15 @@
         <v>0.45109207200000001</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:E28" si="3">C25/1000000</f>
+        <f t="shared" ref="C27:E28" si="5">C25/1000000</f>
         <v>0.19529407999999998</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.95129409600000003</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.1892716679999999</v>
       </c>
       <c r="F27" s="2">
@@ -40388,11 +40140,11 @@
         <v>1.0397901439999999</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27:H28" si="4">G25/1000000</f>
+        <f t="shared" ref="G27:H28" si="6">G25/1000000</f>
         <v>2.4126922239999997</v>
       </c>
       <c r="H27" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.131723072</v>
       </c>
       <c r="I27" s="28">
@@ -40409,15 +40161,15 @@
         <v>3.8606557228959899E-2</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7383531737161801E-2</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.0842733680285602E-2</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.41986286088573699</v>
       </c>
       <c r="F28" s="5">
@@ -40425,16 +40177,53 @@
         <v>8.7276535148746601E-2</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.34643820628218996</v>
       </c>
       <c r="H28" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.61508231561823901</v>
       </c>
       <c r="I28" s="29">
         <f>I26/1000000</f>
         <v>21.236810043804198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="35">
+        <f>B27/B$7</f>
+        <v>0.48684869273842385</v>
+      </c>
+      <c r="C29" s="35">
+        <f t="shared" ref="C29:I29" si="7">C27/C$7</f>
+        <v>1.2810160910468624</v>
+      </c>
+      <c r="D29" s="35">
+        <f t="shared" si="7"/>
+        <v>1.6180361447984768E-2</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" si="7"/>
+        <v>1.0327389359071761</v>
+      </c>
+      <c r="F29" s="35">
+        <f t="shared" si="7"/>
+        <v>1.069047247508099</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="7"/>
+        <v>0.89243119675445426</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="7"/>
+        <v>1.0113540783953912</v>
+      </c>
+      <c r="I29" s="35">
+        <f t="shared" si="7"/>
+        <v>0.96631437340685267</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -40550,15 +40339,15 @@
         <v>0</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:E38" si="5">C35/1000000</f>
+        <f t="shared" ref="C37:E38" si="8">C35/1000000</f>
         <v>1.9189976959999999</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.2454065920000001</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15.994378368000001</v>
       </c>
       <c r="F37" s="2">
@@ -40566,11 +40355,11 @@
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" ref="G37:H38" si="6">G35/1000000</f>
+        <f t="shared" ref="G37:H38" si="9">G35/1000000</f>
         <v>0</v>
       </c>
       <c r="H37" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.107042624</v>
       </c>
       <c r="I37" s="28">
@@ -40587,15 +40376,15 @@
         <v>0</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.18668367278284098</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.25914082004744599</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.29391015458256</v>
       </c>
       <c r="F38" s="5">
@@ -40603,16 +40392,53 @@
         <v>0</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H38" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.86023055525552705</v>
       </c>
       <c r="I38" s="29">
         <f>I36/1000000</f>
         <v>11.681228648703399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="35">
+        <f>B37/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="35">
+        <f t="shared" ref="C39:I39" si="10">C37/C$7</f>
+        <v>12.5875138010218</v>
+      </c>
+      <c r="D39" s="35">
+        <f t="shared" si="10"/>
+        <v>8.9218018861962914E-2</v>
+      </c>
+      <c r="E39" s="35">
+        <f t="shared" si="10"/>
+        <v>2.6688143908219666</v>
+      </c>
+      <c r="F39" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="35">
+        <f t="shared" si="10"/>
+        <v>1.0091117775781699</v>
+      </c>
+      <c r="I39" s="35">
+        <f t="shared" si="10"/>
+        <v>0.58386083225425411</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -40728,15 +40554,15 @@
         <v>0</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:E48" si="7">C45/1000000</f>
+        <f t="shared" ref="C47:E48" si="11">C45/1000000</f>
         <v>2.0456291200000001</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.8695720959999997</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>15.65582848</v>
       </c>
       <c r="F47" s="2">
@@ -40744,11 +40570,11 @@
         <v>0</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" ref="G47:H48" si="8">G45/1000000</f>
+        <f t="shared" ref="G47:H48" si="12">G45/1000000</f>
         <v>0</v>
       </c>
       <c r="H47" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>11.160391808</v>
       </c>
       <c r="I47" s="28">
@@ -40765,15 +40591,15 @@
         <v>0</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.98218820898885695</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.91478758556359097</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.2756501502084598</v>
       </c>
       <c r="F48" s="5">
@@ -40781,16 +40607,53 @@
         <v>0</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H48" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.93513631552513599</v>
       </c>
       <c r="I48" s="29">
         <f>I46/1000000</f>
         <v>15.5077929174407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="35">
+        <f>B47/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="35">
+        <f t="shared" ref="C49:I49" si="13">C47/C$7</f>
+        <v>13.418142623852365</v>
+      </c>
+      <c r="D49" s="35">
+        <f t="shared" si="13"/>
+        <v>8.2825528868099657E-2</v>
+      </c>
+      <c r="E49" s="35">
+        <f t="shared" si="13"/>
+        <v>2.612324117032192</v>
+      </c>
+      <c r="F49" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="35">
+        <f t="shared" si="13"/>
+        <v>1.0139587284471852</v>
+      </c>
+      <c r="I49" s="35">
+        <f t="shared" si="13"/>
+        <v>0.58503260109334954</v>
       </c>
     </row>
   </sheetData>
@@ -40826,8 +40689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB319121-1BB2-417E-8980-D9357D9A11D5}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41546,15 +41409,15 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:BL48"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
@@ -41851,17 +41714,49 @@
       <c r="BL8" s="35"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="35"/>
+      <c r="A9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="35">
+        <f>B7/B$7</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="35">
+        <f t="shared" ref="C9:K9" si="1">C7/C$7</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AR9" s="35"/>
       <c r="AS9" s="35"/>
       <c r="AT9" s="35"/>
@@ -42058,23 +41953,23 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:G17" si="1">C15/1000000</f>
+        <f t="shared" ref="C17:G17" si="2">C15/1000000</f>
         <v>0.1117019712</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>196.44603968000001</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54452640800000007</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58103393440000006</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.294362883199994</v>
       </c>
       <c r="H17" s="3">
@@ -42082,11 +41977,11 @@
         <v>0.1174881366</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" ref="I17:J17" si="2">I15/1000000</f>
+        <f t="shared" ref="I17:J17" si="3">I15/1000000</f>
         <v>3.740944E-3</v>
       </c>
       <c r="J17" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.820030675200002</v>
       </c>
       <c r="K17" s="28">
@@ -42103,23 +41998,23 @@
         <v>0</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" ref="C18:G18" si="3">C16/1000000</f>
+        <f t="shared" ref="C18:G18" si="4">C16/1000000</f>
         <v>2.1459501627335099E-2</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7421445260072401</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.7373759906072398E-2</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14286787125751998</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.77191943043964</v>
       </c>
       <c r="H18" s="6">
@@ -42127,16 +42022,61 @@
         <v>1.57186154718124E-2</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" ref="I18:J18" si="4">I16/1000000</f>
+        <f t="shared" ref="I18:J18" si="5">I16/1000000</f>
         <v>8.5238312444914702E-4</v>
       </c>
       <c r="J18" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.67022881426215</v>
       </c>
       <c r="K18" s="29">
         <f>K16/1000000</f>
         <v>154.51742676738701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="35">
+        <f>B17/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="35">
+        <f t="shared" ref="C19:K19" si="6">C17/C$7</f>
+        <v>1.2958904616233047</v>
+      </c>
+      <c r="D19" s="35">
+        <f t="shared" si="6"/>
+        <v>653.31568996213582</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" si="6"/>
+        <v>3.6898255433134006E-2</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.6099230593157718</v>
+      </c>
+      <c r="G19" s="35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.2489915272615941</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.1304022007667873</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.2846002655104076</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.3901160150792773</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -42280,23 +42220,23 @@
         <v>1.5421542619542601E-2</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:G27" si="5">C25/1000000</f>
+        <f t="shared" ref="C27:G27" si="7">C25/1000000</f>
         <v>9.8934378378378304E-2</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.2952365904365899E-2</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17.025490767151698</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16909036382536299</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H27" s="3">
@@ -42304,11 +42244,11 @@
         <v>0.11388208939708901</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" ref="I27:J27" si="6">I25/1000000</f>
+        <f t="shared" ref="I27:J27" si="8">I25/1000000</f>
         <v>3.47422869022869E-3</v>
       </c>
       <c r="J27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>27.810549492723403</v>
       </c>
       <c r="K27" s="28">
@@ -42325,23 +42265,23 @@
         <v>3.6955369020663202E-3</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" ref="C28:G28" si="7">C26/1000000</f>
+        <f t="shared" ref="C28:G28" si="9">C26/1000000</f>
         <v>2.5319076147456397E-2</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.4164621296142009E-3</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.3641373158652197</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.5035323057923389E-2</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H28" s="6">
@@ -42349,16 +42289,61 @@
         <v>2.4764119769720698E-2</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" ref="I28:J28" si="8">I26/1000000</f>
+        <f t="shared" ref="I28:J28" si="10">I26/1000000</f>
         <v>4.1528731731796896E-4</v>
       </c>
       <c r="J28" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.0225565926360805</v>
       </c>
       <c r="K28" s="29">
         <f>K26</f>
         <v>178.05213005490401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="35">
+        <f>B27/B$7</f>
+        <v>0.7492923549089775</v>
+      </c>
+      <c r="C29" s="35">
+        <f t="shared" ref="C29:K29" si="11">C27/C$7</f>
+        <v>1.1477695146276108</v>
+      </c>
+      <c r="D29" s="35">
+        <f t="shared" si="11"/>
+        <v>0.10958886064470426</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" si="11"/>
+        <v>1.1536830867545875</v>
+      </c>
+      <c r="F29" s="35">
+        <f t="shared" si="11"/>
+        <v>0.46851390205230203</v>
+      </c>
+      <c r="G29" s="35" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="11"/>
+        <v>1.2106564022550987</v>
+      </c>
+      <c r="I29" s="35">
+        <f t="shared" si="11"/>
+        <v>1.0498087534594542</v>
+      </c>
+      <c r="J29" s="35">
+        <f t="shared" si="11"/>
+        <v>1.0563396469223205</v>
+      </c>
+      <c r="K29" s="35">
+        <f t="shared" si="11"/>
+        <v>1.1142293404507897</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -42490,23 +42475,23 @@
         <v>0</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:G37" si="9">C35/1000000</f>
+        <f t="shared" ref="C37:G37" si="12">C35/1000000</f>
         <v>8.9926253668763112E-2</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>16.011348192872099</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>26.035250153039797</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.2501673081761</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H37" s="3">
@@ -42514,11 +42499,11 @@
         <v>0</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" ref="I37:J37" si="10">I35/1000000</f>
+        <f t="shared" ref="I37:J37" si="13">I35/1000000</f>
         <v>0</v>
       </c>
       <c r="J37" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>32.057165983228501</v>
       </c>
       <c r="K37" s="28">
@@ -42535,23 +42520,23 @@
         <v>0</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" ref="C38:G38" si="11">C36/1000000</f>
+        <f t="shared" ref="C38:G38" si="14">C36/1000000</f>
         <v>1.3359808714468799E-2</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.9235428594413602</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7.1658384436721905</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.7335529930306212E-2</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H38" s="6">
@@ -42559,16 +42544,61 @@
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" ref="I38:J38" si="12">I36/1000000</f>
+        <f t="shared" ref="I38:J38" si="15">I36/1000000</f>
         <v>0</v>
       </c>
       <c r="J38" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.2961037476921602</v>
       </c>
       <c r="K38" s="29">
         <f>K36</f>
         <v>163.240876486112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="35">
+        <f>B37/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="35">
+        <f t="shared" ref="C39:K39" si="16">C37/C$7</f>
+        <v>1.0432633652472896</v>
+      </c>
+      <c r="D39" s="35">
+        <f t="shared" si="16"/>
+        <v>53.248540967737313</v>
+      </c>
+      <c r="E39" s="35">
+        <f t="shared" si="16"/>
+        <v>1.7642033449595407</v>
+      </c>
+      <c r="F39" s="35">
+        <f t="shared" si="16"/>
+        <v>0.69316109486024258</v>
+      </c>
+      <c r="G39" s="35" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="35">
+        <f t="shared" si="16"/>
+        <v>1.217640644062574</v>
+      </c>
+      <c r="K39" s="35">
+        <f t="shared" si="16"/>
+        <v>1.1294280517103408</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -42700,23 +42730,23 @@
         <v>0</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:G47" si="13">C45/1000000</f>
+        <f t="shared" ref="C47:G47" si="17">C45/1000000</f>
         <v>0.111805589247311</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>16.012486606451599</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.3841692021505299</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.216337064516129</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H47" s="3">
@@ -42724,11 +42754,11 @@
         <v>0</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" ref="I47:J47" si="14">I45/1000000</f>
+        <f t="shared" ref="I47:J47" si="18">I45/1000000</f>
         <v>0</v>
       </c>
       <c r="J47" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>27.385740533333301</v>
       </c>
       <c r="K47" s="28">
@@ -42745,23 +42775,23 @@
         <v>0</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" ref="C48:G48" si="15">C46/1000000</f>
+        <f t="shared" ref="C48:G48" si="19">C46/1000000</f>
         <v>2.38074459067877E-2</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3.4984417451548397</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.27059737113613297</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6.3169814233793906E-2</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H48" s="6">
@@ -42769,16 +42799,61 @@
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" ref="I48:J48" si="16">I46/1000000</f>
+        <f t="shared" ref="I48:J48" si="20">I46/1000000</f>
         <v>0</v>
       </c>
       <c r="J48" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4.8755767587831897</v>
       </c>
       <c r="K48" s="29">
         <f>K46</f>
         <v>135.67189985475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="35">
+        <f>B47/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="35">
+        <f t="shared" ref="C49:K49" si="21">C47/C$7</f>
+        <v>1.2970925678862455</v>
+      </c>
+      <c r="D49" s="35">
+        <f t="shared" si="21"/>
+        <v>53.252326961358591</v>
+      </c>
+      <c r="E49" s="35">
+        <f t="shared" si="21"/>
+        <v>9.379421830286612E-2</v>
+      </c>
+      <c r="F49" s="35">
+        <f t="shared" si="21"/>
+        <v>0.59942459145498039</v>
+      </c>
+      <c r="G49" s="35" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="35">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="35">
+        <f t="shared" si="21"/>
+        <v>1.0402039518585104</v>
+      </c>
+      <c r="K49" s="35">
+        <f t="shared" si="21"/>
+        <v>1.2131552991530914</v>
       </c>
     </row>
   </sheetData>
@@ -42814,10 +42889,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:BL48"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="G12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE42" sqref="AE42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43175,6 +43250,63 @@
       <c r="BK8" s="35"/>
       <c r="BL8" s="35"/>
     </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="35">
+        <f>B7/B$7</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="35">
+        <f t="shared" ref="C9:N9" si="3">C7/C$7</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="10" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:64" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
@@ -43346,15 +43478,15 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:E17" si="3">C15/1000000</f>
+        <f t="shared" ref="C17:E17" si="4">C15/1000000</f>
         <v>2.07890664E-2</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>192.89148454400001</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9196487200000004E-2</v>
       </c>
       <c r="F17" s="2">
@@ -43362,27 +43494,27 @@
         <v>2.5277606399999999E-2</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" ref="G17:L17" si="4">G15/1000000</f>
+        <f t="shared" ref="G17:L17" si="5">G15/1000000</f>
         <v>3.0190581999999999E-3</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82690795799999994</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32243016559999998</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1299971274</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4420697799999991E-2</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.7306944000000002E-2</v>
       </c>
       <c r="M17" s="18">
@@ -43403,15 +43535,15 @@
         <v>0</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" ref="C18:E18" si="5">C16/1000000</f>
+        <f t="shared" ref="C18:E18" si="6">C16/1000000</f>
         <v>3.8412733854484402E-3</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.68439528284072</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.7718497817040695E-3</v>
       </c>
       <c r="F18" s="5">
@@ -43419,27 +43551,27 @@
         <v>3.9081496163281895E-3</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" ref="G18:L18" si="6">G16/1000000</f>
+        <f t="shared" ref="G18:L18" si="7">G16/1000000</f>
         <v>3.4909932166294803E-4</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.12034336842014401</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0745122920529196E-2</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.8559484916175199E-2</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.9683951963608005E-3</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2589968410047501E-2</v>
       </c>
       <c r="M18" s="20">
@@ -43449,6 +43581,63 @@
       <c r="N18" s="7">
         <f>N16</f>
         <v>30.854267506179902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="35">
+        <f>B17/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="35">
+        <f t="shared" ref="C19:N19" si="8">C17/C$7</f>
+        <v>1.289517605714178</v>
+      </c>
+      <c r="D19" s="35">
+        <f t="shared" si="8"/>
+        <v>12.896121841791514</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" si="8"/>
+        <v>9.4842788753975588E-2</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="8"/>
+        <v>0.95962104742381493</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="8"/>
+        <v>1.2571572886234248</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="8"/>
+        <v>1.1024235887420717</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="8"/>
+        <v>1.1123832671781362</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="8"/>
+        <v>1.1146061804426433</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" si="8"/>
+        <v>1.1785644573377603</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" si="8"/>
+        <v>0.78150165530029281</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" si="8"/>
+        <v>1.4324801412180053</v>
+      </c>
+      <c r="N19" s="35">
+        <f t="shared" si="8"/>
+        <v>1.1298434689632271</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -43626,15 +43815,15 @@
         <v>0.24243304600000001</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:E27" si="7">C25/1000000</f>
+        <f t="shared" ref="C27:E27" si="9">C25/1000000</f>
         <v>1.40632155E-2</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16593457110000001</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.60728451670000005</v>
       </c>
       <c r="F27" s="2">
@@ -43642,27 +43831,27 @@
         <v>2.0858956059999999E-2</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27:L27" si="8">G25/1000000</f>
+        <f t="shared" ref="G27:L27" si="10">G25/1000000</f>
         <v>2.0136986999999998E-3</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.59182016108786606</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.23200423849372301</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.2883751046025101E-2</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.3644135983263598E-2</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.6719598326359805E-2</v>
       </c>
       <c r="M27" s="18">
@@ -43683,15 +43872,15 @@
         <v>9.4685833299999994E-2</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" ref="C28:E28" si="9">C26/1000000</f>
+        <f t="shared" ref="C28:E28" si="11">C26/1000000</f>
         <v>3.2278335E-3</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.10056246E-2</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.18908074720000001</v>
       </c>
       <c r="F28" s="5">
@@ -43699,27 +43888,27 @@
         <v>5.6646073999999996E-3</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" ref="G28:L28" si="10">G26/1000000</f>
+        <f t="shared" ref="G28:L28" si="12">G26/1000000</f>
         <v>3.0808970000000002E-4</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12744709892404901</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.8142078745422097E-2</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9862924871516703E-2</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1234754724675E-2</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.8128003592602599E-2</v>
       </c>
       <c r="M28" s="20">
@@ -43729,6 +43918,63 @@
       <c r="N28" s="7">
         <f>N26</f>
         <v>67.325176995443897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="35">
+        <f>B27/B$7</f>
+        <v>1.0612146700563827</v>
+      </c>
+      <c r="C29" s="35">
+        <f t="shared" ref="C29:N29" si="13">C27/C$7</f>
+        <v>0.8723221924098773</v>
+      </c>
+      <c r="D29" s="35">
+        <f t="shared" si="13"/>
+        <v>1.1093866853323361E-2</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" si="13"/>
+        <v>0.83236244297294704</v>
+      </c>
+      <c r="F29" s="35">
+        <f t="shared" si="13"/>
+        <v>0.79187455274501517</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="13"/>
+        <v>0.83851844850043467</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="13"/>
+        <v>0.78900740954822968</v>
+      </c>
+      <c r="I29" s="35">
+        <f t="shared" si="13"/>
+        <v>0.80041404418403184</v>
+      </c>
+      <c r="J29" s="35">
+        <f t="shared" si="13"/>
+        <v>0.79639300536263546</v>
+      </c>
+      <c r="K29" s="35">
+        <f t="shared" si="13"/>
+        <v>0.84953613555701013</v>
+      </c>
+      <c r="L29" s="35">
+        <f t="shared" si="13"/>
+        <v>0.67447338926010103</v>
+      </c>
+      <c r="M29" s="35">
+        <f t="shared" si="13"/>
+        <v>0.85843740857338846</v>
+      </c>
+      <c r="N29" s="35">
+        <f t="shared" si="13"/>
+        <v>1.0524058255225393</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -43894,15 +44140,15 @@
         <v>0</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:E37" si="11">C35/1000000</f>
+        <f t="shared" ref="C37:E37" si="14">C35/1000000</f>
         <v>1.7619581780538303E-2</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.2250456645962697</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.66406877846790802</v>
       </c>
       <c r="F37" s="2">
@@ -43910,27 +44156,27 @@
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" ref="G37:L37" si="12">G35/1000000</f>
+        <f t="shared" ref="G37:L37" si="15">G35/1000000</f>
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.63745532712215303</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.246508741200828</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.11333579089026899</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.8580289855072399E-2</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.104147146997929</v>
       </c>
       <c r="M37" s="18">
@@ -43951,15 +44197,15 @@
         <v>0</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" ref="C38:E38" si="13">C36/1000000</f>
+        <f t="shared" ref="C38:E38" si="16">C36/1000000</f>
         <v>3.3248960254294102E-3</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.64688655448105892</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.14828536005483398</v>
       </c>
       <c r="F38" s="5">
@@ -43967,27 +44213,27 @@
         <v>0</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" ref="G38:L38" si="14">G36/1000000</f>
+        <f t="shared" ref="G38:L38" si="17">G36/1000000</f>
         <v>0</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.12337643733078101</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.5848741348639602E-2</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.1347953203309799E-2</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.7211894171104501E-2</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.38047962899876E-2</v>
       </c>
       <c r="M38" s="20">
@@ -43997,6 +44243,63 @@
       <c r="N38" s="7">
         <f>N36</f>
         <v>51.918391614346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="35">
+        <f>B37/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="35">
+        <f t="shared" ref="C39:N39" si="18">C37/C$7</f>
+        <v>1.0929187715387212</v>
+      </c>
+      <c r="D39" s="35">
+        <f t="shared" si="18"/>
+        <v>0.21561647438349127</v>
+      </c>
+      <c r="E39" s="35">
+        <f t="shared" si="18"/>
+        <v>0.91019266183706515</v>
+      </c>
+      <c r="F39" s="35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="35">
+        <f t="shared" si="18"/>
+        <v>0.84984765546149843</v>
+      </c>
+      <c r="I39" s="35">
+        <f t="shared" si="18"/>
+        <v>0.85045454234926798</v>
+      </c>
+      <c r="J39" s="35">
+        <f t="shared" si="18"/>
+        <v>0.97175049570863703</v>
+      </c>
+      <c r="K39" s="35">
+        <f t="shared" si="18"/>
+        <v>1.2444378970938286</v>
+      </c>
+      <c r="L39" s="35">
+        <f t="shared" si="18"/>
+        <v>1.0528312666671242</v>
+      </c>
+      <c r="M39" s="35">
+        <f t="shared" si="18"/>
+        <v>1.0001091781070162</v>
+      </c>
+      <c r="N39" s="35">
+        <f t="shared" si="18"/>
+        <v>0.96997110519034302</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -44162,15 +44465,15 @@
         <v>0</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:E47" si="15">C45/1000000</f>
+        <f t="shared" ref="C47:E47" si="19">C45/1000000</f>
         <v>3.9458452800000002E-2</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3.1844518909000001</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.2297970503</v>
       </c>
       <c r="F47" s="2">
@@ -44178,27 +44481,27 @@
         <v>0</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" ref="G47:L47" si="16">G45/1000000</f>
+        <f t="shared" ref="G47:L47" si="20">G45/1000000</f>
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.65896577140000001</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.2542695492</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.119259348</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>6.915396436E-2</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.6621014670000005E-2</v>
       </c>
       <c r="M47" s="18">
@@ -44219,15 +44522,15 @@
         <v>0</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" ref="C48:E48" si="17">C46/1000000</f>
+        <f t="shared" ref="C48:E48" si="21">C46/1000000</f>
         <v>9.5540781999999998E-3</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.55729474750000008</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.13674327960000002</v>
       </c>
       <c r="F48" s="5">
@@ -44235,27 +44538,27 @@
         <v>0</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" ref="G48:L48" si="18">G46/1000000</f>
+        <f t="shared" ref="G48:L48" si="22">G46/1000000</f>
         <v>0</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.16608941329999999</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6.3653630400000008E-2</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.9209036019999999E-2</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.5763765400000001E-2</v>
       </c>
       <c r="L48" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.484698842E-2</v>
       </c>
       <c r="M48" s="20">
@@ -44265,6 +44568,63 @@
       <c r="N48" s="7">
         <f>N46</f>
         <v>155.017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="35">
+        <f>B47/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="35">
+        <f t="shared" ref="C49:N49" si="23">C47/C$7</f>
+        <v>2.4475543346112887</v>
+      </c>
+      <c r="D49" s="35">
+        <f t="shared" si="23"/>
+        <v>0.21290250153579002</v>
+      </c>
+      <c r="E49" s="35">
+        <f t="shared" si="23"/>
+        <v>0.31496675596979729</v>
+      </c>
+      <c r="F49" s="35">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="35">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="35">
+        <f t="shared" si="23"/>
+        <v>0.87852511701789149</v>
+      </c>
+      <c r="I49" s="35">
+        <f t="shared" si="23"/>
+        <v>0.87722931059093134</v>
+      </c>
+      <c r="J49" s="35">
+        <f t="shared" si="23"/>
+        <v>1.0225395669501538</v>
+      </c>
+      <c r="K49" s="35">
+        <f t="shared" si="23"/>
+        <v>1.0951577570225124</v>
+      </c>
+      <c r="L49" s="35">
+        <f t="shared" si="23"/>
+        <v>0.9767490343609867</v>
+      </c>
+      <c r="M49" s="35">
+        <f t="shared" si="23"/>
+        <v>1.1541191107432875</v>
+      </c>
+      <c r="N49" s="35">
+        <f t="shared" si="23"/>
+        <v>1.3951788044800317</v>
       </c>
     </row>
   </sheetData>

--- a/Bench-in-loop/Structured_Grid/Structured Grid comparison.xlsx
+++ b/Bench-in-loop/Structured_Grid/Structured Grid comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikerlan-my.sharepoint.com/personal/mrodriguez_ikerlan_es/Documents/Documentos/GitHub/MARS-data/Bench-in-loop/Structured_Grid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="410" documentId="8_{8E775A4F-0340-4AC3-98F9-9A140DC03C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FBD0DD6-0409-4132-8090-FF1372334A25}"/>
+  <xr:revisionPtr revIDLastSave="446" documentId="8_{8E775A4F-0340-4AC3-98F9-9A140DC03C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{499F3B64-689D-430E-9B41-C8797CD39CAC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="7" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" firstSheet="1" activeTab="10" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
   </bookViews>
   <sheets>
     <sheet name="particlefilter_naive" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="52">
   <si>
     <t>cudaMalloc</t>
   </si>
@@ -6125,9 +6125,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -6163,20 +6164,30 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>KERNEL LAUNCH API</c:v>
+            <c:v>COPY API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6201,12 +6212,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6268,31 +6276,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(leukocyte!$D$7,leukocyte!$D$17,leukocyte!$D$27,leukocyte!$D$37,leukocyte!$D$47)</c:f>
+              <c:f>(leukocyte!$J$9,leukocyte!$J$19,leukocyte!$J$29,leukocyte!$J$39,leukocyte!$J$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.101620104</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.141375646315789</c:v>
+                  <c:v>0.54546277602011484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6319165271966503E-2</c:v>
+                  <c:v>1.2699855090273746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13909319919517102</c:v>
+                  <c:v>0.55945713708370282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15117052515090501</c:v>
+                  <c:v>2.4071717593549899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F9C2-4D95-AB04-0EB73B8B8A36}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6300,7 +6308,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>AllocAPI</c:v>
+            <c:v>KERNEL LAUNCH API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -6313,26 +6321,6 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-F9C2-4D95-AB04-0EB73B8B8A36}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
@@ -6349,12 +6337,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6416,43 +6401,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(leukocyte!$E$7,leukocyte!$E$17,leukocyte!$E$27,leukocyte!$E$37,leukocyte!$E$47)</c:f>
+              <c:f>(leukocyte!$D$9,leukocyte!$D$19,leukocyte!$D$29,leukocyte!$D$39,leukocyte!$D$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.11969713400000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87992010105263108</c:v>
+                  <c:v>1.3912172960951603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4091635983263588E-2</c:v>
+                  <c:v>0.94783572817408746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.12110293762575</c:v>
+                  <c:v>1.3687567097468334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1020476780684099</c:v>
+                  <c:v>1.4876045113170224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F9C2-4D95-AB04-0EB73B8B8A36}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>COPY API</c:v>
+            <c:v>TOTAL EXEC</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6477,12 +6462,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6544,167 +6526,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(leukocyte!$J$7,leukocyte!$J$17,leukocyte!$J$27,leukocyte!$J$37,leukocyte!$J$47)</c:f>
+              <c:f>(leukocyte!$Q$9,leukocyte!$Q$19,leukocyte!$Q$29,leukocyte!$Q$39,leukocyte!$Q$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.35534716399999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19382865052631501</c:v>
+                  <c:v>1.5303849074387101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.451285748953974</c:v>
+                  <c:v>1.6232079407562507</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19880150704225302</c:v>
+                  <c:v>1.5303849074387101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85538165794768606</c:v>
+                  <c:v>1.5621459673305109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F9C2-4D95-AB04-0EB73B8B8A36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>SYNC API</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>traditional alloc</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPT traditional alloc</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Zero-Copy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Unified Memory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(leukocyte!$C$7,leukocyte!$C$17,leukocyte!$C$27,leukocyte!$C$37,leukocyte!$C$47)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>81.598843884000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87.530412511578902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>91.6796920690376</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>102.364148030181</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87.884620112675989</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F9C2-4D95-AB04-0EB73B8B8A36}"/>
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>TOTAL EXEC</c:v>
+            <c:v>AllocAPI</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -6733,12 +6587,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6800,31 +6651,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(leukocyte!$Q$7,leukocyte!$Q$17,leukocyte!$Q$27,leukocyte!$Q$37,leukocyte!$Q$47)</c:f>
+              <c:f>(leukocyte!$E$9,leukocyte!$E$19,leukocyte!$E$29,leukocyte!$E$39,leukocyte!$E$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>991.35114859999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1517.14883578947</c:v>
+                  <c:v>7.3512211332698323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1609.16905648535</c:v>
+                  <c:v>0.78608094311818344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1517.14883578947</c:v>
+                  <c:v>9.3661635843824786</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1548.6351989939601</c:v>
+                  <c:v>9.2069679635638533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F9C2-4D95-AB04-0EB73B8B8A36}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6872,12 +6723,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6898,6 +6746,7 @@
         <c:axId val="2057779663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6923,12 +6772,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6937,11 +6783,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6955,12 +6809,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6987,12 +6838,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7024,16 +6872,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7061,7 +6906,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -7109,9 +6954,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -7147,13 +6993,23 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -7168,7 +7024,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7193,12 +7049,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7237,13 +7090,6 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
@@ -7267,37 +7113,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(leukocyte!$K$7,leukocyte!$K$17,leukocyte!$K$27,leukocyte!$K$36,leukocyte!$K$46)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(leukocyte!$K$7,leukocyte!$K$17,leukocyte!$K$27,leukocyte!$K$36,leukocyte!$K$46)</c:f>
+              <c:f>(leukocyte!$K$9,leukocyte!$K$19,leukocyte!$K$29,leukocyte!$K$39,leukocyte!$K$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6311495999999998E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5452252631578899E-3</c:v>
+                  <c:v>0.15603873876178434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.40050669456066E-2</c:v>
+                  <c:v>0.85860101033078762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E57-4EDC-9CBD-B24C89F7E691}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -7312,7 +7157,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7337,12 +7182,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7381,13 +7223,6 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
@@ -7411,37 +7246,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(leukocyte!$L$7,leukocyte!$L$17,leukocyte!$L$27,leukocyte!$L$36,leukocyte!$L$46)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(leukocyte!$L$7,leukocyte!$L$17,leukocyte!$L$27,leukocyte!$L$36,leukocyte!$L$46)</c:f>
+              <c:f>(leukocyte!$L$9,leukocyte!$L$19,leukocyte!$L$29,leukocyte!$L$39,leukocyte!$L$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.3550841999999999E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6832294979079402E-2</c:v>
+                  <c:v>0.84573095002570564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1E57-4EDC-9CBD-B24C89F7E691}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -7456,7 +7290,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7481,12 +7315,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7525,13 +7356,6 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
@@ -7555,37 +7379,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(leukocyte!$M$7,leukocyte!$M$17,leukocyte!$M$27,leukocyte!$M$36,leukocyte!$M$46)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(leukocyte!$M$7,leukocyte!$M$17,leukocyte!$M$27,leukocyte!$M$36,leukocyte!$M$46)</c:f>
+              <c:f>(leukocyte!$M$9,leukocyte!$M$19,leukocyte!$M$29,leukocyte!$M$39,leukocyte!$M$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.5398272E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0688200836819999E-2</c:v>
+                  <c:v>0.81455151109571544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1E57-4EDC-9CBD-B24C89F7E691}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -7600,7 +7423,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7625,12 +7448,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7669,13 +7489,6 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
@@ -7699,43 +7512,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(leukocyte!$O$7,leukocyte!$O$17,leukocyte!$O$27,leukocyte!$O$37,leukocyte!$O$47)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(leukocyte!$O$7,leukocyte!$O$17,leukocyte!$O$27,leukocyte!$O$37,leukocyte!$O$47)</c:f>
+              <c:f>(leukocyte!$O$9,leukocyte!$O$19,leukocyte!$O$29,leukocyte!$O$39,leukocyte!$O$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>58.286218751999996</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.023946240000001</c:v>
+                  <c:v>0.9440301226970903</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.581637087866099</c:v>
+                  <c:v>0.83350126544620118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.124533891347994</c:v>
+                  <c:v>0.82565887651953196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.909787042253505</c:v>
+                  <c:v>0.92491481170930612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1E57-4EDC-9CBD-B24C89F7E691}"/>
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
@@ -7750,7 +7556,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7775,161 +7581,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>traditional alloc</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPT traditional alloc</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Zero-Copy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Unified Memory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(leukocyte!$C$7,leukocyte!$C$17,leukocyte!$C$27,leukocyte!$C$37,leukocyte!$C$47,leukocyte!$N$7,leukocyte!$N$17,leukocyte!$N$27,leukocyte!$N$37,leukocyte!$N$47)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(leukocyte!$C$7,leukocyte!$C$17,leukocyte!$C$27,leukocyte!$C$37,leukocyte!$C$47)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>81.598843884000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87.530412511578902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>91.6796920690376</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>102.364148030181</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87.884620112675989</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1E57-4EDC-9CBD-B24C89F7E691}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>leukocyte!$P$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>kernel: IMGVF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7968,13 +7622,6 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
@@ -7998,38 +7645,164 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(leukocyte!$P$7,leukocyte!$P$17,leukocyte!$P$27,leukocyte!$P$37,leukocyte!$P$47)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(leukocyte!$P$7,leukocyte!$P$17,leukocyte!$P$27,leukocyte!$P$37,leukocyte!$P$47)</c:f>
+              <c:f>(leukocyte!$N$9,leukocyte!$N$19,leukocyte!$N$29,leukocyte!$N$39,leukocyte!$N$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>101.253511966</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.316128804210493</c:v>
+                  <c:v>0.88492464108622582</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104.292005148535</c:v>
+                  <c:v>0.81029229725100538</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.673896905432</c:v>
+                  <c:v>0.85861482733979366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.650963672032105</c:v>
+                  <c:v>0.89978641040974583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-1E57-4EDC-9CBD-B24C89F7E691}"/>
+              <c16:uniqueId val="{00000005-8959-47B9-95AC-9363B28C0341}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>leukocyte!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kernel: IMGVF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>traditional alloc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPT traditional alloc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ScatterAlloc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zero-Copy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unified Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(leukocyte!$P$9,leukocyte!$P$19,leukocyte!$P$29,leukocyte!$P$39,leukocyte!$P$49)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97098981452835076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0300087683235648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1522948156564685</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97429671086528025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8959-47B9-95AC-9363B28C0341}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8077,12 +7850,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8128,12 +7898,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8142,11 +7909,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.4301565120865251E-2"/>
+              <c:y val="0.38090538655666789"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8160,12 +7935,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8192,12 +7964,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8229,16 +7998,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8266,7 +8032,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -8314,9 +8080,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -8352,20 +8119,30 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>KERNEL LAUNCH API</c:v>
+            <c:v>COPY API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -8390,12 +8167,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8457,40 +8231,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(myocyte!$C$7,myocyte!$C$17,myocyte!$C$26,myocyte!$C$37,myocyte!$C$47)</c:f>
+              <c:f>(myocyte!$E$9,myocyte!$E$19,myocyte!$E$29,myocyte!$E$39,myocyte!$E$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.04762971311475E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4682817599999997E-2</c:v>
+                  <c:v>0.33988926083341003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8092693920335402E-2</c:v>
+                  <c:v>0.3302805238892309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.18481787941787E-2</c:v>
+                  <c:v>1.0642272009996934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5BC0-40CA-A38F-C037D738B557}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>AllocAPI</c:v>
+            <c:v>TOTAL EXEC</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -8515,12 +8292,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8582,40 +8356,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(myocyte!$D$7,myocyte!$D$17,myocyte!$D$26,myocyte!$D$37,myocyte!$D$47)</c:f>
+              <c:f>(myocyte!$I$9,myocyte!$I$19,myocyte!$I$29,myocyte!$I$39,myocyte!$I$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45.612372590163901</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189.96320518399997</c:v>
+                  <c:v>0.38022981490654428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0265074046121501</c:v>
+                  <c:v>0.36461756081698099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41484074844074803</c:v>
+                  <c:v>1.0687351293383476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5BC0-40CA-A38F-C037D738B557}"/>
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>COPY API</c:v>
+            <c:v>KERNEL LAUNCH API</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -8624,26 +8401,6 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A967-412E-9869-B1B8CF52C69A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
@@ -8660,12 +8417,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8727,36 +8481,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(myocyte!$E$7,myocyte!$E$17,myocyte!$E$26,myocyte!$E$37,myocyte!$E$47)</c:f>
+              <c:f>(myocyte!$C$9,myocyte!$C$19,myocyte!$C$29,myocyte!$C$39,myocyte!$C$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.36321960245901602</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1234544422</c:v>
+                  <c:v>1.2054336505233534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11996436058700199</c:v>
+                  <c:v>0.88359207743736623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38654818087317999</c:v>
+                  <c:v>1.5553680721761394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5BC0-40CA-A38F-C037D738B557}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>TOTAL EXEC</c:v>
+            <c:v>AllocAPI</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -8785,12 +8542,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8852,28 +8606,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(myocyte!$I$7,myocyte!$I$17,myocyte!$I$26,myocyte!$I$37,myocyte!$I$47)</c:f>
+              <c:f>(myocyte!$D$9,myocyte!$D$19,myocyte!$D$29,myocyte!$D$39,myocyte!$D$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6006.5351454918</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2283.8637466</c:v>
+                  <c:v>4.164729751965691</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2190.0881937106901</c:v>
+                  <c:v>2.2505021035312503E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6419.3951155925097</c:v>
+                  <c:v>9.0949171218996511E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5BC0-40CA-A38F-C037D738B557}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8890,140 +8647,7 @@
         <c:axId val="2057779183"/>
         <c:axId val="2057779663"/>
         <c:axId val="1524889007"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>SYNC API</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                  <a:sp3d/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="es-ES"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(myocyte!$A$1,myocyte!$A$11,myocyte!$A$21,myocyte!$A$31,myocyte!$A$41)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>cudaMalloc</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>OPT traditional alloc</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>ScatterAlloc</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Zero-Copy</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>Unified Memory</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>(#REF!,#REF!,#REF!,#REF!)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-5BC0-40CA-A38F-C037D738B557}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:bar3DChart>
       <c:catAx>
         <c:axId val="2057779183"/>
@@ -9054,12 +8678,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9080,6 +8701,7 @@
         <c:axId val="2057779663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -9105,12 +8727,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9119,11 +8738,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.444834467933232E-2"/>
+              <c:y val="0.37106564582373364"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9137,12 +8764,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -9169,12 +8793,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9206,16 +8827,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9243,7 +8861,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -9291,9 +8909,10 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="40"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -9329,13 +8948,23 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7206391626089008E-2"/>
+          <c:y val="2.2770647303387497E-2"/>
+          <c:w val="0.74041050325388946"/>
+          <c:h val="0.81955410382548477"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -9350,7 +8979,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -9360,7 +8989,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -9375,12 +9004,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9442,27 +9068,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(myocyte!$F$7,myocyte!$F$17,myocyte!$F$26,myocyte!$F$36,myocyte!$F$46)</c:f>
+              <c:f>(myocyte!$F$9,myocyte!$F$19,myocyte!$F$29,myocyte!$F$39,myocyte!$F$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0855655737704898E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4452454000000001E-3</c:v>
+                  <c:v>1.3313294331730106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-066F-44D2-9E44-6FA3A8FCD023}"/>
+              <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -9477,7 +9112,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -9487,7 +9122,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -9502,12 +9137,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9569,27 +9201,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(myocyte!$G$7,myocyte!$G$17,myocyte!$G$26,myocyte!$G$36,myocyte!$G$46)</c:f>
+              <c:f>(myocyte!$G$9,myocyte!$G$19,myocyte!$G$29,myocyte!$G$39,myocyte!$G$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.76836885245901E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2099337999999997E-3</c:v>
+                  <c:v>1.2497018350707605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-066F-44D2-9E44-6FA3A8FCD023}"/>
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -9604,7 +9245,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -9614,7 +9255,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -9629,12 +9270,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9696,28 +9334,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(myocyte!$H$7,myocyte!$H$17,myocyte!$H$26,myocyte!$H$37,myocyte!$H$47)</c:f>
+              <c:f>(myocyte!$H$9,myocyte!$H$19,myocyte!$H$29,myocyte!$H$39,myocyte!$H$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.221531159836065</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31848186979999998</c:v>
+                  <c:v>1.4376391566571465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22005743186582799</c:v>
+                  <c:v>0.99334753643086782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26503113721413701</c:v>
+                  <c:v>1.1963605364151138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-066F-44D2-9E44-6FA3A8FCD023}"/>
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9765,12 +9406,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9816,12 +9454,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9830,11 +9465,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4448270663903657E-2"/>
+              <c:y val="0.31551400171674465"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9848,12 +9491,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -9880,12 +9520,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9917,16 +9554,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="180000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9954,7 +9588,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -28721,16 +28355,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>363335</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>199331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>134449</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>75262</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28759,16 +28393,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>317676</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>102971</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>432955</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28803,15 +28437,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>404813</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>279776</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>189372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>20794</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>177946</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>175087</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>102003</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28840,16 +28474,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>246263</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>169370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>235106</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>35071</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>554180</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33547,10 +33181,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:BL48"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B12"/>
+    <sheetView topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AL30" sqref="AL30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33977,6 +33611,75 @@
       <c r="BK8" s="35"/>
       <c r="BL8" s="35"/>
     </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="35">
+        <f>B7/B$7</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="35">
+        <f t="shared" ref="C9:Q9" si="2">C7/C$7</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="10" spans="1:64" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:64" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
@@ -34176,35 +33879,35 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:J17" si="2">C15/1000000</f>
+        <f t="shared" ref="C17:J17" si="3">C15/1000000</f>
         <v>87.530412511578902</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.141375646315789</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87992010105263108</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2744233684210498E-2</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0278189473684201E-2</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64810475157894698</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19382865052631501</v>
       </c>
       <c r="K17" s="2">
@@ -34212,23 +33915,23 @@
         <v>2.5452252631578899E-3</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" ref="L17:P18" si="3">L15/1000000</f>
+        <f t="shared" ref="L17:P18" si="4">L15/1000000</f>
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7037443368420999</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.023946240000001</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98.316128804210493</v>
       </c>
       <c r="Q17" s="4">
@@ -34245,35 +33948,35 @@
         <v>0</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" ref="C18:J18" si="4">C16/1000000</f>
+        <f t="shared" ref="C18:J18" si="5">C16/1000000</f>
         <v>8.6273981115888301</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3935119946418001E-2</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.324080857002018</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.08751485940729E-2</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7812905409133598E-3</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31573964939060301</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3436873603044301E-2</v>
       </c>
       <c r="K18" s="5">
@@ -34281,28 +33984,97 @@
         <v>3.4726531065584196E-4</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.841322515524492</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5976904646398902</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.153960585136199</v>
       </c>
       <c r="Q18" s="7">
         <f>Q16</f>
         <v>117.21827846654099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="35">
+        <f>B17/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="35">
+        <f t="shared" ref="C19:Q19" si="6">C17/C$7</f>
+        <v>1.0726918219087902</v>
+      </c>
+      <c r="D19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.3912172960951603</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" si="6"/>
+        <v>7.3512211332698323</v>
+      </c>
+      <c r="F19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.6486118350498951</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.5863964265966701</v>
+      </c>
+      <c r="H19" s="35">
+        <f t="shared" si="6"/>
+        <v>2.8760925979955001</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="6"/>
+        <v>0.54546277602011484</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" si="6"/>
+        <v>0.15603873876178434</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="35">
+        <f t="shared" si="6"/>
+        <v>0.88492464108622582</v>
+      </c>
+      <c r="O19" s="35">
+        <f t="shared" si="6"/>
+        <v>0.9440301226970903</v>
+      </c>
+      <c r="P19" s="35">
+        <f t="shared" si="6"/>
+        <v>0.97098981452835076</v>
+      </c>
+      <c r="Q19" s="35">
+        <f t="shared" si="6"/>
+        <v>1.5303849074387101</v>
       </c>
     </row>
     <row r="20" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -34521,35 +34293,35 @@
         <v>2.8454843974895399</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:J28" si="5">C25/1000000</f>
+        <f t="shared" ref="C27:J28" si="7">C25/1000000</f>
         <v>91.6796920690376</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.6319165271966503E-2</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.4091635983263588E-2</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8476240585774E-2</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.1868410041840995E-3</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.352375956066945</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.100997288702928</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.451285748953974</v>
       </c>
       <c r="K27" s="2">
@@ -34557,23 +34329,23 @@
         <v>1.40050669456066E-2</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" ref="L27:P28" si="6">L25/1000000</f>
+        <f t="shared" ref="L27:P28" si="8">L25/1000000</f>
         <v>3.6832294979079402E-2</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0688200836819999E-2</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.3913797489539701</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48.581637087866099</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>104.292005148535</v>
       </c>
       <c r="Q27" s="4">
@@ -34590,35 +34362,35 @@
         <v>0.28741227925996699</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18.857268931884697</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.28116857884518E-2</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0081410863945301E-2</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.9257197349919895E-3</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.9080738334443905E-3</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.53958844788824001</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5709755160631498E-2</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.33355947288529098</v>
       </c>
       <c r="K28" s="5">
@@ -34626,28 +34398,97 @@
         <v>1.0319157306551E-3</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5484920173899101E-3</v>
       </c>
       <c r="M28" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.4159445410702804E-3</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.97475352275585603</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.2923425283377</v>
       </c>
       <c r="P28" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22.220390048985703</v>
       </c>
       <c r="Q28" s="7">
         <f>Q26</f>
         <v>272.78971016627099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="35">
+        <f>B27/B$7</f>
+        <v>0.49309616143034429</v>
+      </c>
+      <c r="C29" s="35">
+        <f t="shared" ref="C29:Q29" si="9">C27/C$7</f>
+        <v>1.1235415565368601</v>
+      </c>
+      <c r="D29" s="35">
+        <f t="shared" si="9"/>
+        <v>0.94783572817408746</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" si="9"/>
+        <v>0.78608094311818344</v>
+      </c>
+      <c r="F29" s="35">
+        <f t="shared" si="9"/>
+        <v>0.93024467118997878</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="9"/>
+        <v>1.2636053603998578</v>
+      </c>
+      <c r="H29" s="35">
+        <f t="shared" si="9"/>
+        <v>1.5637377699926887</v>
+      </c>
+      <c r="I29" s="35">
+        <f t="shared" si="9"/>
+        <v>0.8622775699816625</v>
+      </c>
+      <c r="J29" s="35">
+        <f t="shared" si="9"/>
+        <v>1.2699855090273746</v>
+      </c>
+      <c r="K29" s="35">
+        <f t="shared" si="9"/>
+        <v>0.85860101033078762</v>
+      </c>
+      <c r="L29" s="35">
+        <f t="shared" si="9"/>
+        <v>0.84573095002570564</v>
+      </c>
+      <c r="M29" s="35">
+        <f t="shared" si="9"/>
+        <v>0.81455151109571544</v>
+      </c>
+      <c r="N29" s="35">
+        <f t="shared" si="9"/>
+        <v>0.81029229725100538</v>
+      </c>
+      <c r="O29" s="35">
+        <f t="shared" si="9"/>
+        <v>0.83350126544620118</v>
+      </c>
+      <c r="P29" s="35">
+        <f t="shared" si="9"/>
+        <v>1.0300087683235648</v>
+      </c>
+      <c r="Q29" s="35">
+        <f t="shared" si="9"/>
+        <v>1.6232079407562507</v>
       </c>
     </row>
     <row r="30" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -34845,35 +34686,35 @@
         <v>0</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:J38" si="7">C35/1000000</f>
+        <f t="shared" ref="C37:J38" si="10">C35/1000000</f>
         <v>102.364148030181</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.13909319919517102</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.12110293762575</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.84566700201207E-2</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.8825513078470793E-3</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.69924969215291699</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.19880150704225302</v>
       </c>
       <c r="K37" s="2">
@@ -34881,23 +34722,23 @@
         <v>0</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" ref="L37:P38" si="8">L35/1000000</f>
+        <f t="shared" ref="L37:P38" si="11">L35/1000000</f>
         <v>0</v>
       </c>
       <c r="M37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.5936278148893299</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>48.124533891347994</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>116.673896905432</v>
       </c>
       <c r="Q37" s="4">
@@ -34914,35 +34755,35 @@
         <v>0</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>23.539392579770801</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.70062482510152E-2</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.245350137613044</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.21107935092277E-2</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.7679390322122699E-3</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.60236744494325301</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.3910340494205401E-2</v>
       </c>
       <c r="K38" s="5">
@@ -34950,28 +34791,97 @@
         <v>0</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M38" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0424647025481599</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>13.027196310423701</v>
       </c>
       <c r="P38" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>28.170672524441802</v>
       </c>
       <c r="Q38" s="7">
         <f>Q36</f>
         <v>117.21827846654099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="35">
+        <f>B37/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="35">
+        <f t="shared" ref="C39:Q39" si="12">C37/C$7</f>
+        <v>1.2544803719976807</v>
+      </c>
+      <c r="D39" s="35">
+        <f t="shared" si="12"/>
+        <v>1.3687567097468334</v>
+      </c>
+      <c r="E39" s="35">
+        <f t="shared" si="12"/>
+        <v>9.3661635843824786</v>
+      </c>
+      <c r="F39" s="35">
+        <f t="shared" si="12"/>
+        <v>1.4327409043596822</v>
+      </c>
+      <c r="G39" s="35">
+        <f t="shared" si="12"/>
+        <v>1.5253312969727952</v>
+      </c>
+      <c r="H39" s="35">
+        <f t="shared" si="12"/>
+        <v>3.103058354150424</v>
+      </c>
+      <c r="I39" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="35">
+        <f t="shared" si="12"/>
+        <v>0.55945713708370282</v>
+      </c>
+      <c r="K39" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="35">
+        <f t="shared" si="12"/>
+        <v>0.85861482733979366</v>
+      </c>
+      <c r="O39" s="35">
+        <f t="shared" si="12"/>
+        <v>0.82565887651953196</v>
+      </c>
+      <c r="P39" s="35">
+        <f t="shared" si="12"/>
+        <v>1.1522948156564685</v>
+      </c>
+      <c r="Q39" s="35">
+        <f t="shared" si="12"/>
+        <v>1.5303849074387101</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -35169,35 +35079,35 @@
         <v>0</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:J48" si="9">C45/1000000</f>
+        <f t="shared" ref="C47:J48" si="13">C45/1000000</f>
         <v>87.884620112675989</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.15117052515090501</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.1020476780684099</v>
       </c>
       <c r="F47" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.5063615694164905E-2</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.1333863179074401E-2</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.68549322736418505</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.85538165794768606</v>
       </c>
       <c r="K47" s="2">
@@ -35205,23 +35115,23 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" ref="L47:P48" si="10">L45/1000000</f>
+        <f t="shared" ref="L47:P48" si="14">L45/1000000</f>
         <v>0</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.7659464627766601</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>53.909787042253505</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>98.650963672032105</v>
       </c>
       <c r="Q47" s="4">
@@ -35238,35 +35148,35 @@
         <v>0</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>10.077952513930098</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.3118054526351099E-2</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.15776428248423999</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.11901998271959E-2</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.1420195795273101E-3</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.39584593865913797</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.130712324375172</v>
       </c>
       <c r="K48" s="5">
@@ -35274,28 +35184,97 @@
         <v>0</v>
       </c>
       <c r="L48" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M48" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.877739742039371</v>
       </c>
       <c r="O48" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9.9579143162862191</v>
       </c>
       <c r="P48" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>11.808989048836199</v>
       </c>
       <c r="Q48" s="7">
         <f>Q46</f>
         <v>137.063400022666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="35">
+        <f>B47/B$7</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="35">
+        <f t="shared" ref="C49:Q49" si="15">C47/C$7</f>
+        <v>1.0770326628354168</v>
+      </c>
+      <c r="D49" s="35">
+        <f t="shared" si="15"/>
+        <v>1.4876045113170224</v>
+      </c>
+      <c r="E49" s="35">
+        <f t="shared" si="15"/>
+        <v>9.2069679635638533</v>
+      </c>
+      <c r="F49" s="35">
+        <f t="shared" si="15"/>
+        <v>1.7653884458110285</v>
+      </c>
+      <c r="G49" s="35">
+        <f t="shared" si="15"/>
+        <v>1.7493353370118698</v>
+      </c>
+      <c r="H49" s="35">
+        <f t="shared" si="15"/>
+        <v>3.0420113297966176</v>
+      </c>
+      <c r="I49" s="35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="35">
+        <f t="shared" si="15"/>
+        <v>2.4071717593549899</v>
+      </c>
+      <c r="K49" s="35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="35">
+        <f t="shared" si="15"/>
+        <v>0.89978641040974583</v>
+      </c>
+      <c r="O49" s="35">
+        <f t="shared" si="15"/>
+        <v>0.92491481170930612</v>
+      </c>
+      <c r="P49" s="35">
+        <f t="shared" si="15"/>
+        <v>0.97429671086528025</v>
+      </c>
+      <c r="Q49" s="35">
+        <f t="shared" si="15"/>
+        <v>1.5621459673305109</v>
       </c>
     </row>
   </sheetData>
@@ -35339,8 +35318,8 @@
   </sheetPr>
   <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:I9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC44" sqref="AC44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42891,8 +42870,8 @@
   </sheetPr>
   <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE42" sqref="AE42"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Bench-in-loop/Structured_Grid/Structured Grid comparison.xlsx
+++ b/Bench-in-loop/Structured_Grid/Structured Grid comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikerlan-my.sharepoint.com/personal/mrodriguez_ikerlan_es/Documents/Documentos/GitHub/MARS-data/Bench-in-loop/Structured_Grid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="446" documentId="8_{8E775A4F-0340-4AC3-98F9-9A140DC03C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{499F3B64-689D-430E-9B41-C8797CD39CAC}"/>
+  <xr:revisionPtr revIDLastSave="497" documentId="8_{8E775A4F-0340-4AC3-98F9-9A140DC03C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44A933AA-C935-4209-94A6-1AF8C5C92688}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" firstSheet="1" activeTab="10" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
   </bookViews>
@@ -25,10 +25,6 @@
     <sheet name="leukocyte" sheetId="21" r:id="rId10"/>
     <sheet name="myocyte" sheetId="18" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -648,6 +644,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1241,8 +1238,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.444834467933232E-2"/>
-              <c:y val="0.37106564582373364"/>
+              <c:x val="8.7828865681984104E-3"/>
+              <c:y val="0.37106568155772551"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1451,7 +1448,7 @@
           <c:x val="8.7206391626089008E-2"/>
           <c:y val="2.2770647303387497E-2"/>
           <c:w val="0.74041050325388946"/>
-          <c:h val="0.91789469362338394"/>
+          <c:h val="0.92398951516430938"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -2639,8 +2636,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.1479058832729708"/>
-              <c:y val="0.44196238926778303"/>
+              <c:x val="0.11744944856830898"/>
+              <c:y val="0.42408890999929622"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5443,9 +5440,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
-          <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:x val="0.1212173014415686"/>
+          <c:y val="2.2770652001246974E-2"/>
+          <c:w val="0.65722006516836851"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -5612,6 +5609,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5963,8 +5961,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.444834467933232E-2"/>
-              <c:y val="0.37106564582373364"/>
+              <c:x val="1.3212182305091899E-3"/>
+              <c:y val="0.34146579820562345"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6998,9 +6996,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="9.732940744506581E-2"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.65659309156640122"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -7009,8 +7007,274 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>leukocyte!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[CUDA memcpy DtoH]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>traditional alloc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPT traditional alloc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ScatterAlloc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zero-Copy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unified Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(leukocyte!$L$9,leukocyte!$L$19,leukocyte!$L$29,leukocyte!$L$39,leukocyte!$L$49)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84573095002570564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>leukocyte!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[CUDA memset]   </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>traditional alloc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPT traditional alloc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ScatterAlloc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zero-Copy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unified Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(leukocyte!$M$9,leukocyte!$M$19,leukocyte!$M$29,leukocyte!$M$39,leukocyte!$M$49)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81455151109571544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>leukocyte!$K$4</c:f>
@@ -7138,272 +7402,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>leukocyte!$L$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>[CUDA memcpy DtoH]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>traditional alloc</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPT traditional alloc</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Zero-Copy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Unified Memory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(leukocyte!$L$9,leukocyte!$L$19,leukocyte!$L$29,leukocyte!$L$39,leukocyte!$L$49)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84573095002570564</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>leukocyte!$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>[CUDA memset]   </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(leukocyte!$A$1,leukocyte!$A$11,leukocyte!$A$21,leukocyte!$A$31,leukocyte!$A$41)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>traditional alloc</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPT traditional alloc</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Zero-Copy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Unified Memory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(leukocyte!$M$9,leukocyte!$M$19,leukocyte!$M$29,leukocyte!$M$39,leukocyte!$M$49)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.81455151109571544</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8124,9 +8122,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="0.11801526733766188"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.6361636396755429"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -8277,6 +8275,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8618421412728045E-3"/>
+                  <c:y val="9.4645822476855084E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-FA19-4322-8CD7-FA3949CAADBB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -8402,6 +8421,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9309210706363669E-3"/>
+                  <c:y val="-4.7322911238427976E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FA19-4322-8CD7-FA3949CAADBB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -8527,6 +8567,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9309210706363669E-3"/>
+                  <c:y val="7.0984366857641317E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-FA19-4322-8CD7-FA3949CAADBB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -8953,9 +9014,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="0.106913421415694"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.65656935851100751"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -10083,6 +10144,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2749386341667742E-2"/>
+                  <c:y val="-1.3180020749019541E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-2E90-4916-9639-7907B00EC4BD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -10508,9 +10590,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="9.7967293679037448E-2"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.67507512850929219"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -11028,8 +11110,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.444834467933232E-2"/>
-              <c:y val="0.37106564582373364"/>
+              <c:x val="5.4809919222730602E-3"/>
+              <c:y val="0.37106559005381307"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -12061,9 +12143,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="0.10144381632859255"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.68747044102308852"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -14127,7 +14209,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Time facotr</a:t>
+                  <a:t>Time factor</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -14136,8 +14218,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.444834467933232E-2"/>
-              <c:y val="0.37106564582373364"/>
+              <c:x val="7.2744732531209392E-3"/>
+              <c:y val="0.37106563223600758"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -27604,15 +27686,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>364027</xdr:colOff>
+      <xdr:colOff>360217</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>211628</xdr:rowOff>
+      <xdr:rowOff>207817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>519544</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171381</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104135</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27642,15 +27724,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>436764</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>315536</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>98198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>536863</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>17319</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>195100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>165390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27687,13 +27769,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>140104</xdr:rowOff>
+      <xdr:rowOff>132484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>311727</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>112364</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:rowOff>69153</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27728,10 +27810,10 @@
       <xdr:rowOff>59575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>242454</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>91235</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:rowOff>9752</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27810,9 +27892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>207817</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>103908</xdr:rowOff>
+      <xdr:colOff>211627</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>87906</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27885,15 +27967,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>169372</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>211629</xdr:rowOff>
+      <xdr:colOff>313632</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>34637</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>77120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27928,15 +28010,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>450272</xdr:colOff>
+      <xdr:colOff>444556</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:rowOff>21128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>225135</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>252119</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>155863</xdr:rowOff>
+      <xdr:rowOff>59801</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27966,15 +28048,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>507942</xdr:colOff>
+      <xdr:colOff>515562</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
+      <xdr:rowOff>173181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>121227</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>323125</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>34862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28358,13 +28440,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>363335</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>199331</xdr:rowOff>
+      <xdr:rowOff>203141</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>450273</xdr:colOff>
+      <xdr:colOff>170899</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
+      <xdr:rowOff>132190</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28396,13 +28478,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>432955</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:colOff>188563</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>90627</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28437,15 +28519,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>279776</xdr:colOff>
+      <xdr:colOff>283585</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>189372</xdr:rowOff>
+      <xdr:rowOff>189370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>175087</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>102003</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>49585</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>59710</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28475,15 +28557,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>246263</xdr:colOff>
+      <xdr:colOff>250072</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>169370</xdr:rowOff>
+      <xdr:rowOff>173180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>554180</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>17317</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>16072</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>70190</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28511,131 +28593,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="gaussian3"/>
-      <sheetName val="gaussian1024"/>
-      <sheetName val="LUD64"/>
-      <sheetName val="LUD2048"/>
-      <sheetName val="Kmeans100"/>
-      <sheetName val="Kmeans819200"/>
-      <sheetName val="Streamcluster"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>traditional Allocation</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>ScatterAlloc</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Zero-Copy</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Unified Memory</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="7">
-          <cell r="F7">
-            <v>0.49685522645290497</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>0.59037115000000007</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>0.55035044</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>1.0994194107142801</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="7">
-          <cell r="C7">
-            <v>1.902906E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="gaussian3"/>
-      <sheetName val="gaussian1024"/>
-      <sheetName val="LUD64"/>
-      <sheetName val="LUD2048"/>
-      <sheetName val="Kmeans100"/>
-      <sheetName val="Kmeans819200"/>
-      <sheetName val="Streamcluster"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="7">
-          <cell r="F7">
-            <v>0.49685522645290497</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>0.52853861533333302</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>0.59037115000000007</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>0.55035044</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33183,8 +33140,8 @@
   </sheetPr>
   <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AL30" sqref="AL30"/>
+    <sheetView topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ40" sqref="AJ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35318,8 +35275,8 @@
   </sheetPr>
   <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC44" sqref="AC44"/>
+    <sheetView tabSelected="1" topLeftCell="H14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35624,7 +35581,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="35">
-        <f t="shared" ref="C9:K9" si="1">C7/C$7</f>
+        <f t="shared" ref="C9:I9" si="1">C7/C$7</f>
         <v>1</v>
       </c>
       <c r="D9" s="35">
@@ -35870,7 +35827,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="35">
-        <f t="shared" ref="C19:K19" si="6">C17/C$7</f>
+        <f t="shared" ref="C19:I19" si="6">C17/C$7</f>
         <v>1.2054336505233534</v>
       </c>
       <c r="D19" s="35">
@@ -36067,7 +36024,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="35">
-        <f t="shared" ref="C29:K29" si="9">C27/C$7</f>
+        <f t="shared" ref="C29:I29" si="9">C27/C$7</f>
         <v>0</v>
       </c>
       <c r="D29" s="35">
@@ -36284,7 +36241,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="35">
-        <f t="shared" ref="C39:K39" si="12">C37/C$7</f>
+        <f t="shared" ref="C39:I39" si="12">C37/C$7</f>
         <v>0.88359207743736623</v>
       </c>
       <c r="D39" s="35">
@@ -36501,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="35">
-        <f t="shared" ref="C49:K49" si="15">C47/C$7</f>
+        <f t="shared" ref="C49:I49" si="15">C47/C$7</f>
         <v>1.5553680721761394</v>
       </c>
       <c r="D49" s="35">
@@ -36915,7 +36872,7 @@
   <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:I9"/>
+      <selection activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38188,7 +38145,7 @@
   <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:I49"/>
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39430,7 +39387,7 @@
   <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:I39"/>
+      <selection activeCell="Z43" sqref="Z43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41391,7 +41348,7 @@
   <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+      <selection activeCell="AE40" sqref="AE40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42870,8 +42827,8 @@
   </sheetPr>
   <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:N19"/>
+    <sheetView topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
